--- a/meatdata.xlsx
+++ b/meatdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthew/Desktop/300paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681073A6-1729-004E-8894-57BCE5017423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF105A3-5AC6-9C45-9991-71B9467ACB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="2660" windowWidth="27640" windowHeight="16940" xr2:uid="{5FC80849-C5A7-D745-8E66-F1532AE7C3C1}"/>
+    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="21580" xr2:uid="{5FC80849-C5A7-D745-8E66-F1532AE7C3C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1646,26 +1646,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1984,60 +1984,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{844F6AF9-BCF0-7249-BEF0-5B7D9495B50F}">
   <dimension ref="A1:Q560"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="D489" sqref="D96:D489"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>488</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>489</v>
       </c>
       <c r="F1" s="11"/>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="6" t="s">
         <v>500</v>
       </c>
     </row>
@@ -2054,10 +2054,10 @@
       <c r="D2" s="3">
         <v>7070.5</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="8">
         <v>33</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="9"/>
       <c r="G2" s="3">
         <v>13937.1</v>
       </c>
@@ -2105,10 +2105,10 @@
       <c r="D3" s="3">
         <v>6904.5</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="8">
         <v>31.5</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="3">
         <v>13973</v>
       </c>
@@ -2156,10 +2156,10 @@
       <c r="D4" s="3">
         <v>2488.1</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="8">
         <v>12.7</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="3">
         <v>4909.5</v>
       </c>
@@ -2207,10 +2207,10 @@
       <c r="D5" s="3">
         <v>2157</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="8">
         <v>10.1</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="3">
         <v>4263.1000000000004</v>
       </c>
@@ -2258,10 +2258,10 @@
       <c r="D6" s="3">
         <v>2425.4</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="8">
         <v>10.199999999999999</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="9"/>
       <c r="G6" s="3">
         <v>4764.5</v>
       </c>
@@ -2309,10 +2309,10 @@
       <c r="D7" s="3">
         <v>2230.1</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="8">
         <v>11</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="3">
         <v>4471.1000000000004</v>
       </c>
@@ -2360,10 +2360,10 @@
       <c r="D8" s="3">
         <v>2350.4</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="8">
         <v>11.1</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="3">
         <v>4788.1000000000004</v>
       </c>
@@ -2411,10 +2411,10 @@
       <c r="D9" s="3">
         <v>2338.3000000000002</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="8">
         <v>10.5</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="3">
         <v>4757.6000000000004</v>
       </c>
@@ -2462,10 +2462,10 @@
       <c r="D10" s="3">
         <v>2259.4</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="8">
         <v>10.8</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="3">
         <v>4664.7</v>
       </c>
@@ -2513,10 +2513,10 @@
       <c r="D11" s="3">
         <v>2303.8000000000002</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="8">
         <v>11.7</v>
       </c>
-      <c r="F11" s="6"/>
+      <c r="F11" s="9"/>
       <c r="G11" s="3">
         <v>4826.2</v>
       </c>
@@ -2564,10 +2564,10 @@
       <c r="D12" s="3">
         <v>1970.6</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="8">
         <v>10.4</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="3">
         <v>4233</v>
       </c>
@@ -2615,10 +2615,10 @@
       <c r="D13" s="3">
         <v>2255.6</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="8">
         <v>11.5</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="3">
         <v>4727.7</v>
       </c>
@@ -2666,10 +2666,10 @@
       <c r="D14" s="3">
         <v>2181.6</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="8">
         <v>10.8</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="3">
         <v>4485.8</v>
       </c>
@@ -2717,10 +2717,10 @@
       <c r="D15" s="3">
         <v>2201.3000000000002</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="8">
         <v>12.3</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="3">
         <v>4544.8999999999996</v>
       </c>
@@ -2768,10 +2768,10 @@
       <c r="D16" s="3">
         <v>2456.1</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="8">
         <v>12.4</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="3">
         <v>4980.1000000000004</v>
       </c>
@@ -2819,10 +2819,10 @@
       <c r="D17" s="3">
         <v>2168.1</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="8">
         <v>9.1999999999999993</v>
       </c>
-      <c r="F17" s="6"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="3">
         <v>4431.8</v>
       </c>
@@ -2870,10 +2870,10 @@
       <c r="D18" s="3">
         <v>2280.3000000000002</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="8">
         <v>9.9</v>
       </c>
-      <c r="F18" s="6"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="3">
         <v>4561.1000000000004</v>
       </c>
@@ -2921,10 +2921,10 @@
       <c r="D19" s="3">
         <v>2404.1</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="8">
         <v>11.7</v>
       </c>
-      <c r="F19" s="6"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="3">
         <v>4783.6000000000004</v>
       </c>
@@ -2972,10 +2972,10 @@
       <c r="D20" s="3">
         <v>2408.6999999999998</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="8">
         <v>12.1</v>
       </c>
-      <c r="F20" s="6"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="3">
         <v>4805.3999999999996</v>
       </c>
@@ -3023,10 +3023,10 @@
       <c r="D21" s="3">
         <v>2372.1</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="8">
         <v>11.4</v>
       </c>
-      <c r="F21" s="6"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="3">
         <v>4751.6000000000004</v>
       </c>
@@ -3074,10 +3074,10 @@
       <c r="D22" s="3">
         <v>2266</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="8">
         <v>10.7</v>
       </c>
-      <c r="F22" s="6"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="3">
         <v>4581.1000000000004</v>
       </c>
@@ -3125,10 +3125,10 @@
       <c r="D23" s="3">
         <v>2214.5</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="8">
         <v>10.3</v>
       </c>
-      <c r="F23" s="6"/>
+      <c r="F23" s="9"/>
       <c r="G23" s="3">
         <v>4589.7</v>
       </c>
@@ -3176,10 +3176,10 @@
       <c r="D24" s="3">
         <v>2049.5</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="8">
         <v>10.8</v>
       </c>
-      <c r="F24" s="6"/>
+      <c r="F24" s="9"/>
       <c r="G24" s="3">
         <v>4382.8999999999996</v>
       </c>
@@ -3227,10 +3227,10 @@
       <c r="D25" s="3">
         <v>2254.1999999999998</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="8">
         <v>11.4</v>
       </c>
-      <c r="F25" s="6"/>
+      <c r="F25" s="9"/>
       <c r="G25" s="3">
         <v>4670.3</v>
       </c>
@@ -3278,10 +3278,10 @@
       <c r="D26" s="3">
         <v>2070</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="8">
         <v>11</v>
       </c>
-      <c r="F26" s="6"/>
+      <c r="F26" s="9"/>
       <c r="G26" s="3">
         <v>4298.6000000000004</v>
       </c>
@@ -3329,10 +3329,10 @@
       <c r="D27" s="3">
         <v>2343.9</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="8">
         <v>13.6</v>
       </c>
-      <c r="F27" s="6"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="3">
         <v>4710.3999999999996</v>
       </c>
@@ -3380,10 +3380,10 @@
       <c r="D28" s="3">
         <v>2548.6</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="8">
         <v>14</v>
       </c>
-      <c r="F28" s="6"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="3">
         <v>5049.2</v>
       </c>
@@ -3431,10 +3431,10 @@
       <c r="D29" s="3">
         <v>2265.5</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="8">
         <v>10.8</v>
       </c>
-      <c r="F29" s="6"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="3">
         <v>4388.6000000000004</v>
       </c>
@@ -3482,10 +3482,10 @@
       <c r="D30" s="3">
         <v>2477.6</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="8">
         <v>10.5</v>
       </c>
-      <c r="F30" s="6"/>
+      <c r="F30" s="9"/>
       <c r="G30" s="3">
         <v>4803.1000000000004</v>
       </c>
@@ -3533,10 +3533,10 @@
       <c r="D31" s="3">
         <v>2510.4</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="8">
         <v>12</v>
       </c>
-      <c r="F31" s="6"/>
+      <c r="F31" s="9"/>
       <c r="G31" s="3">
         <v>4855.5</v>
       </c>
@@ -3584,10 +3584,10 @@
       <c r="D32" s="3">
         <v>2406.1999999999998</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="8">
         <v>10.7</v>
       </c>
-      <c r="F32" s="6"/>
+      <c r="F32" s="9"/>
       <c r="G32" s="3">
         <v>4689.1000000000004</v>
       </c>
@@ -3635,10 +3635,10 @@
       <c r="D33" s="3">
         <v>2598.6</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="8">
         <v>10.6</v>
       </c>
-      <c r="F33" s="6"/>
+      <c r="F33" s="9"/>
       <c r="G33" s="3">
         <v>5088.8</v>
       </c>
@@ -3686,10 +3686,10 @@
       <c r="D34" s="3">
         <v>2336</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="8">
         <v>10.9</v>
       </c>
-      <c r="F34" s="6"/>
+      <c r="F34" s="9"/>
       <c r="G34" s="3">
         <v>4708.2</v>
       </c>
@@ -3737,10 +3737,10 @@
       <c r="D35" s="3">
         <v>2341</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="8">
         <v>10.9</v>
       </c>
-      <c r="F35" s="6"/>
+      <c r="F35" s="9"/>
       <c r="G35" s="3">
         <v>4692.5</v>
       </c>
@@ -3788,10 +3788,10 @@
       <c r="D36" s="3">
         <v>2371.4</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="8">
         <v>12.2</v>
       </c>
-      <c r="F36" s="6"/>
+      <c r="F36" s="9"/>
       <c r="G36" s="3">
         <v>4812.6000000000004</v>
       </c>
@@ -3839,10 +3839,10 @@
       <c r="D37" s="3">
         <v>2400.9</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="8">
         <v>12.5</v>
       </c>
-      <c r="F37" s="6"/>
+      <c r="F37" s="9"/>
       <c r="G37" s="3">
         <v>4794.6000000000004</v>
       </c>
@@ -3890,10 +3890,10 @@
       <c r="D38" s="3">
         <v>1880.9</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="8">
         <v>12.6</v>
       </c>
-      <c r="F38" s="6"/>
+      <c r="F38" s="9"/>
       <c r="G38" s="3">
         <v>3764.3</v>
       </c>
@@ -3941,10 +3941,10 @@
       <c r="D39" s="3">
         <v>2031.6</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="8">
         <v>11.1</v>
       </c>
-      <c r="F39" s="6"/>
+      <c r="F39" s="9"/>
       <c r="G39" s="3">
         <v>3864.9</v>
       </c>
@@ -3992,10 +3992,10 @@
       <c r="D40" s="3">
         <v>2566.5</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="8">
         <v>12.3</v>
       </c>
-      <c r="F40" s="6"/>
+      <c r="F40" s="9"/>
       <c r="G40" s="3">
         <v>4995.7</v>
       </c>
@@ -4043,10 +4043,10 @@
       <c r="D41" s="3">
         <v>2306.4</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="8">
         <v>10.7</v>
       </c>
-      <c r="F41" s="6"/>
+      <c r="F41" s="9"/>
       <c r="G41" s="3">
         <v>4453.5</v>
       </c>
@@ -4094,10 +4094,10 @@
       <c r="D42" s="3">
         <v>2553.3000000000002</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="8">
         <v>11.9</v>
       </c>
-      <c r="F42" s="6"/>
+      <c r="F42" s="9"/>
       <c r="G42" s="3">
         <v>4960</v>
       </c>
@@ -4145,10 +4145,10 @@
       <c r="D43" s="3">
         <v>2443.1</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="8">
         <v>12.1</v>
       </c>
-      <c r="F43" s="6"/>
+      <c r="F43" s="9"/>
       <c r="G43" s="3">
         <v>4726.8</v>
       </c>
@@ -4196,10 +4196,10 @@
       <c r="D44" s="3">
         <v>2428.6</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="8">
         <v>11.3</v>
       </c>
-      <c r="F44" s="6"/>
+      <c r="F44" s="9"/>
       <c r="G44" s="3">
         <v>4742.8999999999996</v>
       </c>
@@ -4247,10 +4247,10 @@
       <c r="D45" s="3">
         <v>2606.4</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="8">
         <v>12.8</v>
       </c>
-      <c r="F45" s="6"/>
+      <c r="F45" s="9"/>
       <c r="G45" s="3">
         <v>5065.6000000000004</v>
       </c>
@@ -4298,10 +4298,10 @@
       <c r="D46" s="3">
         <v>2237.1</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="8">
         <v>10.9</v>
       </c>
-      <c r="F46" s="6"/>
+      <c r="F46" s="9"/>
       <c r="G46" s="3">
         <v>4442.7</v>
       </c>
@@ -4349,10 +4349,10 @@
       <c r="D47" s="3">
         <v>2257.9</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="8">
         <v>12.7</v>
       </c>
-      <c r="F47" s="6"/>
+      <c r="F47" s="9"/>
       <c r="G47" s="3">
         <v>4650</v>
       </c>
@@ -4400,10 +4400,10 @@
       <c r="D48" s="3">
         <v>2210.8000000000002</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="8">
         <v>12</v>
       </c>
-      <c r="F48" s="6"/>
+      <c r="F48" s="9"/>
       <c r="G48" s="3">
         <v>4589.8</v>
       </c>
@@ -4451,10 +4451,10 @@
       <c r="D49" s="3">
         <v>2127.8000000000002</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="8">
         <v>11.4</v>
       </c>
-      <c r="F49" s="6"/>
+      <c r="F49" s="9"/>
       <c r="G49" s="3">
         <v>4372</v>
       </c>
@@ -4502,10 +4502,10 @@
       <c r="D50" s="3">
         <v>2218.9</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="8">
         <v>13.5</v>
       </c>
-      <c r="F50" s="6"/>
+      <c r="F50" s="9"/>
       <c r="G50" s="3">
         <v>4566.6000000000004</v>
       </c>
@@ -4553,10 +4553,10 @@
       <c r="D51" s="3">
         <v>2268.6999999999998</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="8">
         <v>15.2</v>
       </c>
-      <c r="F51" s="6"/>
+      <c r="F51" s="9"/>
       <c r="G51" s="3">
         <v>4551.6000000000004</v>
       </c>
@@ -4604,10 +4604,10 @@
       <c r="D52" s="3">
         <v>2297</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="8">
         <v>13</v>
       </c>
-      <c r="F52" s="6"/>
+      <c r="F52" s="9"/>
       <c r="G52" s="3">
         <v>4432.8999999999996</v>
       </c>
@@ -4655,10 +4655,10 @@
       <c r="D53" s="3">
         <v>2167.5</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E53" s="8">
         <v>11.1</v>
       </c>
-      <c r="F53" s="6"/>
+      <c r="F53" s="9"/>
       <c r="G53" s="3">
         <v>4171.8999999999996</v>
       </c>
@@ -4706,10 +4706,10 @@
       <c r="D54" s="3">
         <v>2373.6999999999998</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="8">
         <v>12.5</v>
       </c>
-      <c r="F54" s="6"/>
+      <c r="F54" s="9"/>
       <c r="G54" s="3">
         <v>4702.3999999999996</v>
       </c>
@@ -4757,10 +4757,10 @@
       <c r="D55" s="3">
         <v>2231.5</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E55" s="8">
         <v>13.2</v>
       </c>
-      <c r="F55" s="6"/>
+      <c r="F55" s="9"/>
       <c r="G55" s="3">
         <v>4367.2</v>
       </c>
@@ -4808,10 +4808,10 @@
       <c r="D56" s="3">
         <v>2348</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E56" s="8">
         <v>12.9</v>
       </c>
-      <c r="F56" s="6"/>
+      <c r="F56" s="9"/>
       <c r="G56" s="3">
         <v>4682.7</v>
       </c>
@@ -4859,10 +4859,10 @@
       <c r="D57" s="3">
         <v>2450.5</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57" s="8">
         <v>13.1</v>
       </c>
-      <c r="F57" s="6"/>
+      <c r="F57" s="9"/>
       <c r="G57" s="3">
         <v>4901.3999999999996</v>
       </c>
@@ -4910,10 +4910,10 @@
       <c r="D58" s="3">
         <v>2012.9</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E58" s="8">
         <v>11.4</v>
       </c>
-      <c r="F58" s="6"/>
+      <c r="F58" s="9"/>
       <c r="G58" s="3">
         <v>4187.8</v>
       </c>
@@ -4961,10 +4961,10 @@
       <c r="D59" s="3">
         <v>2316.3000000000002</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E59" s="8">
         <v>13.5</v>
       </c>
-      <c r="F59" s="6"/>
+      <c r="F59" s="9"/>
       <c r="G59" s="3">
         <v>4765.8999999999996</v>
       </c>
@@ -5012,10 +5012,10 @@
       <c r="D60" s="3">
         <v>1985.5</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E60" s="8">
         <v>12.1</v>
       </c>
-      <c r="F60" s="6"/>
+      <c r="F60" s="9"/>
       <c r="G60" s="3">
         <v>4235.3</v>
       </c>
@@ -5063,10 +5063,10 @@
       <c r="D61" s="3">
         <v>2008.6</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E61" s="8">
         <v>12.4</v>
       </c>
-      <c r="F61" s="6"/>
+      <c r="F61" s="9"/>
       <c r="G61" s="3">
         <v>4327.6000000000004</v>
       </c>
@@ -5114,10 +5114,10 @@
       <c r="D62" s="3">
         <v>2174.4</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E62" s="8">
         <v>13.7</v>
       </c>
-      <c r="F62" s="6"/>
+      <c r="F62" s="9"/>
       <c r="G62" s="3">
         <v>4501.5</v>
       </c>
@@ -5165,10 +5165,10 @@
       <c r="D63" s="3">
         <v>2141.9</v>
       </c>
-      <c r="E63" s="5">
+      <c r="E63" s="8">
         <v>12.5</v>
       </c>
-      <c r="F63" s="6"/>
+      <c r="F63" s="9"/>
       <c r="G63" s="3">
         <v>4278.2</v>
       </c>
@@ -5216,10 +5216,10 @@
       <c r="D64" s="3">
         <v>2296.8000000000002</v>
       </c>
-      <c r="E64" s="5">
+      <c r="E64" s="8">
         <v>14.1</v>
       </c>
-      <c r="F64" s="6"/>
+      <c r="F64" s="9"/>
       <c r="G64" s="3">
         <v>4520.5</v>
       </c>
@@ -5267,10 +5267,10 @@
       <c r="D65" s="3">
         <v>2058.1</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E65" s="8">
         <v>11.7</v>
       </c>
-      <c r="F65" s="6"/>
+      <c r="F65" s="9"/>
       <c r="G65" s="3">
         <v>4059.5</v>
       </c>
@@ -5318,10 +5318,10 @@
       <c r="D66" s="3">
         <v>2290.1</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E66" s="8">
         <v>12.7</v>
       </c>
-      <c r="F66" s="6"/>
+      <c r="F66" s="9"/>
       <c r="G66" s="3">
         <v>4588.5</v>
       </c>
@@ -5369,10 +5369,10 @@
       <c r="D67" s="3">
         <v>2235</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E67" s="8">
         <v>12.8</v>
       </c>
-      <c r="F67" s="6"/>
+      <c r="F67" s="9"/>
       <c r="G67" s="3">
         <v>4402.7</v>
       </c>
@@ -5420,10 +5420,10 @@
       <c r="D68" s="3">
         <v>2244.8000000000002</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E68" s="8">
         <v>12.4</v>
       </c>
-      <c r="F68" s="6"/>
+      <c r="F68" s="9"/>
       <c r="G68" s="3">
         <v>4554.2</v>
       </c>
@@ -5471,10 +5471,10 @@
       <c r="D69" s="3">
         <v>2316.5</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E69" s="8">
         <v>11.9</v>
       </c>
-      <c r="F69" s="6"/>
+      <c r="F69" s="9"/>
       <c r="G69" s="3">
         <v>4637.8</v>
       </c>
@@ -5522,10 +5522,10 @@
       <c r="D70" s="3">
         <v>2164.9</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E70" s="8">
         <v>11.3</v>
       </c>
-      <c r="F70" s="6"/>
+      <c r="F70" s="9"/>
       <c r="G70" s="3">
         <v>4407.8</v>
       </c>
@@ -5573,10 +5573,10 @@
       <c r="D71" s="3">
         <v>2210.5</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E71" s="8">
         <v>12.9</v>
       </c>
-      <c r="F71" s="6"/>
+      <c r="F71" s="9"/>
       <c r="G71" s="3">
         <v>4631.8999999999996</v>
       </c>
@@ -5624,10 +5624,10 @@
       <c r="D72" s="3">
         <v>1864.9</v>
       </c>
-      <c r="E72" s="5">
+      <c r="E72" s="8">
         <v>11</v>
       </c>
-      <c r="F72" s="6"/>
+      <c r="F72" s="9"/>
       <c r="G72" s="3">
         <v>3989.4</v>
       </c>
@@ -5675,10 +5675,10 @@
       <c r="D73" s="3">
         <v>2053.1999999999998</v>
       </c>
-      <c r="E73" s="5">
+      <c r="E73" s="8">
         <v>12.4</v>
       </c>
-      <c r="F73" s="6"/>
+      <c r="F73" s="9"/>
       <c r="G73" s="3">
         <v>4352.3</v>
       </c>
@@ -5726,10 +5726,10 @@
       <c r="D74" s="3">
         <v>2095.9</v>
       </c>
-      <c r="E74" s="5">
+      <c r="E74" s="8">
         <v>11.8</v>
       </c>
-      <c r="F74" s="6"/>
+      <c r="F74" s="9"/>
       <c r="G74" s="3">
         <v>4277.5</v>
       </c>
@@ -5777,10 +5777,10 @@
       <c r="D75" s="3">
         <v>1988.2</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E75" s="8">
         <v>11.5</v>
       </c>
-      <c r="F75" s="6"/>
+      <c r="F75" s="9"/>
       <c r="G75" s="3">
         <v>3968.7</v>
       </c>
@@ -5828,10 +5828,10 @@
       <c r="D76" s="3">
         <v>2267.6</v>
       </c>
-      <c r="E76" s="5">
+      <c r="E76" s="8">
         <v>13.7</v>
       </c>
-      <c r="F76" s="6"/>
+      <c r="F76" s="9"/>
       <c r="G76" s="3">
         <v>4537.5</v>
       </c>
@@ -5879,10 +5879,10 @@
       <c r="D77" s="3">
         <v>1987.6</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E77" s="8">
         <v>11.2</v>
       </c>
-      <c r="F77" s="6"/>
+      <c r="F77" s="9"/>
       <c r="G77" s="3">
         <v>3938.3</v>
       </c>
@@ -5930,10 +5930,10 @@
       <c r="D78" s="3">
         <v>2154.8000000000002</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E78" s="8">
         <v>12.3</v>
       </c>
-      <c r="F78" s="6"/>
+      <c r="F78" s="9"/>
       <c r="G78" s="3">
         <v>4292.7</v>
       </c>
@@ -5981,10 +5981,10 @@
       <c r="D79" s="3">
         <v>2209.1</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E79" s="8">
         <v>13.1</v>
       </c>
-      <c r="F79" s="6"/>
+      <c r="F79" s="9"/>
       <c r="G79" s="3">
         <v>4402.3</v>
       </c>
@@ -6032,10 +6032,10 @@
       <c r="D80" s="3">
         <v>2240.3000000000002</v>
       </c>
-      <c r="E80" s="5">
+      <c r="E80" s="8">
         <v>12.2</v>
       </c>
-      <c r="F80" s="6"/>
+      <c r="F80" s="9"/>
       <c r="G80" s="3">
         <v>4499.3999999999996</v>
       </c>
@@ -6083,10 +6083,10 @@
       <c r="D81" s="3">
         <v>2198.3000000000002</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E81" s="8">
         <v>11.7</v>
       </c>
-      <c r="F81" s="6"/>
+      <c r="F81" s="9"/>
       <c r="G81" s="3">
         <v>4427.7</v>
       </c>
@@ -6134,10 +6134,10 @@
       <c r="D82" s="3">
         <v>2126.3000000000002</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E82" s="8">
         <v>12.1</v>
       </c>
-      <c r="F82" s="6"/>
+      <c r="F82" s="9"/>
       <c r="G82" s="3">
         <v>4326.1000000000004</v>
       </c>
@@ -6185,10 +6185,10 @@
       <c r="D83" s="3">
         <v>2149.6</v>
       </c>
-      <c r="E83" s="5">
+      <c r="E83" s="8">
         <v>12.5</v>
       </c>
-      <c r="F83" s="6"/>
+      <c r="F83" s="9"/>
       <c r="G83" s="3">
         <v>4434.1000000000004</v>
       </c>
@@ -6236,10 +6236,10 @@
       <c r="D84" s="3">
         <v>1824.5</v>
       </c>
-      <c r="E84" s="5">
+      <c r="E84" s="8">
         <v>11.4</v>
       </c>
-      <c r="F84" s="6"/>
+      <c r="F84" s="9"/>
       <c r="G84" s="3">
         <v>3865.8</v>
       </c>
@@ -6287,10 +6287,10 @@
       <c r="D85" s="3">
         <v>2013.5</v>
       </c>
-      <c r="E85" s="5">
+      <c r="E85" s="8">
         <v>13.3</v>
       </c>
-      <c r="F85" s="6"/>
+      <c r="F85" s="9"/>
       <c r="G85" s="3">
         <v>4226.2</v>
       </c>
@@ -6338,10 +6338,10 @@
       <c r="D86" s="3">
         <v>1949</v>
       </c>
-      <c r="E86" s="5">
+      <c r="E86" s="8">
         <v>13</v>
       </c>
-      <c r="F86" s="6"/>
+      <c r="F86" s="9"/>
       <c r="G86" s="3">
         <v>3998.2</v>
       </c>
@@ -6389,10 +6389,10 @@
       <c r="D87" s="3">
         <v>2000.2</v>
       </c>
-      <c r="E87" s="5">
+      <c r="E87" s="8">
         <v>12.9</v>
       </c>
-      <c r="F87" s="6"/>
+      <c r="F87" s="9"/>
       <c r="G87" s="3">
         <v>3983</v>
       </c>
@@ -6440,10 +6440,10 @@
       <c r="D88" s="3">
         <v>2145.1999999999998</v>
       </c>
-      <c r="E88" s="5">
+      <c r="E88" s="8">
         <v>14.3</v>
       </c>
-      <c r="F88" s="6"/>
+      <c r="F88" s="9"/>
       <c r="G88" s="3">
         <v>4263.2</v>
       </c>
@@ -6491,10 +6491,10 @@
       <c r="D89" s="3">
         <v>2000.9</v>
       </c>
-      <c r="E89" s="5">
+      <c r="E89" s="8">
         <v>12.5</v>
       </c>
-      <c r="F89" s="6"/>
+      <c r="F89" s="9"/>
       <c r="G89" s="3">
         <v>3905.5</v>
       </c>
@@ -6542,10 +6542,10 @@
       <c r="D90" s="3">
         <v>2084.1999999999998</v>
       </c>
-      <c r="E90" s="5">
+      <c r="E90" s="8">
         <v>11.2</v>
       </c>
-      <c r="F90" s="6"/>
+      <c r="F90" s="9"/>
       <c r="G90" s="3">
         <v>4056.2</v>
       </c>
@@ -6593,10 +6593,10 @@
       <c r="D91" s="3">
         <v>2207.1999999999998</v>
       </c>
-      <c r="E91" s="5">
+      <c r="E91" s="8">
         <v>13.2</v>
       </c>
-      <c r="F91" s="6"/>
+      <c r="F91" s="9"/>
       <c r="G91" s="3">
         <v>4274.5</v>
       </c>
@@ -6644,10 +6644,10 @@
       <c r="D92" s="3">
         <v>2080.8000000000002</v>
       </c>
-      <c r="E92" s="5">
+      <c r="E92" s="8">
         <v>11.8</v>
       </c>
-      <c r="F92" s="6"/>
+      <c r="F92" s="9"/>
       <c r="G92" s="3">
         <v>4035.7</v>
       </c>
@@ -6695,10 +6695,10 @@
       <c r="D93" s="3">
         <v>2169.1999999999998</v>
       </c>
-      <c r="E93" s="5">
+      <c r="E93" s="8">
         <v>11.9</v>
       </c>
-      <c r="F93" s="6"/>
+      <c r="F93" s="9"/>
       <c r="G93" s="3">
         <v>4314.6000000000004</v>
       </c>
@@ -6746,10 +6746,10 @@
       <c r="D94" s="3">
         <v>2035.9</v>
       </c>
-      <c r="E94" s="5">
+      <c r="E94" s="8">
         <v>12.3</v>
       </c>
-      <c r="F94" s="6"/>
+      <c r="F94" s="9"/>
       <c r="G94" s="3">
         <v>4141.7</v>
       </c>
@@ -6797,10 +6797,10 @@
       <c r="D95" s="3">
         <v>1949.1</v>
       </c>
-      <c r="E95" s="5">
+      <c r="E95" s="8">
         <v>11.7</v>
       </c>
-      <c r="F95" s="6"/>
+      <c r="F95" s="9"/>
       <c r="G95" s="3">
         <v>3902.2</v>
       </c>
@@ -6848,10 +6848,10 @@
       <c r="D96" s="3">
         <v>1972.9</v>
       </c>
-      <c r="E96" s="5">
+      <c r="E96" s="8">
         <v>12.9</v>
       </c>
-      <c r="F96" s="6"/>
+      <c r="F96" s="9"/>
       <c r="G96" s="3">
         <v>4039.5</v>
       </c>
@@ -6899,10 +6899,10 @@
       <c r="D97" s="3">
         <v>1995.9</v>
       </c>
-      <c r="E97" s="5">
+      <c r="E97" s="8">
         <v>13.5</v>
       </c>
-      <c r="F97" s="6"/>
+      <c r="F97" s="9"/>
       <c r="G97" s="3">
         <v>4018</v>
       </c>
@@ -6950,10 +6950,10 @@
       <c r="D98" s="3">
         <v>1861.9</v>
       </c>
-      <c r="E98" s="5">
+      <c r="E98" s="8">
         <v>11.9</v>
       </c>
-      <c r="F98" s="6"/>
+      <c r="F98" s="9"/>
       <c r="G98" s="3">
         <v>3806</v>
       </c>
@@ -7001,10 +7001,10 @@
       <c r="D99" s="3">
         <v>2066.9</v>
       </c>
-      <c r="E99" s="5">
+      <c r="E99" s="8">
         <v>13.7</v>
       </c>
-      <c r="F99" s="6"/>
+      <c r="F99" s="9"/>
       <c r="G99" s="3">
         <v>4016</v>
       </c>
@@ -7052,10 +7052,10 @@
       <c r="D100" s="3">
         <v>2111.8000000000002</v>
       </c>
-      <c r="E100" s="5">
+      <c r="E100" s="8">
         <v>14.3</v>
       </c>
-      <c r="F100" s="6"/>
+      <c r="F100" s="9"/>
       <c r="G100" s="3">
         <v>4066.3</v>
       </c>
@@ -7103,10 +7103,10 @@
       <c r="D101" s="3">
         <v>1945.2</v>
       </c>
-      <c r="E101" s="5">
+      <c r="E101" s="8">
         <v>11.5</v>
       </c>
-      <c r="F101" s="6"/>
+      <c r="F101" s="9"/>
       <c r="G101" s="3">
         <v>3731.1</v>
       </c>
@@ -7154,10 +7154,10 @@
       <c r="D102" s="3">
         <v>2104.5</v>
       </c>
-      <c r="E102" s="5">
+      <c r="E102" s="8">
         <v>11.7</v>
       </c>
-      <c r="F102" s="6"/>
+      <c r="F102" s="9"/>
       <c r="G102" s="3">
         <v>4086.5</v>
       </c>
@@ -7205,10 +7205,10 @@
       <c r="D103" s="3">
         <v>2114.3000000000002</v>
       </c>
-      <c r="E103" s="5">
+      <c r="E103" s="8">
         <v>13.4</v>
       </c>
-      <c r="F103" s="6"/>
+      <c r="F103" s="9"/>
       <c r="G103" s="3">
         <v>4135.5</v>
       </c>
@@ -7256,10 +7256,10 @@
       <c r="D104" s="3">
         <v>1890.2</v>
       </c>
-      <c r="E104" s="5">
+      <c r="E104" s="8">
         <v>11.5</v>
       </c>
-      <c r="F104" s="6"/>
+      <c r="F104" s="9"/>
       <c r="G104" s="3">
         <v>3757.7</v>
       </c>
@@ -7307,10 +7307,10 @@
       <c r="D105" s="3">
         <v>2126.4</v>
       </c>
-      <c r="E105" s="5">
+      <c r="E105" s="8">
         <v>13.4</v>
       </c>
-      <c r="F105" s="6"/>
+      <c r="F105" s="9"/>
       <c r="G105" s="3">
         <v>4318.6000000000004</v>
       </c>
@@ -7358,10 +7358,10 @@
       <c r="D106" s="3">
         <v>1871.9</v>
       </c>
-      <c r="E106" s="5">
+      <c r="E106" s="8">
         <v>12.3</v>
       </c>
-      <c r="F106" s="6"/>
+      <c r="F106" s="9"/>
       <c r="G106" s="3">
         <v>3959.9</v>
       </c>
@@ -7409,10 +7409,10 @@
       <c r="D107" s="3">
         <v>1752.2</v>
       </c>
-      <c r="E107" s="5">
+      <c r="E107" s="8">
         <v>11.7</v>
       </c>
-      <c r="F107" s="6"/>
+      <c r="F107" s="9"/>
       <c r="G107" s="3">
         <v>3794.5</v>
       </c>
@@ -7460,10 +7460,10 @@
       <c r="D108" s="3">
         <v>1799.8</v>
       </c>
-      <c r="E108" s="5">
+      <c r="E108" s="8">
         <v>13.9</v>
       </c>
-      <c r="F108" s="6"/>
+      <c r="F108" s="9"/>
       <c r="G108" s="3">
         <v>3908.9</v>
       </c>
@@ -7511,10 +7511,10 @@
       <c r="D109" s="3">
         <v>1734</v>
       </c>
-      <c r="E109" s="5">
+      <c r="E109" s="8">
         <v>13.4</v>
       </c>
-      <c r="F109" s="6"/>
+      <c r="F109" s="9"/>
       <c r="G109" s="3">
         <v>3823.9</v>
       </c>
@@ -7562,10 +7562,10 @@
       <c r="D110" s="3">
         <v>1859.1</v>
       </c>
-      <c r="E110" s="5">
+      <c r="E110" s="8">
         <v>13.9</v>
       </c>
-      <c r="F110" s="6"/>
+      <c r="F110" s="9"/>
       <c r="G110" s="3">
         <v>3952.4</v>
       </c>
@@ -7613,10 +7613,10 @@
       <c r="D111" s="3">
         <v>1911</v>
       </c>
-      <c r="E111" s="5">
+      <c r="E111" s="8">
         <v>15.2</v>
       </c>
-      <c r="F111" s="6"/>
+      <c r="F111" s="9"/>
       <c r="G111" s="3">
         <v>3977.7</v>
       </c>
@@ -7664,10 +7664,10 @@
       <c r="D112" s="3">
         <v>1854.4</v>
       </c>
-      <c r="E112" s="5">
+      <c r="E112" s="8">
         <v>13.2</v>
       </c>
-      <c r="F112" s="6"/>
+      <c r="F112" s="9"/>
       <c r="G112" s="3">
         <v>3813.3</v>
       </c>
@@ -7715,10 +7715,10 @@
       <c r="D113" s="3">
         <v>1844.2</v>
       </c>
-      <c r="E113" s="5">
+      <c r="E113" s="8">
         <v>11.6</v>
       </c>
-      <c r="F113" s="6"/>
+      <c r="F113" s="9"/>
       <c r="G113" s="3">
         <v>3652.3</v>
       </c>
@@ -7766,10 +7766,10 @@
       <c r="D114" s="3">
         <v>2085.6999999999998</v>
       </c>
-      <c r="E114" s="5">
+      <c r="E114" s="8">
         <v>12.4</v>
       </c>
-      <c r="F114" s="6"/>
+      <c r="F114" s="9"/>
       <c r="G114" s="3">
         <v>4248.3</v>
       </c>
@@ -7817,10 +7817,10 @@
       <c r="D115" s="3">
         <v>2065.4</v>
       </c>
-      <c r="E115" s="5">
+      <c r="E115" s="8">
         <v>13</v>
       </c>
-      <c r="F115" s="6"/>
+      <c r="F115" s="9"/>
       <c r="G115" s="3">
         <v>4135.6000000000004</v>
       </c>
@@ -7868,10 +7868,10 @@
       <c r="D116" s="3">
         <v>2039.9</v>
       </c>
-      <c r="E116" s="5">
+      <c r="E116" s="8">
         <v>11.8</v>
       </c>
-      <c r="F116" s="6"/>
+      <c r="F116" s="9"/>
       <c r="G116" s="3">
         <v>4118.3999999999996</v>
       </c>
@@ -7919,10 +7919,10 @@
       <c r="D117" s="3">
         <v>2169</v>
       </c>
-      <c r="E117" s="5">
+      <c r="E117" s="8">
         <v>13.1</v>
       </c>
-      <c r="F117" s="6"/>
+      <c r="F117" s="9"/>
       <c r="G117" s="3">
         <v>4510.2</v>
       </c>
@@ -7970,10 +7970,10 @@
       <c r="D118" s="3">
         <v>1842.9</v>
       </c>
-      <c r="E118" s="5">
+      <c r="E118" s="8">
         <v>11.7</v>
       </c>
-      <c r="F118" s="6"/>
+      <c r="F118" s="9"/>
       <c r="G118" s="3">
         <v>3937</v>
       </c>
@@ -8021,10 +8021,10 @@
       <c r="D119" s="3">
         <v>1938.4</v>
       </c>
-      <c r="E119" s="5">
+      <c r="E119" s="8">
         <v>13.8</v>
       </c>
-      <c r="F119" s="6"/>
+      <c r="F119" s="9"/>
       <c r="G119" s="3">
         <v>4202.3999999999996</v>
       </c>
@@ -8072,10 +8072,10 @@
       <c r="D120" s="3">
         <v>1840.3</v>
       </c>
-      <c r="E120" s="5">
+      <c r="E120" s="8">
         <v>14.2</v>
       </c>
-      <c r="F120" s="6"/>
+      <c r="F120" s="9"/>
       <c r="G120" s="3">
         <v>4158.2</v>
       </c>
@@ -8123,10 +8123,10 @@
       <c r="D121" s="3">
         <v>1676.3</v>
       </c>
-      <c r="E121" s="5">
+      <c r="E121" s="8">
         <v>12.7</v>
       </c>
-      <c r="F121" s="6"/>
+      <c r="F121" s="9"/>
       <c r="G121" s="3">
         <v>3854.5</v>
       </c>
@@ -8174,10 +8174,10 @@
       <c r="D122" s="3">
         <v>1898.9</v>
       </c>
-      <c r="E122" s="5">
+      <c r="E122" s="8">
         <v>14.5</v>
       </c>
-      <c r="F122" s="6"/>
+      <c r="F122" s="9"/>
       <c r="G122" s="3">
         <v>4150</v>
       </c>
@@ -8225,10 +8225,10 @@
       <c r="D123" s="3">
         <v>1940.8</v>
       </c>
-      <c r="E123" s="5">
+      <c r="E123" s="8">
         <v>13.4</v>
       </c>
-      <c r="F123" s="6"/>
+      <c r="F123" s="9"/>
       <c r="G123" s="3">
         <v>4091.9</v>
       </c>
@@ -8276,10 +8276,10 @@
       <c r="D124" s="3">
         <v>1932</v>
       </c>
-      <c r="E124" s="5">
+      <c r="E124" s="8">
         <v>13.8</v>
       </c>
-      <c r="F124" s="6"/>
+      <c r="F124" s="9"/>
       <c r="G124" s="3">
         <v>3994.9</v>
       </c>
@@ -8327,10 +8327,10 @@
       <c r="D125" s="3">
         <v>1778.4</v>
       </c>
-      <c r="E125" s="5">
+      <c r="E125" s="8">
         <v>11.5</v>
       </c>
-      <c r="F125" s="6"/>
+      <c r="F125" s="9"/>
       <c r="G125" s="3">
         <v>3672.4</v>
       </c>
@@ -8378,10 +8378,10 @@
       <c r="D126" s="3">
         <v>2064.9</v>
       </c>
-      <c r="E126" s="5">
+      <c r="E126" s="8">
         <v>12.4</v>
       </c>
-      <c r="F126" s="6"/>
+      <c r="F126" s="9"/>
       <c r="G126" s="3">
         <v>4349</v>
       </c>
@@ -8429,10 +8429,10 @@
       <c r="D127" s="3">
         <v>1954.2</v>
       </c>
-      <c r="E127" s="5">
+      <c r="E127" s="8">
         <v>12.8</v>
       </c>
-      <c r="F127" s="6"/>
+      <c r="F127" s="9"/>
       <c r="G127" s="3">
         <v>3997</v>
       </c>
@@ -8480,10 +8480,10 @@
       <c r="D128" s="3">
         <v>2079.1999999999998</v>
       </c>
-      <c r="E128" s="5">
+      <c r="E128" s="8">
         <v>12.5</v>
       </c>
-      <c r="F128" s="6"/>
+      <c r="F128" s="9"/>
       <c r="G128" s="3">
         <v>4309.2</v>
       </c>
@@ -8531,10 +8531,10 @@
       <c r="D129" s="3">
         <v>2210.6999999999998</v>
       </c>
-      <c r="E129" s="5">
+      <c r="E129" s="8">
         <v>14.3</v>
       </c>
-      <c r="F129" s="6"/>
+      <c r="F129" s="9"/>
       <c r="G129" s="3">
         <v>4580.1000000000004</v>
       </c>
@@ -8582,10 +8582,10 @@
       <c r="D130" s="3">
         <v>1911.2</v>
       </c>
-      <c r="E130" s="5">
+      <c r="E130" s="8">
         <v>12.5</v>
       </c>
-      <c r="F130" s="6"/>
+      <c r="F130" s="9"/>
       <c r="G130" s="3">
         <v>3948.1</v>
       </c>
@@ -8633,10 +8633,10 @@
       <c r="D131" s="3">
         <v>1998.1</v>
       </c>
-      <c r="E131" s="5">
+      <c r="E131" s="8">
         <v>14.2</v>
       </c>
-      <c r="F131" s="6"/>
+      <c r="F131" s="9"/>
       <c r="G131" s="3">
         <v>4391.1000000000004</v>
       </c>
@@ -8684,10 +8684,10 @@
       <c r="D132" s="3">
         <v>1721.9</v>
       </c>
-      <c r="E132" s="5">
+      <c r="E132" s="8">
         <v>12.5</v>
       </c>
-      <c r="F132" s="6"/>
+      <c r="F132" s="9"/>
       <c r="G132" s="3">
         <v>3945.2</v>
       </c>
@@ -8735,10 +8735,10 @@
       <c r="D133" s="3">
         <v>1750.5</v>
       </c>
-      <c r="E133" s="5">
+      <c r="E133" s="8">
         <v>12.4</v>
       </c>
-      <c r="F133" s="6"/>
+      <c r="F133" s="9"/>
       <c r="G133" s="3">
         <v>4022.5</v>
       </c>
@@ -8786,10 +8786,10 @@
       <c r="D134" s="3">
         <v>1926.8</v>
       </c>
-      <c r="E134" s="5">
+      <c r="E134" s="8">
         <v>13.6</v>
       </c>
-      <c r="F134" s="6"/>
+      <c r="F134" s="9"/>
       <c r="G134" s="3">
         <v>4182.7</v>
       </c>
@@ -8837,10 +8837,10 @@
       <c r="D135" s="3">
         <v>1841.9</v>
       </c>
-      <c r="E135" s="5">
+      <c r="E135" s="8">
         <v>12.9</v>
       </c>
-      <c r="F135" s="6"/>
+      <c r="F135" s="9"/>
       <c r="G135" s="3">
         <v>3855.2</v>
       </c>
@@ -8888,10 +8888,10 @@
       <c r="D136" s="3">
         <v>1987.7</v>
       </c>
-      <c r="E136" s="5">
+      <c r="E136" s="8">
         <v>14.2</v>
       </c>
-      <c r="F136" s="6"/>
+      <c r="F136" s="9"/>
       <c r="G136" s="3">
         <v>4171.3999999999996</v>
       </c>
@@ -8939,10 +8939,10 @@
       <c r="D137" s="3">
         <v>1883</v>
       </c>
-      <c r="E137" s="5">
+      <c r="E137" s="8">
         <v>12.3</v>
       </c>
-      <c r="F137" s="6"/>
+      <c r="F137" s="9"/>
       <c r="G137" s="3">
         <v>3914.1</v>
       </c>
@@ -8990,10 +8990,10 @@
       <c r="D138" s="3">
         <v>1987.3</v>
       </c>
-      <c r="E138" s="5">
+      <c r="E138" s="8">
         <v>12.1</v>
       </c>
-      <c r="F138" s="6"/>
+      <c r="F138" s="9"/>
       <c r="G138" s="3">
         <v>4123</v>
       </c>
@@ -9041,10 +9041,10 @@
       <c r="D139" s="3">
         <v>2065.6</v>
       </c>
-      <c r="E139" s="5">
+      <c r="E139" s="8">
         <v>12.5</v>
       </c>
-      <c r="F139" s="6"/>
+      <c r="F139" s="9"/>
       <c r="G139" s="3">
         <v>4215.1000000000004</v>
       </c>
@@ -9092,10 +9092,10 @@
       <c r="D140" s="3">
         <v>2086.6999999999998</v>
       </c>
-      <c r="E140" s="5">
+      <c r="E140" s="8">
         <v>12.6</v>
       </c>
-      <c r="F140" s="6"/>
+      <c r="F140" s="9"/>
       <c r="G140" s="3">
         <v>4258.8999999999996</v>
       </c>
@@ -9143,10 +9143,10 @@
       <c r="D141" s="3">
         <v>2033.2</v>
       </c>
-      <c r="E141" s="5">
+      <c r="E141" s="8">
         <v>11.7</v>
       </c>
-      <c r="F141" s="6"/>
+      <c r="F141" s="9"/>
       <c r="G141" s="3">
         <v>4270.6000000000004</v>
       </c>
@@ -9194,10 +9194,10 @@
       <c r="D142" s="3">
         <v>1954.4</v>
       </c>
-      <c r="E142" s="5">
+      <c r="E142" s="8">
         <v>11.8</v>
       </c>
-      <c r="F142" s="6"/>
+      <c r="F142" s="9"/>
       <c r="G142" s="3">
         <v>4192.1000000000004</v>
       </c>
@@ -9245,10 +9245,10 @@
       <c r="D143" s="3">
         <v>1892.1</v>
       </c>
-      <c r="E143" s="5">
+      <c r="E143" s="8">
         <v>13.1</v>
       </c>
-      <c r="F143" s="6"/>
+      <c r="F143" s="9"/>
       <c r="G143" s="3">
         <v>4303.3999999999996</v>
       </c>
@@ -9296,10 +9296,10 @@
       <c r="D144" s="3">
         <v>1637.1</v>
       </c>
-      <c r="E144" s="5">
+      <c r="E144" s="8">
         <v>10.9</v>
       </c>
-      <c r="F144" s="6"/>
+      <c r="F144" s="9"/>
       <c r="G144" s="3">
         <v>3792.3</v>
       </c>
@@ -9347,10 +9347,10 @@
       <c r="D145" s="3">
         <v>1820</v>
       </c>
-      <c r="E145" s="5">
+      <c r="E145" s="8">
         <v>12.6</v>
       </c>
-      <c r="F145" s="6"/>
+      <c r="F145" s="9"/>
       <c r="G145" s="3">
         <v>4218.8</v>
       </c>
@@ -9398,10 +9398,10 @@
       <c r="D146" s="3">
         <v>1759.7</v>
       </c>
-      <c r="E146" s="5">
+      <c r="E146" s="8">
         <v>12.9</v>
       </c>
-      <c r="F146" s="6"/>
+      <c r="F146" s="9"/>
       <c r="G146" s="3">
         <v>3914.8</v>
       </c>
@@ -9449,10 +9449,10 @@
       <c r="D147" s="3">
         <v>1790.7</v>
       </c>
-      <c r="E147" s="5">
+      <c r="E147" s="8">
         <v>14.4</v>
       </c>
-      <c r="F147" s="6"/>
+      <c r="F147" s="9"/>
       <c r="G147" s="3">
         <v>3867.8</v>
       </c>
@@ -9500,10 +9500,10 @@
       <c r="D148" s="3">
         <v>2054.4</v>
       </c>
-      <c r="E148" s="5">
+      <c r="E148" s="8">
         <v>14.1</v>
       </c>
-      <c r="F148" s="6"/>
+      <c r="F148" s="9"/>
       <c r="G148" s="3">
         <v>4346.7</v>
       </c>
@@ -9551,10 +9551,10 @@
       <c r="D149" s="3">
         <v>1768.1</v>
       </c>
-      <c r="E149" s="5">
+      <c r="E149" s="8">
         <v>10.9</v>
       </c>
-      <c r="F149" s="6"/>
+      <c r="F149" s="9"/>
       <c r="G149" s="3">
         <v>3810</v>
       </c>
@@ -9602,10 +9602,10 @@
       <c r="D150" s="3">
         <v>1896.2</v>
       </c>
-      <c r="E150" s="5">
+      <c r="E150" s="8">
         <v>11.2</v>
       </c>
-      <c r="F150" s="6"/>
+      <c r="F150" s="9"/>
       <c r="G150" s="3">
         <v>4041.1</v>
       </c>
@@ -9653,10 +9653,10 @@
       <c r="D151" s="3">
         <v>2055.4</v>
       </c>
-      <c r="E151" s="5">
+      <c r="E151" s="8">
         <v>14.9</v>
       </c>
-      <c r="F151" s="6"/>
+      <c r="F151" s="9"/>
       <c r="G151" s="3">
         <v>4352.8999999999996</v>
       </c>
@@ -9704,10 +9704,10 @@
       <c r="D152" s="3">
         <v>2068</v>
       </c>
-      <c r="E152" s="5">
+      <c r="E152" s="8">
         <v>14.4</v>
       </c>
-      <c r="F152" s="6"/>
+      <c r="F152" s="9"/>
       <c r="G152" s="3">
         <v>4329.3</v>
       </c>
@@ -9755,10 +9755,10 @@
       <c r="D153" s="3">
         <v>2002.7</v>
       </c>
-      <c r="E153" s="5">
+      <c r="E153" s="8">
         <v>13.1</v>
       </c>
-      <c r="F153" s="6"/>
+      <c r="F153" s="9"/>
       <c r="G153" s="3">
         <v>4262.1000000000004</v>
       </c>
@@ -9806,10 +9806,10 @@
       <c r="D154" s="3">
         <v>1883.5</v>
       </c>
-      <c r="E154" s="5">
+      <c r="E154" s="8">
         <v>13.1</v>
       </c>
-      <c r="F154" s="6"/>
+      <c r="F154" s="9"/>
       <c r="G154" s="3">
         <v>4160</v>
       </c>
@@ -9857,10 +9857,10 @@
       <c r="D155" s="3">
         <v>1815.3</v>
       </c>
-      <c r="E155" s="5">
+      <c r="E155" s="8">
         <v>12.8</v>
       </c>
-      <c r="F155" s="6"/>
+      <c r="F155" s="9"/>
       <c r="G155" s="3">
         <v>4126</v>
       </c>
@@ -9908,10 +9908,10 @@
       <c r="D156" s="3">
         <v>1702.2</v>
       </c>
-      <c r="E156" s="5">
+      <c r="E156" s="8">
         <v>12.8</v>
       </c>
-      <c r="F156" s="6"/>
+      <c r="F156" s="9"/>
       <c r="G156" s="3">
         <v>3955.6</v>
       </c>
@@ -9959,10 +9959,10 @@
       <c r="D157" s="3">
         <v>1831.7</v>
       </c>
-      <c r="E157" s="5">
+      <c r="E157" s="8">
         <v>14.1</v>
       </c>
-      <c r="F157" s="6"/>
+      <c r="F157" s="9"/>
       <c r="G157" s="3">
         <v>4176.6000000000004</v>
       </c>
@@ -10010,10 +10010,10 @@
       <c r="D158" s="3">
         <v>1621.3</v>
       </c>
-      <c r="E158" s="5">
+      <c r="E158" s="8">
         <v>12.6</v>
       </c>
-      <c r="F158" s="6"/>
+      <c r="F158" s="9"/>
       <c r="G158" s="3">
         <v>3731.2</v>
       </c>
@@ -10061,10 +10061,10 @@
       <c r="D159" s="3">
         <v>1849.1</v>
       </c>
-      <c r="E159" s="5">
+      <c r="E159" s="8">
         <v>12.9</v>
       </c>
-      <c r="F159" s="6"/>
+      <c r="F159" s="9"/>
       <c r="G159" s="3">
         <v>4012.4</v>
       </c>
@@ -10112,10 +10112,10 @@
       <c r="D160" s="3">
         <v>2040.1</v>
       </c>
-      <c r="E160" s="5">
+      <c r="E160" s="8">
         <v>17.7</v>
       </c>
-      <c r="F160" s="6"/>
+      <c r="F160" s="9"/>
       <c r="G160" s="3">
         <v>4281.1000000000004</v>
       </c>
@@ -10163,10 +10163,10 @@
       <c r="D161" s="3">
         <v>1757.5</v>
       </c>
-      <c r="E161" s="5">
+      <c r="E161" s="8">
         <v>12.4</v>
       </c>
-      <c r="F161" s="6"/>
+      <c r="F161" s="9"/>
       <c r="G161" s="3">
         <v>3735.8</v>
       </c>
@@ -10214,10 +10214,10 @@
       <c r="D162" s="3">
         <v>1809.7</v>
       </c>
-      <c r="E162" s="5">
+      <c r="E162" s="8">
         <v>12.8</v>
       </c>
-      <c r="F162" s="6"/>
+      <c r="F162" s="9"/>
       <c r="G162" s="3">
         <v>3916</v>
       </c>
@@ -10265,10 +10265,10 @@
       <c r="D163" s="3">
         <v>1985.3</v>
       </c>
-      <c r="E163" s="5">
+      <c r="E163" s="8">
         <v>15.9</v>
       </c>
-      <c r="F163" s="6"/>
+      <c r="F163" s="9"/>
       <c r="G163" s="3">
         <v>4148.7</v>
       </c>
@@ -10316,10 +10316,10 @@
       <c r="D164" s="3">
         <v>1921.7</v>
       </c>
-      <c r="E164" s="5">
+      <c r="E164" s="8">
         <v>14.3</v>
       </c>
-      <c r="F164" s="6"/>
+      <c r="F164" s="9"/>
       <c r="G164" s="3">
         <v>3963.9</v>
       </c>
@@ -10367,10 +10367,10 @@
       <c r="D165" s="3">
         <v>2089</v>
       </c>
-      <c r="E165" s="5">
+      <c r="E165" s="8">
         <v>14.3</v>
       </c>
-      <c r="F165" s="6"/>
+      <c r="F165" s="9"/>
       <c r="G165" s="3">
         <v>4391.2</v>
       </c>
@@ -10418,10 +10418,10 @@
       <c r="D166" s="3">
         <v>2002.1</v>
       </c>
-      <c r="E166" s="5">
+      <c r="E166" s="8">
         <v>14.8</v>
       </c>
-      <c r="F166" s="6"/>
+      <c r="F166" s="9"/>
       <c r="G166" s="3">
         <v>4262.7</v>
       </c>
@@ -10469,10 +10469,10 @@
       <c r="D167" s="3">
         <v>1868.9</v>
       </c>
-      <c r="E167" s="5">
+      <c r="E167" s="8">
         <v>13.3</v>
       </c>
-      <c r="F167" s="6"/>
+      <c r="F167" s="9"/>
       <c r="G167" s="3">
         <v>4077</v>
       </c>
@@ -10520,10 +10520,10 @@
       <c r="D168" s="3">
         <v>1828.5</v>
       </c>
-      <c r="E168" s="5">
+      <c r="E168" s="8">
         <v>13.9</v>
       </c>
-      <c r="F168" s="6"/>
+      <c r="F168" s="9"/>
       <c r="G168" s="3">
         <v>4124.5</v>
       </c>
@@ -10571,10 +10571,10 @@
       <c r="D169" s="3">
         <v>1847.7</v>
       </c>
-      <c r="E169" s="5">
+      <c r="E169" s="8">
         <v>13.8</v>
       </c>
-      <c r="F169" s="6"/>
+      <c r="F169" s="9"/>
       <c r="G169" s="3">
         <v>4162.1000000000004</v>
       </c>
@@ -10622,10 +10622,10 @@
       <c r="D170" s="3">
         <v>1716.8</v>
       </c>
-      <c r="E170" s="5">
+      <c r="E170" s="8">
         <v>13</v>
       </c>
-      <c r="F170" s="6"/>
+      <c r="F170" s="9"/>
       <c r="G170" s="3">
         <v>3919.5</v>
       </c>
@@ -10673,10 +10673,10 @@
       <c r="D171" s="3">
         <v>1925</v>
       </c>
-      <c r="E171" s="5">
+      <c r="E171" s="8">
         <v>15.5</v>
       </c>
-      <c r="F171" s="6"/>
+      <c r="F171" s="9"/>
       <c r="G171" s="3">
         <v>4085</v>
       </c>
@@ -10724,10 +10724,10 @@
       <c r="D172" s="3">
         <v>1969.7</v>
       </c>
-      <c r="E172" s="5">
+      <c r="E172" s="8">
         <v>15.9</v>
       </c>
-      <c r="F172" s="6"/>
+      <c r="F172" s="9"/>
       <c r="G172" s="3">
         <v>4141.8999999999996</v>
       </c>
@@ -10775,10 +10775,10 @@
       <c r="D173" s="3">
         <v>1817.3</v>
       </c>
-      <c r="E173" s="5">
+      <c r="E173" s="8">
         <v>12.7</v>
       </c>
-      <c r="F173" s="6"/>
+      <c r="F173" s="9"/>
       <c r="G173" s="3">
         <v>3827</v>
       </c>
@@ -10826,10 +10826,10 @@
       <c r="D174" s="3">
         <v>2027</v>
       </c>
-      <c r="E174" s="5">
+      <c r="E174" s="8">
         <v>13.3</v>
       </c>
-      <c r="F174" s="6"/>
+      <c r="F174" s="9"/>
       <c r="G174" s="3">
         <v>4170.1000000000004</v>
       </c>
@@ -10877,10 +10877,10 @@
       <c r="D175" s="3">
         <v>2052.1</v>
       </c>
-      <c r="E175" s="5">
+      <c r="E175" s="8">
         <v>15.4</v>
       </c>
-      <c r="F175" s="6"/>
+      <c r="F175" s="9"/>
       <c r="G175" s="3">
         <v>4162.8999999999996</v>
       </c>
@@ -10928,10 +10928,10 @@
       <c r="D176" s="3">
         <v>1886.1</v>
       </c>
-      <c r="E176" s="5">
+      <c r="E176" s="8">
         <v>12.8</v>
       </c>
-      <c r="F176" s="6"/>
+      <c r="F176" s="9"/>
       <c r="G176" s="3">
         <v>3869.5</v>
       </c>
@@ -10979,10 +10979,10 @@
       <c r="D177" s="3">
         <v>2159.9</v>
       </c>
-      <c r="E177" s="5">
+      <c r="E177" s="8">
         <v>15</v>
       </c>
-      <c r="F177" s="6"/>
+      <c r="F177" s="9"/>
       <c r="G177" s="3">
         <v>4529.3</v>
       </c>
@@ -11030,10 +11030,10 @@
       <c r="D178" s="3">
         <v>1975.8</v>
       </c>
-      <c r="E178" s="5">
+      <c r="E178" s="8">
         <v>14.5</v>
       </c>
-      <c r="F178" s="6"/>
+      <c r="F178" s="9"/>
       <c r="G178" s="3">
         <v>4272.8999999999996</v>
       </c>
@@ -11081,10 +11081,10 @@
       <c r="D179" s="3">
         <v>1803.9</v>
       </c>
-      <c r="E179" s="5">
+      <c r="E179" s="8">
         <v>13.3</v>
       </c>
-      <c r="F179" s="6"/>
+      <c r="F179" s="9"/>
       <c r="G179" s="3">
         <v>4095.2</v>
       </c>
@@ -11132,10 +11132,10 @@
       <c r="D180" s="3">
         <v>1852.5</v>
       </c>
-      <c r="E180" s="5">
+      <c r="E180" s="8">
         <v>13.7</v>
       </c>
-      <c r="F180" s="6"/>
+      <c r="F180" s="9"/>
       <c r="G180" s="3">
         <v>4250.1000000000004</v>
       </c>
@@ -11183,10 +11183,10 @@
       <c r="D181" s="3">
         <v>1761.8</v>
       </c>
-      <c r="E181" s="5">
+      <c r="E181" s="8">
         <v>13.1</v>
       </c>
-      <c r="F181" s="6"/>
+      <c r="F181" s="9"/>
       <c r="G181" s="3">
         <v>4050</v>
       </c>
@@ -11234,10 +11234,10 @@
       <c r="D182" s="3">
         <v>1815.5</v>
       </c>
-      <c r="E182" s="5">
+      <c r="E182" s="8">
         <v>15</v>
       </c>
-      <c r="F182" s="6"/>
+      <c r="F182" s="9"/>
       <c r="G182" s="3">
         <v>4222</v>
       </c>
@@ -11285,10 +11285,10 @@
       <c r="D183" s="3">
         <v>2015.6</v>
       </c>
-      <c r="E183" s="5">
+      <c r="E183" s="8">
         <v>15.3</v>
       </c>
-      <c r="F183" s="6"/>
+      <c r="F183" s="9"/>
       <c r="G183" s="3">
         <v>4298.2</v>
       </c>
@@ -11336,10 +11336,10 @@
       <c r="D184" s="3">
         <v>1962</v>
       </c>
-      <c r="E184" s="5">
+      <c r="E184" s="8">
         <v>16</v>
       </c>
-      <c r="F184" s="6"/>
+      <c r="F184" s="9"/>
       <c r="G184" s="3">
         <v>4089.8</v>
       </c>
@@ -11387,10 +11387,10 @@
       <c r="D185" s="3">
         <v>1902.7</v>
       </c>
-      <c r="E185" s="5">
+      <c r="E185" s="8">
         <v>15</v>
       </c>
-      <c r="F185" s="6"/>
+      <c r="F185" s="9"/>
       <c r="G185" s="3">
         <v>3967.4</v>
       </c>
@@ -11438,10 +11438,10 @@
       <c r="D186" s="3">
         <v>2159</v>
       </c>
-      <c r="E186" s="5">
+      <c r="E186" s="8">
         <v>14.7</v>
       </c>
-      <c r="F186" s="6"/>
+      <c r="F186" s="9"/>
       <c r="G186" s="3">
         <v>4417.7</v>
       </c>
@@ -11489,10 +11489,10 @@
       <c r="D187" s="3">
         <v>1972.7</v>
       </c>
-      <c r="E187" s="5">
+      <c r="E187" s="8">
         <v>15.4</v>
       </c>
-      <c r="F187" s="6"/>
+      <c r="F187" s="9"/>
       <c r="G187" s="3">
         <v>4059.9</v>
       </c>
@@ -11540,10 +11540,10 @@
       <c r="D188" s="3">
         <v>2045.2</v>
       </c>
-      <c r="E188" s="5">
+      <c r="E188" s="8">
         <v>16.100000000000001</v>
       </c>
-      <c r="F188" s="6"/>
+      <c r="F188" s="9"/>
       <c r="G188" s="3">
         <v>4300.2</v>
       </c>
@@ -11591,10 +11591,10 @@
       <c r="D189" s="3">
         <v>2145.1</v>
       </c>
-      <c r="E189" s="5">
+      <c r="E189" s="8">
         <v>16.399999999999999</v>
       </c>
-      <c r="F189" s="6"/>
+      <c r="F189" s="9"/>
       <c r="G189" s="3">
         <v>4615.6000000000004</v>
       </c>
@@ -11642,10 +11642,10 @@
       <c r="D190" s="3">
         <v>1746</v>
       </c>
-      <c r="E190" s="5">
+      <c r="E190" s="8">
         <v>13.6</v>
       </c>
-      <c r="F190" s="6"/>
+      <c r="F190" s="9"/>
       <c r="G190" s="3">
         <v>3863.6</v>
       </c>
@@ -11693,10 +11693,10 @@
       <c r="D191" s="3">
         <v>1850</v>
       </c>
-      <c r="E191" s="5">
+      <c r="E191" s="8">
         <v>14.8</v>
       </c>
-      <c r="F191" s="6"/>
+      <c r="F191" s="9"/>
       <c r="G191" s="3">
         <v>4325.7</v>
       </c>
@@ -11744,10 +11744,10 @@
       <c r="D192" s="3">
         <v>1659.5</v>
       </c>
-      <c r="E192" s="5">
+      <c r="E192" s="8">
         <v>13.5</v>
       </c>
-      <c r="F192" s="6"/>
+      <c r="F192" s="9"/>
       <c r="G192" s="3">
         <v>3940.4</v>
       </c>
@@ -11795,10 +11795,10 @@
       <c r="D193" s="3">
         <v>1654.1</v>
       </c>
-      <c r="E193" s="5">
+      <c r="E193" s="8">
         <v>13.7</v>
       </c>
-      <c r="F193" s="6"/>
+      <c r="F193" s="9"/>
       <c r="G193" s="3">
         <v>4027.5</v>
       </c>
@@ -11846,10 +11846,10 @@
       <c r="D194" s="3">
         <v>1762.6</v>
       </c>
-      <c r="E194" s="5">
+      <c r="E194" s="8">
         <v>15.5</v>
       </c>
-      <c r="F194" s="6"/>
+      <c r="F194" s="9"/>
       <c r="G194" s="3">
         <v>4075.5</v>
       </c>
@@ -11897,10 +11897,10 @@
       <c r="D195" s="3">
         <v>1711.5</v>
       </c>
-      <c r="E195" s="5">
+      <c r="E195" s="8">
         <v>15</v>
       </c>
-      <c r="F195" s="6"/>
+      <c r="F195" s="9"/>
       <c r="G195" s="3">
         <v>3753.4</v>
       </c>
@@ -11948,10 +11948,10 @@
       <c r="D196" s="3">
         <v>1861</v>
       </c>
-      <c r="E196" s="5">
+      <c r="E196" s="8">
         <v>19.600000000000001</v>
       </c>
-      <c r="F196" s="6"/>
+      <c r="F196" s="9"/>
       <c r="G196" s="3">
         <v>4012.4</v>
       </c>
@@ -11999,10 +11999,10 @@
       <c r="D197" s="3">
         <v>1636.3</v>
       </c>
-      <c r="E197" s="5">
+      <c r="E197" s="8">
         <v>14.4</v>
       </c>
-      <c r="F197" s="6"/>
+      <c r="F197" s="9"/>
       <c r="G197" s="3">
         <v>3615.4</v>
       </c>
@@ -12050,10 +12050,10 @@
       <c r="D198" s="3">
         <v>1898.5</v>
       </c>
-      <c r="E198" s="5">
+      <c r="E198" s="8">
         <v>15</v>
       </c>
-      <c r="F198" s="6"/>
+      <c r="F198" s="9"/>
       <c r="G198" s="3">
         <v>4093.8</v>
       </c>
@@ -12101,10 +12101,10 @@
       <c r="D199" s="3">
         <v>1796.4</v>
       </c>
-      <c r="E199" s="5">
+      <c r="E199" s="8">
         <v>15.4</v>
       </c>
-      <c r="F199" s="6"/>
+      <c r="F199" s="9"/>
       <c r="G199" s="3">
         <v>3874.5</v>
       </c>
@@ -12152,10 +12152,10 @@
       <c r="D200" s="3">
         <v>1896.4</v>
       </c>
-      <c r="E200" s="5">
+      <c r="E200" s="8">
         <v>15.4</v>
       </c>
-      <c r="F200" s="6"/>
+      <c r="F200" s="9"/>
       <c r="G200" s="3">
         <v>4151.3999999999996</v>
       </c>
@@ -12203,10 +12203,10 @@
       <c r="D201" s="3">
         <v>1932</v>
       </c>
-      <c r="E201" s="5">
+      <c r="E201" s="8">
         <v>15.7</v>
       </c>
-      <c r="F201" s="6"/>
+      <c r="F201" s="9"/>
       <c r="G201" s="3">
         <v>4197.2</v>
       </c>
@@ -12254,10 +12254,10 @@
       <c r="D202" s="3">
         <v>1753.7</v>
       </c>
-      <c r="E202" s="5">
+      <c r="E202" s="8">
         <v>14.3</v>
       </c>
-      <c r="F202" s="6"/>
+      <c r="F202" s="9"/>
       <c r="G202" s="3">
         <v>3949.9</v>
       </c>
@@ -12305,10 +12305,10 @@
       <c r="D203" s="3">
         <v>1780.2</v>
       </c>
-      <c r="E203" s="5">
+      <c r="E203" s="8">
         <v>14.6</v>
       </c>
-      <c r="F203" s="6"/>
+      <c r="F203" s="9"/>
       <c r="G203" s="3">
         <v>4257.6000000000004</v>
       </c>
@@ -12356,10 +12356,10 @@
       <c r="D204" s="3">
         <v>1552.6</v>
       </c>
-      <c r="E204" s="5">
+      <c r="E204" s="8">
         <v>13.2</v>
       </c>
-      <c r="F204" s="6"/>
+      <c r="F204" s="9"/>
       <c r="G204" s="3">
         <v>3790.6</v>
       </c>
@@ -12407,10 +12407,10 @@
       <c r="D205" s="3">
         <v>1663.3</v>
       </c>
-      <c r="E205" s="5">
+      <c r="E205" s="8">
         <v>14.4</v>
       </c>
-      <c r="F205" s="6"/>
+      <c r="F205" s="9"/>
       <c r="G205" s="3">
         <v>4136.2</v>
       </c>
@@ -12458,10 +12458,10 @@
       <c r="D206" s="3">
         <v>1726</v>
       </c>
-      <c r="E206" s="5">
+      <c r="E206" s="8">
         <v>16.100000000000001</v>
       </c>
-      <c r="F206" s="6"/>
+      <c r="F206" s="9"/>
       <c r="G206" s="3">
         <v>4063.8</v>
       </c>
@@ -12509,10 +12509,10 @@
       <c r="D207" s="3">
         <v>1618.3</v>
       </c>
-      <c r="E207" s="5">
+      <c r="E207" s="8">
         <v>16.899999999999999</v>
       </c>
-      <c r="F207" s="6"/>
+      <c r="F207" s="9"/>
       <c r="G207" s="3">
         <v>3614.8</v>
       </c>
@@ -12560,10 +12560,10 @@
       <c r="D208" s="3">
         <v>1877.5</v>
       </c>
-      <c r="E208" s="5">
+      <c r="E208" s="8">
         <v>18.3</v>
       </c>
-      <c r="F208" s="6"/>
+      <c r="F208" s="9"/>
       <c r="G208" s="3">
         <v>4112.1000000000004</v>
       </c>
@@ -12611,10 +12611,10 @@
       <c r="D209" s="3">
         <v>1637</v>
       </c>
-      <c r="E209" s="5">
+      <c r="E209" s="8">
         <v>14.7</v>
       </c>
-      <c r="F209" s="6"/>
+      <c r="F209" s="9"/>
       <c r="G209" s="3">
         <v>3489.9</v>
       </c>
@@ -12662,10 +12662,10 @@
       <c r="D210" s="3">
         <v>1820.5</v>
       </c>
-      <c r="E210" s="5">
+      <c r="E210" s="8">
         <v>16.3</v>
       </c>
-      <c r="F210" s="6"/>
+      <c r="F210" s="9"/>
       <c r="G210" s="3">
         <v>3899.6</v>
       </c>
@@ -12713,10 +12713,10 @@
       <c r="D211" s="3">
         <v>1866.3</v>
       </c>
-      <c r="E211" s="5">
+      <c r="E211" s="8">
         <v>16.5</v>
       </c>
-      <c r="F211" s="6"/>
+      <c r="F211" s="9"/>
       <c r="G211" s="3">
         <v>3953.6</v>
       </c>
@@ -12764,10 +12764,10 @@
       <c r="D212" s="3">
         <v>1843.2</v>
       </c>
-      <c r="E212" s="5">
+      <c r="E212" s="8">
         <v>15.8</v>
       </c>
-      <c r="F212" s="6"/>
+      <c r="F212" s="9"/>
       <c r="G212" s="3">
         <v>3942.7</v>
       </c>
@@ -12815,10 +12815,10 @@
       <c r="D213" s="3">
         <v>1816.2</v>
       </c>
-      <c r="E213" s="5">
+      <c r="E213" s="8">
         <v>15.8</v>
       </c>
-      <c r="F213" s="6"/>
+      <c r="F213" s="9"/>
       <c r="G213" s="3">
         <v>3925.1</v>
       </c>
@@ -12866,10 +12866,10 @@
       <c r="D214" s="3">
         <v>1743</v>
       </c>
-      <c r="E214" s="5">
+      <c r="E214" s="8">
         <v>15.6</v>
       </c>
-      <c r="F214" s="6"/>
+      <c r="F214" s="9"/>
       <c r="G214" s="3">
         <v>3929.8</v>
       </c>
@@ -12917,10 +12917,10 @@
       <c r="D215" s="3">
         <v>1752.3</v>
       </c>
-      <c r="E215" s="5">
+      <c r="E215" s="8">
         <v>15.4</v>
       </c>
-      <c r="F215" s="6"/>
+      <c r="F215" s="9"/>
       <c r="G215" s="3">
         <v>4100.3999999999996</v>
       </c>
@@ -12968,10 +12968,10 @@
       <c r="D216" s="3">
         <v>1505</v>
       </c>
-      <c r="E216" s="5">
+      <c r="E216" s="8">
         <v>13.4</v>
       </c>
-      <c r="F216" s="6"/>
+      <c r="F216" s="9"/>
       <c r="G216" s="3">
         <v>3613.6</v>
       </c>
@@ -13019,10 +13019,10 @@
       <c r="D217" s="3">
         <v>1706.5</v>
       </c>
-      <c r="E217" s="5">
+      <c r="E217" s="8">
         <v>15.3</v>
       </c>
-      <c r="F217" s="6"/>
+      <c r="F217" s="9"/>
       <c r="G217" s="3">
         <v>3962</v>
       </c>
@@ -13070,10 +13070,10 @@
       <c r="D218" s="3">
         <v>1611.4</v>
       </c>
-      <c r="E218" s="5">
+      <c r="E218" s="8">
         <v>14.8</v>
       </c>
-      <c r="F218" s="6"/>
+      <c r="F218" s="9"/>
       <c r="G218" s="3">
         <v>3713.5</v>
       </c>
@@ -13121,10 +13121,10 @@
       <c r="D219" s="3">
         <v>1703.4</v>
       </c>
-      <c r="E219" s="5">
+      <c r="E219" s="8">
         <v>15.5</v>
       </c>
-      <c r="F219" s="6"/>
+      <c r="F219" s="9"/>
       <c r="G219" s="3">
         <v>3619.7</v>
       </c>
@@ -13172,10 +13172,10 @@
       <c r="D220" s="3">
         <v>1803.7</v>
       </c>
-      <c r="E220" s="5">
+      <c r="E220" s="8">
         <v>19.5</v>
       </c>
-      <c r="F220" s="6"/>
+      <c r="F220" s="9"/>
       <c r="G220" s="3">
         <v>3878.1</v>
       </c>
@@ -13223,10 +13223,10 @@
       <c r="D221" s="3">
         <v>1629.2</v>
       </c>
-      <c r="E221" s="5">
+      <c r="E221" s="8">
         <v>15.1</v>
       </c>
-      <c r="F221" s="6"/>
+      <c r="F221" s="9"/>
       <c r="G221" s="3">
         <v>3423.8</v>
       </c>
@@ -13274,10 +13274,10 @@
       <c r="D222" s="3">
         <v>1704.8</v>
       </c>
-      <c r="E222" s="5">
+      <c r="E222" s="8">
         <v>14.5</v>
       </c>
-      <c r="F222" s="6"/>
+      <c r="F222" s="9"/>
       <c r="G222" s="3">
         <v>3648.2</v>
       </c>
@@ -13325,10 +13325,10 @@
       <c r="D223" s="3">
         <v>1857</v>
       </c>
-      <c r="E223" s="5">
+      <c r="E223" s="8">
         <v>17</v>
       </c>
-      <c r="F223" s="6"/>
+      <c r="F223" s="9"/>
       <c r="G223" s="3">
         <v>3930.4</v>
       </c>
@@ -13376,10 +13376,10 @@
       <c r="D224" s="3">
         <v>1799</v>
       </c>
-      <c r="E224" s="5">
+      <c r="E224" s="8">
         <v>16.5</v>
       </c>
-      <c r="F224" s="6"/>
+      <c r="F224" s="9"/>
       <c r="G224" s="3">
         <v>3770.1</v>
       </c>
@@ -13427,10 +13427,10 @@
       <c r="D225" s="3">
         <v>1779</v>
       </c>
-      <c r="E225" s="5">
+      <c r="E225" s="8">
         <v>16.3</v>
       </c>
-      <c r="F225" s="6"/>
+      <c r="F225" s="9"/>
       <c r="G225" s="3">
         <v>3921.1</v>
       </c>
@@ -13478,10 +13478,10 @@
       <c r="D226" s="3">
         <v>1772</v>
       </c>
-      <c r="E226" s="5">
+      <c r="E226" s="8">
         <v>16.3</v>
       </c>
-      <c r="F226" s="6"/>
+      <c r="F226" s="9"/>
       <c r="G226" s="3">
         <v>3906.3</v>
       </c>
@@ -13529,10 +13529,10 @@
       <c r="D227" s="3">
         <v>1699</v>
       </c>
-      <c r="E227" s="5">
+      <c r="E227" s="8">
         <v>15.2</v>
       </c>
-      <c r="F227" s="6"/>
+      <c r="F227" s="9"/>
       <c r="G227" s="3">
         <v>3879.6</v>
       </c>
@@ -13580,10 +13580,10 @@
       <c r="D228" s="3">
         <v>1576</v>
       </c>
-      <c r="E228" s="5">
+      <c r="E228" s="8">
         <v>14.2</v>
       </c>
-      <c r="F228" s="6"/>
+      <c r="F228" s="9"/>
       <c r="G228" s="3">
         <v>3707.9</v>
       </c>
@@ -13631,10 +13631,10 @@
       <c r="D229" s="3">
         <v>1672</v>
       </c>
-      <c r="E229" s="5">
+      <c r="E229" s="8">
         <v>15.6</v>
       </c>
-      <c r="F229" s="6"/>
+      <c r="F229" s="9"/>
       <c r="G229" s="3">
         <v>3927.6</v>
       </c>
@@ -13682,10 +13682,10 @@
       <c r="D230" s="3">
         <v>1500</v>
       </c>
-      <c r="E230" s="5">
+      <c r="E230" s="8">
         <v>13.1</v>
       </c>
-      <c r="F230" s="6"/>
+      <c r="F230" s="9"/>
       <c r="G230" s="3">
         <v>3596.9</v>
       </c>
@@ -13733,10 +13733,10 @@
       <c r="D231" s="3">
         <v>1725</v>
       </c>
-      <c r="E231" s="5">
+      <c r="E231" s="8">
         <v>17.5</v>
       </c>
-      <c r="F231" s="6"/>
+      <c r="F231" s="9"/>
       <c r="G231" s="3">
         <v>3712.8</v>
       </c>
@@ -13784,10 +13784,10 @@
       <c r="D232" s="3">
         <v>1801</v>
       </c>
-      <c r="E232" s="5">
+      <c r="E232" s="8">
         <v>22.2</v>
       </c>
-      <c r="F232" s="6"/>
+      <c r="F232" s="9"/>
       <c r="G232" s="3">
         <v>3945</v>
       </c>
@@ -13835,10 +13835,10 @@
       <c r="D233" s="3">
         <v>1571</v>
       </c>
-      <c r="E233" s="5">
+      <c r="E233" s="8">
         <v>14.8</v>
       </c>
-      <c r="F233" s="6"/>
+      <c r="F233" s="9"/>
       <c r="G233" s="3">
         <v>3404.8</v>
       </c>
@@ -13886,10 +13886,10 @@
       <c r="D234" s="3">
         <v>1758</v>
       </c>
-      <c r="E234" s="5">
+      <c r="E234" s="8">
         <v>15.5</v>
       </c>
-      <c r="F234" s="6"/>
+      <c r="F234" s="9"/>
       <c r="G234" s="3">
         <v>3715.5</v>
       </c>
@@ -13937,10 +13937,10 @@
       <c r="D235" s="3">
         <v>1869</v>
       </c>
-      <c r="E235" s="5">
+      <c r="E235" s="8">
         <v>18</v>
       </c>
-      <c r="F235" s="6"/>
+      <c r="F235" s="9"/>
       <c r="G235" s="3">
         <v>3884</v>
       </c>
@@ -13988,10 +13988,10 @@
       <c r="D236" s="3">
         <v>1718</v>
       </c>
-      <c r="E236" s="5">
+      <c r="E236" s="8">
         <v>16.3</v>
       </c>
-      <c r="F236" s="6"/>
+      <c r="F236" s="9"/>
       <c r="G236" s="3">
         <v>3532.7</v>
       </c>
@@ -14039,10 +14039,10 @@
       <c r="D237" s="3">
         <v>1912</v>
       </c>
-      <c r="E237" s="5">
+      <c r="E237" s="8">
         <v>17.899999999999999</v>
       </c>
-      <c r="F237" s="6"/>
+      <c r="F237" s="9"/>
       <c r="G237" s="3">
         <v>4158.3</v>
       </c>
@@ -14090,10 +14090,10 @@
       <c r="D238" s="3">
         <v>1668</v>
       </c>
-      <c r="E238" s="5">
+      <c r="E238" s="8">
         <v>16.899999999999999</v>
       </c>
-      <c r="F238" s="6"/>
+      <c r="F238" s="9"/>
       <c r="G238" s="3">
         <v>4014.3</v>
       </c>
@@ -14141,10 +14141,10 @@
       <c r="D239" s="3">
         <v>1559</v>
       </c>
-      <c r="E239" s="5">
+      <c r="E239" s="8">
         <v>15.7</v>
       </c>
-      <c r="F239" s="6"/>
+      <c r="F239" s="9"/>
       <c r="G239" s="3">
         <v>3916.7</v>
       </c>
@@ -14192,10 +14192,10 @@
       <c r="D240" s="3">
         <v>1580</v>
       </c>
-      <c r="E240" s="5">
+      <c r="E240" s="8">
         <v>15.7</v>
       </c>
-      <c r="F240" s="6"/>
+      <c r="F240" s="9"/>
       <c r="G240" s="3">
         <v>4050.1</v>
       </c>
@@ -14243,10 +14243,10 @@
       <c r="D241" s="3">
         <v>1531</v>
       </c>
-      <c r="E241" s="5">
+      <c r="E241" s="8">
         <v>15.2</v>
       </c>
-      <c r="F241" s="6"/>
+      <c r="F241" s="9"/>
       <c r="G241" s="3">
         <v>3952.3</v>
       </c>
@@ -14294,10 +14294,10 @@
       <c r="D242" s="3">
         <v>1551</v>
       </c>
-      <c r="E242" s="5">
+      <c r="E242" s="8">
         <v>15.2</v>
       </c>
-      <c r="F242" s="6"/>
+      <c r="F242" s="9"/>
       <c r="G242" s="3">
         <v>3942.4</v>
       </c>
@@ -14345,10 +14345,10 @@
       <c r="D243" s="3">
         <v>1659</v>
       </c>
-      <c r="E243" s="5">
+      <c r="E243" s="8">
         <v>19.5</v>
       </c>
-      <c r="F243" s="6"/>
+      <c r="F243" s="9"/>
       <c r="G243" s="3">
         <v>3845.8</v>
       </c>
@@ -14396,10 +14396,10 @@
       <c r="D244" s="3">
         <v>1623</v>
       </c>
-      <c r="E244" s="5">
+      <c r="E244" s="8">
         <v>18.100000000000001</v>
       </c>
-      <c r="F244" s="6"/>
+      <c r="F244" s="9"/>
       <c r="G244" s="3">
         <v>3706.1</v>
       </c>
@@ -14447,10 +14447,10 @@
       <c r="D245" s="3">
         <v>1523</v>
       </c>
-      <c r="E245" s="5">
+      <c r="E245" s="8">
         <v>15.1</v>
       </c>
-      <c r="F245" s="6"/>
+      <c r="F245" s="9"/>
       <c r="G245" s="3">
         <v>3496.1</v>
       </c>
@@ -14498,10 +14498,10 @@
       <c r="D246" s="3">
         <v>1752</v>
       </c>
-      <c r="E246" s="5">
+      <c r="E246" s="8">
         <v>16</v>
       </c>
-      <c r="F246" s="6"/>
+      <c r="F246" s="9"/>
       <c r="G246" s="3">
         <v>4077.3</v>
       </c>
@@ -14549,10 +14549,10 @@
       <c r="D247" s="3">
         <v>1715</v>
       </c>
-      <c r="E247" s="5">
+      <c r="E247" s="8">
         <v>18.5</v>
       </c>
-      <c r="F247" s="6"/>
+      <c r="F247" s="9"/>
       <c r="G247" s="3">
         <v>3858.2</v>
       </c>
@@ -14600,10 +14600,10 @@
       <c r="D248" s="3">
         <v>1709</v>
       </c>
-      <c r="E248" s="5">
+      <c r="E248" s="8">
         <v>17.8</v>
       </c>
-      <c r="F248" s="6"/>
+      <c r="F248" s="9"/>
       <c r="G248" s="3">
         <v>3907.1</v>
       </c>
@@ -14651,10 +14651,10 @@
       <c r="D249" s="3">
         <v>1831</v>
       </c>
-      <c r="E249" s="5">
+      <c r="E249" s="8">
         <v>19.7</v>
       </c>
-      <c r="F249" s="6"/>
+      <c r="F249" s="9"/>
       <c r="G249" s="3">
         <v>4382.1000000000004</v>
       </c>
@@ -14702,10 +14702,10 @@
       <c r="D250" s="3">
         <v>1638</v>
       </c>
-      <c r="E250" s="5">
+      <c r="E250" s="8">
         <v>17.600000000000001</v>
       </c>
-      <c r="F250" s="6"/>
+      <c r="F250" s="9"/>
       <c r="G250" s="3">
         <v>3873.2</v>
       </c>
@@ -14753,10 +14753,10 @@
       <c r="D251" s="3">
         <v>1637</v>
       </c>
-      <c r="E251" s="5">
+      <c r="E251" s="8">
         <v>16.600000000000001</v>
       </c>
-      <c r="F251" s="6"/>
+      <c r="F251" s="9"/>
       <c r="G251" s="3">
         <v>4139.6000000000004</v>
       </c>
@@ -14804,10 +14804,10 @@
       <c r="D252" s="3">
         <v>1557</v>
       </c>
-      <c r="E252" s="5">
+      <c r="E252" s="8">
         <v>16.3</v>
       </c>
-      <c r="F252" s="6"/>
+      <c r="F252" s="9"/>
       <c r="G252" s="3">
         <v>4016.5</v>
       </c>
@@ -14855,10 +14855,10 @@
       <c r="D253" s="3">
         <v>1479</v>
       </c>
-      <c r="E253" s="5">
+      <c r="E253" s="8">
         <v>15.1</v>
       </c>
-      <c r="F253" s="6"/>
+      <c r="F253" s="9"/>
       <c r="G253" s="3">
         <v>3810.8</v>
       </c>
@@ -14906,10 +14906,10 @@
       <c r="D254" s="3">
         <v>1646</v>
       </c>
-      <c r="E254" s="5">
+      <c r="E254" s="8">
         <v>19.5</v>
       </c>
-      <c r="F254" s="6"/>
+      <c r="F254" s="9"/>
       <c r="G254" s="3">
         <v>4017.3</v>
       </c>
@@ -14957,10 +14957,10 @@
       <c r="D255" s="3">
         <v>1672</v>
       </c>
-      <c r="E255" s="5">
+      <c r="E255" s="8">
         <v>19.100000000000001</v>
       </c>
-      <c r="F255" s="6"/>
+      <c r="F255" s="9"/>
       <c r="G255" s="3">
         <v>3901.8</v>
       </c>
@@ -15008,10 +15008,10 @@
       <c r="D256" s="3">
         <v>1581</v>
       </c>
-      <c r="E256" s="5">
+      <c r="E256" s="8">
         <v>22.2</v>
       </c>
-      <c r="F256" s="6"/>
+      <c r="F256" s="9"/>
       <c r="G256" s="3">
         <v>3677.7</v>
       </c>
@@ -15059,10 +15059,10 @@
       <c r="D257" s="3">
         <v>1482</v>
       </c>
-      <c r="E257" s="5">
+      <c r="E257" s="8">
         <v>17.8</v>
       </c>
-      <c r="F257" s="6"/>
+      <c r="F257" s="9"/>
       <c r="G257" s="3">
         <v>3502.1</v>
       </c>
@@ -15110,10 +15110,10 @@
       <c r="D258" s="3">
         <v>1717</v>
       </c>
-      <c r="E258" s="5">
+      <c r="E258" s="8">
         <v>17.7</v>
       </c>
-      <c r="F258" s="6"/>
+      <c r="F258" s="9"/>
       <c r="G258" s="3">
         <v>4082.5</v>
       </c>
@@ -15161,10 +15161,10 @@
       <c r="D259" s="3">
         <v>1668</v>
       </c>
-      <c r="E259" s="5">
+      <c r="E259" s="8">
         <v>19</v>
       </c>
-      <c r="F259" s="6"/>
+      <c r="F259" s="9"/>
       <c r="G259" s="3">
         <v>3813.6</v>
       </c>
@@ -15212,10 +15212,10 @@
       <c r="D260" s="3">
         <v>1733</v>
       </c>
-      <c r="E260" s="5">
+      <c r="E260" s="8">
         <v>20</v>
       </c>
-      <c r="F260" s="6"/>
+      <c r="F260" s="9"/>
       <c r="G260" s="3">
         <v>3970.1</v>
       </c>
@@ -15263,10 +15263,10 @@
       <c r="D261" s="3">
         <v>1838</v>
       </c>
-      <c r="E261" s="5">
+      <c r="E261" s="8">
         <v>20</v>
       </c>
-      <c r="F261" s="6"/>
+      <c r="F261" s="9"/>
       <c r="G261" s="3">
         <v>4265.1000000000004</v>
       </c>
@@ -15314,10 +15314,10 @@
       <c r="D262" s="3">
         <v>1513</v>
       </c>
-      <c r="E262" s="5">
+      <c r="E262" s="8">
         <v>16</v>
       </c>
-      <c r="F262" s="6"/>
+      <c r="F262" s="9"/>
       <c r="G262" s="3">
         <v>3665.7</v>
       </c>
@@ -15365,10 +15365,10 @@
       <c r="D263" s="3">
         <v>1600</v>
       </c>
-      <c r="E263" s="5">
+      <c r="E263" s="8">
         <v>19</v>
       </c>
-      <c r="F263" s="6"/>
+      <c r="F263" s="9"/>
       <c r="G263" s="3">
         <v>4060.5</v>
       </c>
@@ -15416,10 +15416,10 @@
       <c r="D264" s="3">
         <v>1435</v>
       </c>
-      <c r="E264" s="5">
+      <c r="E264" s="8">
         <v>17</v>
       </c>
-      <c r="F264" s="6"/>
+      <c r="F264" s="9"/>
       <c r="G264" s="3">
         <v>3644.7</v>
       </c>
@@ -15467,10 +15467,10 @@
       <c r="D265" s="3">
         <v>1458</v>
       </c>
-      <c r="E265" s="5">
+      <c r="E265" s="8">
         <v>16</v>
       </c>
-      <c r="F265" s="6"/>
+      <c r="F265" s="9"/>
       <c r="G265" s="3">
         <v>3758.7</v>
       </c>
@@ -15518,10 +15518,10 @@
       <c r="D266" s="3">
         <v>1555</v>
       </c>
-      <c r="E266" s="5">
+      <c r="E266" s="8">
         <v>17</v>
       </c>
-      <c r="F266" s="6"/>
+      <c r="F266" s="9"/>
       <c r="G266" s="3">
         <v>3881.7</v>
       </c>
@@ -15569,10 +15569,10 @@
       <c r="D267" s="3">
         <v>1533</v>
       </c>
-      <c r="E267" s="5">
+      <c r="E267" s="8">
         <v>20</v>
       </c>
-      <c r="F267" s="6"/>
+      <c r="F267" s="9"/>
       <c r="G267" s="3">
         <v>3507.5</v>
       </c>
@@ -15620,10 +15620,10 @@
       <c r="D268" s="3">
         <v>1626</v>
       </c>
-      <c r="E268" s="5">
+      <c r="E268" s="8">
         <v>23</v>
       </c>
-      <c r="F268" s="6"/>
+      <c r="F268" s="9"/>
       <c r="G268" s="3">
         <v>3762.3</v>
       </c>
@@ -15671,10 +15671,10 @@
       <c r="D269" s="3">
         <v>1486</v>
       </c>
-      <c r="E269" s="5">
+      <c r="E269" s="8">
         <v>17</v>
       </c>
-      <c r="F269" s="6"/>
+      <c r="F269" s="9"/>
       <c r="G269" s="3">
         <v>3399.9</v>
       </c>
@@ -15722,10 +15722,10 @@
       <c r="D270" s="3">
         <v>1693</v>
       </c>
-      <c r="E270" s="5">
+      <c r="E270" s="8">
         <v>19</v>
       </c>
-      <c r="F270" s="6"/>
+      <c r="F270" s="9"/>
       <c r="G270" s="3">
         <v>3934.7</v>
       </c>
@@ -15773,10 +15773,10 @@
       <c r="D271" s="3">
         <v>1579</v>
       </c>
-      <c r="E271" s="5">
+      <c r="E271" s="8">
         <v>21</v>
       </c>
-      <c r="F271" s="6"/>
+      <c r="F271" s="9"/>
       <c r="G271" s="3">
         <v>3614.7</v>
       </c>
@@ -15822,10 +15822,10 @@
       <c r="D272" s="3">
         <v>1714</v>
       </c>
-      <c r="E272" s="5">
+      <c r="E272" s="8">
         <v>20</v>
       </c>
-      <c r="F272" s="6"/>
+      <c r="F272" s="9"/>
       <c r="G272" s="3">
         <v>3920.5</v>
       </c>
@@ -15871,10 +15871,10 @@
       <c r="D273" s="3">
         <v>1717</v>
       </c>
-      <c r="E273" s="5">
+      <c r="E273" s="8">
         <v>18</v>
       </c>
-      <c r="F273" s="6"/>
+      <c r="F273" s="9"/>
       <c r="G273" s="3">
         <v>4099.2</v>
       </c>
@@ -15920,10 +15920,10 @@
       <c r="D274" s="3">
         <v>1554</v>
       </c>
-      <c r="E274" s="5">
+      <c r="E274" s="8">
         <v>17</v>
       </c>
-      <c r="F274" s="6"/>
+      <c r="F274" s="9"/>
       <c r="G274" s="3">
         <v>3862.9</v>
       </c>
@@ -15969,10 +15969,10 @@
       <c r="D275" s="3">
         <v>1643</v>
       </c>
-      <c r="E275" s="5">
+      <c r="E275" s="8">
         <v>18</v>
       </c>
-      <c r="F275" s="6"/>
+      <c r="F275" s="9"/>
       <c r="G275" s="3">
         <v>4115.8</v>
       </c>
@@ -16018,10 +16018,10 @@
       <c r="D276" s="3">
         <v>1409</v>
       </c>
-      <c r="E276" s="5">
+      <c r="E276" s="8">
         <v>16</v>
       </c>
-      <c r="F276" s="6"/>
+      <c r="F276" s="9"/>
       <c r="G276" s="3">
         <v>3645.1</v>
       </c>
@@ -16067,10 +16067,10 @@
       <c r="D277" s="3">
         <v>1538</v>
       </c>
-      <c r="E277" s="5">
+      <c r="E277" s="8">
         <v>17</v>
       </c>
-      <c r="F277" s="6"/>
+      <c r="F277" s="9"/>
       <c r="G277" s="3">
         <v>3942.7</v>
       </c>
@@ -16116,10 +16116,10 @@
       <c r="D278" s="3">
         <v>1542</v>
       </c>
-      <c r="E278" s="5">
+      <c r="E278" s="8">
         <v>17</v>
       </c>
-      <c r="F278" s="6"/>
+      <c r="F278" s="9"/>
       <c r="G278" s="3">
         <v>3880.9</v>
       </c>
@@ -16165,10 +16165,10 @@
       <c r="D279" s="3">
         <v>1398</v>
       </c>
-      <c r="E279" s="5">
+      <c r="E279" s="8">
         <v>23</v>
       </c>
-      <c r="F279" s="6"/>
+      <c r="F279" s="9"/>
       <c r="G279" s="3">
         <v>3464.9</v>
       </c>
@@ -16214,10 +16214,10 @@
       <c r="D280" s="3">
         <v>1704</v>
       </c>
-      <c r="E280" s="5">
+      <c r="E280" s="8">
         <v>24</v>
       </c>
-      <c r="F280" s="6"/>
+      <c r="F280" s="9"/>
       <c r="G280" s="3">
         <v>4048.2</v>
       </c>
@@ -16263,10 +16263,10 @@
       <c r="D281" s="3">
         <v>1558</v>
       </c>
-      <c r="E281" s="5">
+      <c r="E281" s="8">
         <v>20</v>
       </c>
-      <c r="F281" s="6"/>
+      <c r="F281" s="9"/>
       <c r="G281" s="3">
         <v>3770.7</v>
       </c>
@@ -16312,10 +16312,10 @@
       <c r="D282" s="3">
         <v>1572</v>
       </c>
-      <c r="E282" s="5">
+      <c r="E282" s="8">
         <v>19</v>
       </c>
-      <c r="F282" s="6"/>
+      <c r="F282" s="9"/>
       <c r="G282" s="3">
         <v>3785.6</v>
       </c>
@@ -16361,10 +16361,10 @@
       <c r="D283" s="3">
         <v>1705</v>
       </c>
-      <c r="E283" s="5">
+      <c r="E283" s="8">
         <v>24</v>
       </c>
-      <c r="F283" s="6"/>
+      <c r="F283" s="9"/>
       <c r="G283" s="3">
         <v>3862.2</v>
       </c>
@@ -16410,10 +16410,10 @@
       <c r="D284" s="3">
         <v>1707</v>
       </c>
-      <c r="E284" s="5">
+      <c r="E284" s="8">
         <v>22</v>
       </c>
-      <c r="F284" s="6"/>
+      <c r="F284" s="9"/>
       <c r="G284" s="3">
         <v>3891.8</v>
       </c>
@@ -16459,10 +16459,10 @@
       <c r="D285" s="3">
         <v>1698</v>
       </c>
-      <c r="E285" s="5">
+      <c r="E285" s="8">
         <v>20</v>
       </c>
-      <c r="F285" s="6"/>
+      <c r="F285" s="9"/>
       <c r="G285" s="3">
         <v>4000.7</v>
       </c>
@@ -16508,10 +16508,10 @@
       <c r="D286" s="3">
         <v>1618</v>
       </c>
-      <c r="E286" s="5">
+      <c r="E286" s="8">
         <v>19</v>
       </c>
-      <c r="F286" s="6"/>
+      <c r="F286" s="9"/>
       <c r="G286" s="3">
         <v>3932.5</v>
       </c>
@@ -16557,10 +16557,10 @@
       <c r="D287" s="3">
         <v>1565</v>
       </c>
-      <c r="E287" s="5">
+      <c r="E287" s="8">
         <v>19</v>
       </c>
-      <c r="F287" s="6"/>
+      <c r="F287" s="9"/>
       <c r="G287" s="3">
         <v>3910.2</v>
       </c>
@@ -16606,10 +16606,10 @@
       <c r="D288" s="3">
         <v>1489</v>
       </c>
-      <c r="E288" s="5">
+      <c r="E288" s="8">
         <v>17</v>
       </c>
-      <c r="F288" s="6"/>
+      <c r="F288" s="9"/>
       <c r="G288" s="3">
         <v>3780.7</v>
       </c>
@@ -16655,10 +16655,10 @@
       <c r="D289" s="3">
         <v>1584</v>
       </c>
-      <c r="E289" s="5">
+      <c r="E289" s="8">
         <v>17</v>
       </c>
-      <c r="F289" s="6"/>
+      <c r="F289" s="9"/>
       <c r="G289" s="3">
         <v>3940.2</v>
       </c>
@@ -16704,10 +16704,10 @@
       <c r="D290" s="3">
         <v>1417</v>
       </c>
-      <c r="E290" s="5">
+      <c r="E290" s="8">
         <v>18</v>
       </c>
-      <c r="F290" s="6"/>
+      <c r="F290" s="9"/>
       <c r="G290" s="3">
         <v>3603.3</v>
       </c>
@@ -16753,10 +16753,10 @@
       <c r="D291" s="3">
         <v>1629</v>
       </c>
-      <c r="E291" s="5">
+      <c r="E291" s="8">
         <v>21</v>
       </c>
-      <c r="F291" s="6"/>
+      <c r="F291" s="9"/>
       <c r="G291" s="3">
         <v>3822.4</v>
       </c>
@@ -16802,10 +16802,10 @@
       <c r="D292" s="3">
         <v>1737</v>
       </c>
-      <c r="E292" s="5">
+      <c r="E292" s="8">
         <v>29</v>
       </c>
-      <c r="F292" s="6"/>
+      <c r="F292" s="9"/>
       <c r="G292" s="3">
         <v>4017.1</v>
       </c>
@@ -16851,10 +16851,10 @@
       <c r="D293" s="3">
         <v>1501</v>
       </c>
-      <c r="E293" s="5">
+      <c r="E293" s="8">
         <v>20</v>
       </c>
-      <c r="F293" s="6"/>
+      <c r="F293" s="9"/>
       <c r="G293" s="3">
         <v>3536.6</v>
       </c>
@@ -16900,10 +16900,10 @@
       <c r="D294" s="3">
         <v>1628</v>
       </c>
-      <c r="E294" s="5">
+      <c r="E294" s="8">
         <v>18</v>
       </c>
-      <c r="F294" s="6"/>
+      <c r="F294" s="9"/>
       <c r="G294" s="3">
         <v>3832.9</v>
       </c>
@@ -16949,10 +16949,10 @@
       <c r="D295" s="3">
         <v>1799</v>
       </c>
-      <c r="E295" s="5">
+      <c r="E295" s="8">
         <v>23</v>
       </c>
-      <c r="F295" s="6"/>
+      <c r="F295" s="9"/>
       <c r="G295" s="3">
         <v>3943.7</v>
       </c>
@@ -16998,10 +16998,10 @@
       <c r="D296" s="3">
         <v>1683</v>
       </c>
-      <c r="E296" s="5">
+      <c r="E296" s="8">
         <v>19</v>
       </c>
-      <c r="F296" s="6"/>
+      <c r="F296" s="9"/>
       <c r="G296" s="3">
         <v>3724.7</v>
       </c>
@@ -17047,10 +17047,10 @@
       <c r="D297" s="3">
         <v>1757</v>
       </c>
-      <c r="E297" s="5">
+      <c r="E297" s="8">
         <v>20</v>
       </c>
-      <c r="F297" s="6"/>
+      <c r="F297" s="9"/>
       <c r="G297" s="3">
         <v>4034.8</v>
       </c>
@@ -17096,10 +17096,10 @@
       <c r="D298" s="3">
         <v>1591</v>
       </c>
-      <c r="E298" s="5">
+      <c r="E298" s="8">
         <v>19</v>
       </c>
-      <c r="F298" s="6"/>
+      <c r="F298" s="9"/>
       <c r="G298" s="3">
         <v>3828.4</v>
       </c>
@@ -17145,10 +17145,10 @@
       <c r="D299" s="3">
         <v>1505</v>
       </c>
-      <c r="E299" s="5">
+      <c r="E299" s="8">
         <v>17</v>
       </c>
-      <c r="F299" s="6"/>
+      <c r="F299" s="9"/>
       <c r="G299" s="3">
         <v>3769.5</v>
       </c>
@@ -17194,10 +17194,10 @@
       <c r="D300" s="3">
         <v>1529</v>
       </c>
-      <c r="E300" s="5">
+      <c r="E300" s="8">
         <v>18</v>
       </c>
-      <c r="F300" s="6"/>
+      <c r="F300" s="9"/>
       <c r="G300" s="3">
         <v>3781.2</v>
       </c>
@@ -17243,10 +17243,10 @@
       <c r="D301" s="3">
         <v>1444</v>
       </c>
-      <c r="E301" s="5">
+      <c r="E301" s="8">
         <v>20</v>
       </c>
-      <c r="F301" s="6"/>
+      <c r="F301" s="9"/>
       <c r="G301" s="3">
         <v>3731.9</v>
       </c>
@@ -17292,10 +17292,10 @@
       <c r="D302" s="3">
         <v>1419</v>
       </c>
-      <c r="E302" s="5">
+      <c r="E302" s="8">
         <v>19</v>
       </c>
-      <c r="F302" s="6"/>
+      <c r="F302" s="9"/>
       <c r="G302" s="3">
         <v>3580.1</v>
       </c>
@@ -17341,10 +17341,10 @@
       <c r="D303" s="3">
         <v>1566</v>
       </c>
-      <c r="E303" s="5">
+      <c r="E303" s="8">
         <v>25</v>
       </c>
-      <c r="F303" s="6"/>
+      <c r="F303" s="9"/>
       <c r="G303" s="3">
         <v>3701.1</v>
       </c>
@@ -17390,10 +17390,10 @@
       <c r="D304" s="3">
         <v>1596</v>
       </c>
-      <c r="E304" s="5">
+      <c r="E304" s="8">
         <v>26</v>
       </c>
-      <c r="F304" s="6"/>
+      <c r="F304" s="9"/>
       <c r="G304" s="3">
         <v>3725.9</v>
       </c>
@@ -17439,10 +17439,10 @@
       <c r="D305" s="3">
         <v>1457</v>
       </c>
-      <c r="E305" s="5">
+      <c r="E305" s="8">
         <v>21</v>
       </c>
-      <c r="F305" s="6"/>
+      <c r="F305" s="9"/>
       <c r="G305" s="3">
         <v>3476.3</v>
       </c>
@@ -17488,10 +17488,10 @@
       <c r="D306" s="3">
         <v>1634</v>
       </c>
-      <c r="E306" s="5">
+      <c r="E306" s="8">
         <v>21</v>
       </c>
-      <c r="F306" s="6"/>
+      <c r="F306" s="9"/>
       <c r="G306" s="3">
         <v>3835.6</v>
       </c>
@@ -17537,10 +17537,10 @@
       <c r="D307" s="3">
         <v>1641</v>
       </c>
-      <c r="E307" s="5">
+      <c r="E307" s="8">
         <v>23</v>
       </c>
-      <c r="F307" s="6"/>
+      <c r="F307" s="9"/>
       <c r="G307" s="3">
         <v>3714.1</v>
       </c>
@@ -17586,10 +17586,10 @@
       <c r="D308" s="3">
         <v>1473</v>
       </c>
-      <c r="E308" s="5">
+      <c r="E308" s="8">
         <v>20</v>
       </c>
-      <c r="F308" s="6"/>
+      <c r="F308" s="9"/>
       <c r="G308" s="3">
         <v>3450.3</v>
       </c>
@@ -17635,10 +17635,10 @@
       <c r="D309" s="3">
         <v>1652</v>
       </c>
-      <c r="E309" s="5">
+      <c r="E309" s="8">
         <v>22</v>
       </c>
-      <c r="F309" s="6"/>
+      <c r="F309" s="9"/>
       <c r="G309" s="3">
         <v>4002.7</v>
       </c>
@@ -17684,10 +17684,10 @@
       <c r="D310" s="3">
         <v>1490</v>
       </c>
-      <c r="E310" s="5">
+      <c r="E310" s="8">
         <v>21</v>
       </c>
-      <c r="F310" s="6"/>
+      <c r="F310" s="9"/>
       <c r="G310" s="3">
         <v>3664.4</v>
       </c>
@@ -17733,10 +17733,10 @@
       <c r="D311" s="3">
         <v>1352</v>
       </c>
-      <c r="E311" s="5">
+      <c r="E311" s="8">
         <v>19</v>
       </c>
-      <c r="F311" s="6"/>
+      <c r="F311" s="9"/>
       <c r="G311" s="3">
         <v>3617.7</v>
       </c>
@@ -17782,10 +17782,10 @@
       <c r="D312" s="3">
         <v>1354</v>
       </c>
-      <c r="E312" s="5">
+      <c r="E312" s="8">
         <v>20</v>
       </c>
-      <c r="F312" s="6"/>
+      <c r="F312" s="9"/>
       <c r="G312" s="3">
         <v>3657.3</v>
       </c>
@@ -17831,10 +17831,10 @@
       <c r="D313" s="3">
         <v>1312</v>
       </c>
-      <c r="E313" s="5">
+      <c r="E313" s="8">
         <v>21</v>
       </c>
-      <c r="F313" s="6"/>
+      <c r="F313" s="9"/>
       <c r="G313" s="3">
         <v>3491.6</v>
       </c>
@@ -17880,10 +17880,10 @@
       <c r="D314" s="3">
         <v>1332</v>
       </c>
-      <c r="E314" s="5">
+      <c r="E314" s="8">
         <v>22</v>
       </c>
-      <c r="F314" s="6"/>
+      <c r="F314" s="9"/>
       <c r="G314" s="3">
         <v>3568.4</v>
       </c>
@@ -17929,10 +17929,10 @@
       <c r="D315" s="3">
         <v>1446</v>
       </c>
-      <c r="E315" s="5">
+      <c r="E315" s="8">
         <v>22</v>
       </c>
-      <c r="F315" s="6"/>
+      <c r="F315" s="9"/>
       <c r="G315" s="3">
         <v>3591.5</v>
       </c>
@@ -17978,10 +17978,10 @@
       <c r="D316" s="3">
         <v>1422</v>
       </c>
-      <c r="E316" s="5">
+      <c r="E316" s="8">
         <v>26</v>
       </c>
-      <c r="F316" s="6"/>
+      <c r="F316" s="9"/>
       <c r="G316" s="3">
         <v>3441.4</v>
       </c>
@@ -18027,10 +18027,10 @@
       <c r="D317" s="3">
         <v>1309</v>
       </c>
-      <c r="E317" s="5">
+      <c r="E317" s="8">
         <v>21</v>
       </c>
-      <c r="F317" s="6"/>
+      <c r="F317" s="9"/>
       <c r="G317" s="3">
         <v>3275.8</v>
       </c>
@@ -18076,10 +18076,10 @@
       <c r="D318" s="3">
         <v>1461</v>
       </c>
-      <c r="E318" s="5">
+      <c r="E318" s="8">
         <v>20</v>
       </c>
-      <c r="F318" s="6"/>
+      <c r="F318" s="9"/>
       <c r="G318" s="3">
         <v>3733</v>
       </c>
@@ -18125,10 +18125,10 @@
       <c r="D319" s="3">
         <v>1429</v>
       </c>
-      <c r="E319" s="5">
+      <c r="E319" s="8">
         <v>22</v>
       </c>
-      <c r="F319" s="6"/>
+      <c r="F319" s="9"/>
       <c r="G319" s="3">
         <v>3432.8</v>
       </c>
@@ -18174,10 +18174,10 @@
       <c r="D320" s="3">
         <v>1429</v>
       </c>
-      <c r="E320" s="5">
+      <c r="E320" s="8">
         <v>21</v>
       </c>
-      <c r="F320" s="6"/>
+      <c r="F320" s="9"/>
       <c r="G320" s="3">
         <v>3434.5</v>
       </c>
@@ -18223,10 +18223,10 @@
       <c r="D321" s="3">
         <v>1591</v>
       </c>
-      <c r="E321" s="5">
+      <c r="E321" s="8">
         <v>23</v>
       </c>
-      <c r="F321" s="6"/>
+      <c r="F321" s="9"/>
       <c r="G321" s="3">
         <v>3827.3</v>
       </c>
@@ -18272,10 +18272,10 @@
       <c r="D322" s="3">
         <v>1408</v>
       </c>
-      <c r="E322" s="5">
+      <c r="E322" s="8">
         <v>20</v>
       </c>
-      <c r="F322" s="6"/>
+      <c r="F322" s="9"/>
       <c r="G322" s="3">
         <v>3392</v>
       </c>
@@ -18321,10 +18321,10 @@
       <c r="D323" s="3">
         <v>1395</v>
       </c>
-      <c r="E323" s="5">
+      <c r="E323" s="8">
         <v>20</v>
       </c>
-      <c r="F323" s="6"/>
+      <c r="F323" s="9"/>
       <c r="G323" s="3">
         <v>3709</v>
       </c>
@@ -18370,10 +18370,10 @@
       <c r="D324" s="3">
         <v>1340</v>
       </c>
-      <c r="E324" s="5">
+      <c r="E324" s="8">
         <v>20</v>
       </c>
-      <c r="F324" s="6"/>
+      <c r="F324" s="9"/>
       <c r="G324" s="3">
         <v>3587.1</v>
       </c>
@@ -18419,10 +18419,10 @@
       <c r="D325" s="3">
         <v>1206</v>
       </c>
-      <c r="E325" s="5">
+      <c r="E325" s="8">
         <v>18</v>
       </c>
-      <c r="F325" s="6"/>
+      <c r="F325" s="9"/>
       <c r="G325" s="3">
         <v>3438.5</v>
       </c>
@@ -18468,10 +18468,10 @@
       <c r="D326" s="3">
         <v>1413</v>
       </c>
-      <c r="E326" s="5">
+      <c r="E326" s="8">
         <v>21</v>
       </c>
-      <c r="F326" s="6"/>
+      <c r="F326" s="9"/>
       <c r="G326" s="3">
         <v>3766.2</v>
       </c>
@@ -18517,10 +18517,10 @@
       <c r="D327" s="3">
         <v>1485</v>
       </c>
-      <c r="E327" s="5">
+      <c r="E327" s="8">
         <v>25</v>
       </c>
-      <c r="F327" s="6"/>
+      <c r="F327" s="9"/>
       <c r="G327" s="3">
         <v>3693.1</v>
       </c>
@@ -18566,10 +18566,10 @@
       <c r="D328" s="3">
         <v>1422</v>
       </c>
-      <c r="E328" s="5">
+      <c r="E328" s="8">
         <v>27</v>
       </c>
-      <c r="F328" s="6"/>
+      <c r="F328" s="9"/>
       <c r="G328" s="3">
         <v>3514</v>
       </c>
@@ -18615,10 +18615,10 @@
       <c r="D329" s="3">
         <v>1417</v>
       </c>
-      <c r="E329" s="5">
+      <c r="E329" s="8">
         <v>24</v>
       </c>
-      <c r="F329" s="6"/>
+      <c r="F329" s="9"/>
       <c r="G329" s="3">
         <v>3519.4</v>
       </c>
@@ -18664,10 +18664,10 @@
       <c r="D330" s="3">
         <v>1550</v>
       </c>
-      <c r="E330" s="5">
+      <c r="E330" s="8">
         <v>23</v>
       </c>
-      <c r="F330" s="6"/>
+      <c r="F330" s="9"/>
       <c r="G330" s="3">
         <v>3823.8</v>
       </c>
@@ -18713,10 +18713,10 @@
       <c r="D331" s="3">
         <v>1507</v>
       </c>
-      <c r="E331" s="5">
+      <c r="E331" s="8">
         <v>23</v>
       </c>
-      <c r="F331" s="6"/>
+      <c r="F331" s="9"/>
       <c r="G331" s="3">
         <v>3554.5</v>
       </c>
@@ -18762,10 +18762,10 @@
       <c r="D332" s="3">
         <v>1608</v>
       </c>
-      <c r="E332" s="5">
+      <c r="E332" s="8">
         <v>23</v>
       </c>
-      <c r="F332" s="6"/>
+      <c r="F332" s="9"/>
       <c r="G332" s="3">
         <v>3755.9</v>
       </c>
@@ -18811,10 +18811,10 @@
       <c r="D333" s="3">
         <v>1574</v>
       </c>
-      <c r="E333" s="5">
+      <c r="E333" s="8">
         <v>22</v>
       </c>
-      <c r="F333" s="6"/>
+      <c r="F333" s="9"/>
       <c r="G333" s="3">
         <v>3804.6</v>
       </c>
@@ -18860,10 +18860,10 @@
       <c r="D334" s="3">
         <v>1438</v>
       </c>
-      <c r="E334" s="5">
+      <c r="E334" s="8">
         <v>21</v>
       </c>
-      <c r="F334" s="6"/>
+      <c r="F334" s="9"/>
       <c r="G334" s="3">
         <v>3704.6</v>
       </c>
@@ -18909,10 +18909,10 @@
       <c r="D335" s="3">
         <v>1504</v>
       </c>
-      <c r="E335" s="5">
+      <c r="E335" s="8">
         <v>23</v>
       </c>
-      <c r="F335" s="6"/>
+      <c r="F335" s="9"/>
       <c r="G335" s="3">
         <v>3868.7</v>
       </c>
@@ -18958,10 +18958,10 @@
       <c r="D336" s="3">
         <v>1299</v>
       </c>
-      <c r="E336" s="5">
+      <c r="E336" s="8">
         <v>19</v>
       </c>
-      <c r="F336" s="6"/>
+      <c r="F336" s="9"/>
       <c r="G336" s="3">
         <v>3431.7</v>
       </c>
@@ -19007,10 +19007,10 @@
       <c r="D337" s="3">
         <v>1464</v>
       </c>
-      <c r="E337" s="5">
+      <c r="E337" s="8">
         <v>22</v>
       </c>
-      <c r="F337" s="6"/>
+      <c r="F337" s="9"/>
       <c r="G337" s="3">
         <v>3797.5</v>
       </c>
@@ -19056,10 +19056,10 @@
       <c r="D338" s="3">
         <v>1525</v>
       </c>
-      <c r="E338" s="5">
+      <c r="E338" s="8">
         <v>23</v>
       </c>
-      <c r="F338" s="6"/>
+      <c r="F338" s="9"/>
       <c r="G338" s="3">
         <v>3759.9</v>
       </c>
@@ -19105,10 +19105,10 @@
       <c r="D339" s="3">
         <v>1404</v>
       </c>
-      <c r="E339" s="5">
+      <c r="E339" s="8">
         <v>27</v>
       </c>
-      <c r="F339" s="6"/>
+      <c r="F339" s="9"/>
       <c r="G339" s="3">
         <v>3308.3</v>
       </c>
@@ -19154,10 +19154,10 @@
       <c r="D340" s="3">
         <v>1634</v>
       </c>
-      <c r="E340" s="5">
+      <c r="E340" s="8">
         <v>30</v>
       </c>
-      <c r="F340" s="6"/>
+      <c r="F340" s="9"/>
       <c r="G340" s="3">
         <v>3757.6</v>
       </c>
@@ -19203,10 +19203,10 @@
       <c r="D341" s="3">
         <v>1354</v>
       </c>
-      <c r="E341" s="5">
+      <c r="E341" s="8">
         <v>24</v>
       </c>
-      <c r="F341" s="6"/>
+      <c r="F341" s="9"/>
       <c r="G341" s="3">
         <v>3212.6</v>
       </c>
@@ -19252,10 +19252,10 @@
       <c r="D342" s="3">
         <v>1500</v>
       </c>
-      <c r="E342" s="5">
+      <c r="E342" s="8">
         <v>24</v>
       </c>
-      <c r="F342" s="6"/>
+      <c r="F342" s="9"/>
       <c r="G342" s="3">
         <v>3561.8</v>
       </c>
@@ -19301,10 +19301,10 @@
       <c r="D343" s="3">
         <v>1642</v>
       </c>
-      <c r="E343" s="5">
+      <c r="E343" s="8">
         <v>26</v>
       </c>
-      <c r="F343" s="6"/>
+      <c r="F343" s="9"/>
       <c r="G343" s="3">
         <v>3715</v>
       </c>
@@ -19350,10 +19350,10 @@
       <c r="D344" s="3">
         <v>1639</v>
       </c>
-      <c r="E344" s="5">
+      <c r="E344" s="8">
         <v>24</v>
       </c>
-      <c r="F344" s="6"/>
+      <c r="F344" s="9"/>
       <c r="G344" s="3">
         <v>3666</v>
       </c>
@@ -19399,10 +19399,10 @@
       <c r="D345" s="3">
         <v>1631</v>
       </c>
-      <c r="E345" s="5">
+      <c r="E345" s="8">
         <v>23</v>
       </c>
-      <c r="F345" s="6"/>
+      <c r="F345" s="9"/>
       <c r="G345" s="3">
         <v>3796.5</v>
       </c>
@@ -19448,10 +19448,10 @@
       <c r="D346" s="3">
         <v>1539</v>
       </c>
-      <c r="E346" s="5">
+      <c r="E346" s="8">
         <v>23</v>
       </c>
-      <c r="F346" s="6"/>
+      <c r="F346" s="9"/>
       <c r="G346" s="3">
         <v>3721.3</v>
       </c>
@@ -19497,10 +19497,10 @@
       <c r="D347" s="3">
         <v>1493</v>
       </c>
-      <c r="E347" s="5">
+      <c r="E347" s="8">
         <v>24</v>
       </c>
-      <c r="F347" s="6"/>
+      <c r="F347" s="9"/>
       <c r="G347" s="3">
         <v>3756.1</v>
       </c>
@@ -19546,10 +19546,10 @@
       <c r="D348" s="3">
         <v>1294</v>
       </c>
-      <c r="E348" s="5">
+      <c r="E348" s="8">
         <v>19</v>
       </c>
-      <c r="F348" s="6"/>
+      <c r="F348" s="9"/>
       <c r="G348" s="3">
         <v>3360.9</v>
       </c>
@@ -19595,10 +19595,10 @@
       <c r="D349" s="3">
         <v>1411</v>
       </c>
-      <c r="E349" s="5">
+      <c r="E349" s="8">
         <v>24</v>
       </c>
-      <c r="F349" s="6"/>
+      <c r="F349" s="9"/>
       <c r="G349" s="3">
         <v>3615.3</v>
       </c>
@@ -19644,10 +19644,10 @@
       <c r="D350" s="3">
         <v>1396</v>
       </c>
-      <c r="E350" s="5">
+      <c r="E350" s="8">
         <v>28</v>
       </c>
-      <c r="F350" s="6"/>
+      <c r="F350" s="9"/>
       <c r="G350" s="3">
         <v>3431</v>
       </c>
@@ -19693,10 +19693,10 @@
       <c r="D351" s="3">
         <v>1432</v>
       </c>
-      <c r="E351" s="5">
+      <c r="E351" s="8">
         <v>27</v>
       </c>
-      <c r="F351" s="6"/>
+      <c r="F351" s="9"/>
       <c r="G351" s="3">
         <v>3381.1</v>
       </c>
@@ -19742,10 +19742,10 @@
       <c r="D352" s="3">
         <v>1530</v>
       </c>
-      <c r="E352" s="5">
+      <c r="E352" s="8">
         <v>34</v>
       </c>
-      <c r="F352" s="6"/>
+      <c r="F352" s="9"/>
       <c r="G352" s="3">
         <v>3590.8</v>
       </c>
@@ -19791,10 +19791,10 @@
       <c r="D353" s="3">
         <v>1275</v>
       </c>
-      <c r="E353" s="5">
+      <c r="E353" s="8">
         <v>27</v>
       </c>
-      <c r="F353" s="6"/>
+      <c r="F353" s="9"/>
       <c r="G353" s="3">
         <v>3125.5</v>
       </c>
@@ -19840,10 +19840,10 @@
       <c r="D354" s="3">
         <v>1376</v>
       </c>
-      <c r="E354" s="5">
+      <c r="E354" s="8">
         <v>25</v>
       </c>
-      <c r="F354" s="6"/>
+      <c r="F354" s="9"/>
       <c r="G354" s="3">
         <v>3366.3</v>
       </c>
@@ -19889,10 +19889,10 @@
       <c r="D355" s="3">
         <v>1554</v>
       </c>
-      <c r="E355" s="5">
+      <c r="E355" s="8">
         <v>28</v>
       </c>
-      <c r="F355" s="6"/>
+      <c r="F355" s="9"/>
       <c r="G355" s="3">
         <v>3552.9</v>
       </c>
@@ -19938,10 +19938,10 @@
       <c r="D356" s="3">
         <v>1509</v>
       </c>
-      <c r="E356" s="5">
+      <c r="E356" s="8">
         <v>26</v>
       </c>
-      <c r="F356" s="6"/>
+      <c r="F356" s="9"/>
       <c r="G356" s="3">
         <v>3448.8</v>
       </c>
@@ -19987,10 +19987,10 @@
       <c r="D357" s="3">
         <v>1472</v>
       </c>
-      <c r="E357" s="5">
+      <c r="E357" s="8">
         <v>25</v>
       </c>
-      <c r="F357" s="6"/>
+      <c r="F357" s="9"/>
       <c r="G357" s="3">
         <v>3499.9</v>
       </c>
@@ -20036,10 +20036,10 @@
       <c r="D358" s="3">
         <v>1440</v>
       </c>
-      <c r="E358" s="5">
+      <c r="E358" s="8">
         <v>27</v>
       </c>
-      <c r="F358" s="6"/>
+      <c r="F358" s="9"/>
       <c r="G358" s="3">
         <v>3515.1</v>
       </c>
@@ -20085,10 +20085,10 @@
       <c r="D359" s="3">
         <v>1389</v>
       </c>
-      <c r="E359" s="5">
+      <c r="E359" s="8">
         <v>27</v>
       </c>
-      <c r="F359" s="6"/>
+      <c r="F359" s="9"/>
       <c r="G359" s="3">
         <v>3504.3</v>
       </c>
@@ -20134,10 +20134,10 @@
       <c r="D360" s="3">
         <v>1311</v>
       </c>
-      <c r="E360" s="5">
+      <c r="E360" s="8">
         <v>26</v>
       </c>
-      <c r="F360" s="6"/>
+      <c r="F360" s="9"/>
       <c r="G360" s="3">
         <v>3342.5</v>
       </c>
@@ -20183,10 +20183,10 @@
       <c r="D361" s="3">
         <v>1377</v>
       </c>
-      <c r="E361" s="5">
+      <c r="E361" s="8">
         <v>31</v>
       </c>
-      <c r="F361" s="6"/>
+      <c r="F361" s="9"/>
       <c r="G361" s="3">
         <v>3481</v>
       </c>
@@ -20232,10 +20232,10 @@
       <c r="D362" s="3">
         <v>1309</v>
       </c>
-      <c r="E362" s="5">
+      <c r="E362" s="8">
         <v>27</v>
       </c>
-      <c r="F362" s="6"/>
+      <c r="F362" s="9"/>
       <c r="G362" s="3">
         <v>3212</v>
       </c>
@@ -20281,10 +20281,10 @@
       <c r="D363" s="3">
         <v>1465</v>
       </c>
-      <c r="E363" s="5">
+      <c r="E363" s="8">
         <v>30</v>
       </c>
-      <c r="F363" s="6"/>
+      <c r="F363" s="9"/>
       <c r="G363" s="3">
         <v>3299.4</v>
       </c>
@@ -20330,10 +20330,10 @@
       <c r="D364" s="3">
         <v>1480</v>
       </c>
-      <c r="E364" s="5">
+      <c r="E364" s="8">
         <v>32</v>
       </c>
-      <c r="F364" s="6"/>
+      <c r="F364" s="9"/>
       <c r="G364" s="3">
         <v>3395.6</v>
       </c>
@@ -20379,10 +20379,10 @@
       <c r="D365" s="3">
         <v>1289</v>
       </c>
-      <c r="E365" s="5">
+      <c r="E365" s="8">
         <v>25</v>
       </c>
-      <c r="F365" s="6"/>
+      <c r="F365" s="9"/>
       <c r="G365" s="3">
         <v>3012.5</v>
       </c>
@@ -20428,10 +20428,10 @@
       <c r="D366" s="3">
         <v>1435</v>
       </c>
-      <c r="E366" s="5">
+      <c r="E366" s="8">
         <v>25</v>
       </c>
-      <c r="F366" s="6"/>
+      <c r="F366" s="9"/>
       <c r="G366" s="3">
         <v>3304.4</v>
       </c>
@@ -20477,10 +20477,10 @@
       <c r="D367" s="3">
         <v>1524</v>
       </c>
-      <c r="E367" s="5">
+      <c r="E367" s="8">
         <v>29</v>
       </c>
-      <c r="F367" s="6"/>
+      <c r="F367" s="9"/>
       <c r="G367" s="3">
         <v>3434.6</v>
       </c>
@@ -20526,10 +20526,10 @@
       <c r="D368" s="3">
         <v>1455</v>
       </c>
-      <c r="E368" s="5">
+      <c r="E368" s="8">
         <v>27</v>
       </c>
-      <c r="F368" s="6"/>
+      <c r="F368" s="9"/>
       <c r="G368" s="3">
         <v>3288.4</v>
       </c>
@@ -20575,10 +20575,10 @@
       <c r="D369" s="3">
         <v>1588</v>
       </c>
-      <c r="E369" s="5">
+      <c r="E369" s="8">
         <v>29</v>
       </c>
-      <c r="F369" s="6"/>
+      <c r="F369" s="9"/>
       <c r="G369" s="3">
         <v>3656.1</v>
       </c>
@@ -20624,10 +20624,10 @@
       <c r="D370" s="3">
         <v>1511</v>
       </c>
-      <c r="E370" s="5">
+      <c r="E370" s="8">
         <v>30</v>
       </c>
-      <c r="F370" s="6"/>
+      <c r="F370" s="9"/>
       <c r="G370" s="3">
         <v>3560.3</v>
       </c>
@@ -20673,10 +20673,10 @@
       <c r="D371" s="3">
         <v>1378</v>
       </c>
-      <c r="E371" s="5">
+      <c r="E371" s="8">
         <v>25</v>
       </c>
-      <c r="F371" s="6"/>
+      <c r="F371" s="9"/>
       <c r="G371" s="3">
         <v>3406.3</v>
       </c>
@@ -20722,10 +20722,10 @@
       <c r="D372" s="3">
         <v>1375</v>
       </c>
-      <c r="E372" s="5">
+      <c r="E372" s="8">
         <v>27</v>
       </c>
-      <c r="F372" s="6"/>
+      <c r="F372" s="9"/>
       <c r="G372" s="3">
         <v>3441.8</v>
       </c>
@@ -20771,10 +20771,10 @@
       <c r="D373" s="3">
         <v>1332</v>
       </c>
-      <c r="E373" s="5">
+      <c r="E373" s="8">
         <v>27</v>
       </c>
-      <c r="F373" s="6"/>
+      <c r="F373" s="9"/>
       <c r="G373" s="3">
         <v>3422.9</v>
       </c>
@@ -20820,10 +20820,10 @@
       <c r="D374" s="3">
         <v>1287</v>
       </c>
-      <c r="E374" s="5">
+      <c r="E374" s="8">
         <v>25</v>
       </c>
-      <c r="F374" s="6"/>
+      <c r="F374" s="9"/>
       <c r="G374" s="3">
         <v>3236.4</v>
       </c>
@@ -20869,10 +20869,10 @@
       <c r="D375" s="3">
         <v>1414</v>
       </c>
-      <c r="E375" s="5">
+      <c r="E375" s="8">
         <v>33</v>
       </c>
-      <c r="F375" s="6"/>
+      <c r="F375" s="9"/>
       <c r="G375" s="3">
         <v>3259</v>
       </c>
@@ -20918,10 +20918,10 @@
       <c r="D376" s="3">
         <v>1467</v>
       </c>
-      <c r="E376" s="5">
+      <c r="E376" s="8">
         <v>32</v>
       </c>
-      <c r="F376" s="6"/>
+      <c r="F376" s="9"/>
       <c r="G376" s="3">
         <v>3377.5</v>
       </c>
@@ -20967,10 +20967,10 @@
       <c r="D377" s="3">
         <v>1329</v>
       </c>
-      <c r="E377" s="5">
+      <c r="E377" s="8">
         <v>28</v>
       </c>
-      <c r="F377" s="6"/>
+      <c r="F377" s="9"/>
       <c r="G377" s="3">
         <v>3089.4</v>
       </c>
@@ -21016,10 +21016,10 @@
       <c r="D378" s="3">
         <v>1525</v>
       </c>
-      <c r="E378" s="5">
+      <c r="E378" s="8">
         <v>31</v>
       </c>
-      <c r="F378" s="6"/>
+      <c r="F378" s="9"/>
       <c r="G378" s="3">
         <v>3623.1</v>
       </c>
@@ -21065,10 +21065,10 @@
       <c r="D379" s="3">
         <v>1444</v>
       </c>
-      <c r="E379" s="5">
+      <c r="E379" s="8">
         <v>31</v>
       </c>
-      <c r="F379" s="6"/>
+      <c r="F379" s="9"/>
       <c r="G379" s="3">
         <v>3284</v>
       </c>
@@ -21114,10 +21114,10 @@
       <c r="D380" s="3">
         <v>1456</v>
       </c>
-      <c r="E380" s="5">
+      <c r="E380" s="8">
         <v>29</v>
       </c>
-      <c r="F380" s="6"/>
+      <c r="F380" s="9"/>
       <c r="G380" s="3">
         <v>3324.2</v>
       </c>
@@ -21163,10 +21163,10 @@
       <c r="D381" s="3">
         <v>1534</v>
       </c>
-      <c r="E381" s="5">
+      <c r="E381" s="8">
         <v>32</v>
       </c>
-      <c r="F381" s="6"/>
+      <c r="F381" s="9"/>
       <c r="G381" s="3">
         <v>3707.7</v>
       </c>
@@ -21212,10 +21212,10 @@
       <c r="D382" s="3">
         <v>1316</v>
       </c>
-      <c r="E382" s="5">
+      <c r="E382" s="8">
         <v>28</v>
       </c>
-      <c r="F382" s="6"/>
+      <c r="F382" s="9"/>
       <c r="G382" s="3">
         <v>3307.6</v>
       </c>
@@ -21261,10 +21261,10 @@
       <c r="D383" s="3">
         <v>1299</v>
       </c>
-      <c r="E383" s="5">
+      <c r="E383" s="8">
         <v>27</v>
       </c>
-      <c r="F383" s="6"/>
+      <c r="F383" s="9"/>
       <c r="G383" s="3">
         <v>3425.3</v>
       </c>
@@ -21310,10 +21310,10 @@
       <c r="D384" s="3">
         <v>1207</v>
       </c>
-      <c r="E384" s="5">
+      <c r="E384" s="8">
         <v>28</v>
       </c>
-      <c r="F384" s="6"/>
+      <c r="F384" s="9"/>
       <c r="G384" s="3">
         <v>3253.3</v>
       </c>
@@ -21359,10 +21359,10 @@
       <c r="D385" s="3">
         <v>1140</v>
       </c>
-      <c r="E385" s="5">
+      <c r="E385" s="8">
         <v>25</v>
       </c>
-      <c r="F385" s="6"/>
+      <c r="F385" s="9"/>
       <c r="G385" s="3">
         <v>3059.7</v>
       </c>
@@ -21408,10 +21408,10 @@
       <c r="D386" s="3">
         <v>1291</v>
       </c>
-      <c r="E386" s="5">
+      <c r="E386" s="8">
         <v>30</v>
       </c>
-      <c r="F386" s="6"/>
+      <c r="F386" s="9"/>
       <c r="G386" s="3">
         <v>3290.7</v>
       </c>
@@ -21457,10 +21457,10 @@
       <c r="D387" s="3">
         <v>1361</v>
       </c>
-      <c r="E387" s="5">
+      <c r="E387" s="8">
         <v>29</v>
       </c>
-      <c r="F387" s="6"/>
+      <c r="F387" s="9"/>
       <c r="G387" s="3">
         <v>3285.3</v>
       </c>
@@ -21506,10 +21506,10 @@
       <c r="D388" s="3">
         <v>1300</v>
       </c>
-      <c r="E388" s="5">
+      <c r="E388" s="8">
         <v>36</v>
       </c>
-      <c r="F388" s="6"/>
+      <c r="F388" s="9"/>
       <c r="G388" s="3">
         <v>3081.3</v>
       </c>
@@ -21555,10 +21555,10 @@
       <c r="D389" s="3">
         <v>1204</v>
       </c>
-      <c r="E389" s="5">
+      <c r="E389" s="8">
         <v>30</v>
       </c>
-      <c r="F389" s="6"/>
+      <c r="F389" s="9"/>
       <c r="G389" s="3">
         <v>2953.7</v>
       </c>
@@ -21604,10 +21604,10 @@
       <c r="D390" s="3">
         <v>1396</v>
       </c>
-      <c r="E390" s="5">
+      <c r="E390" s="8">
         <v>33</v>
       </c>
-      <c r="F390" s="6"/>
+      <c r="F390" s="9"/>
       <c r="G390" s="3">
         <v>3428.7</v>
       </c>
@@ -21653,10 +21653,10 @@
       <c r="D391" s="3">
         <v>1342</v>
       </c>
-      <c r="E391" s="5">
+      <c r="E391" s="8">
         <v>30</v>
       </c>
-      <c r="F391" s="6"/>
+      <c r="F391" s="9"/>
       <c r="G391" s="3">
         <v>3079.7</v>
       </c>
@@ -21702,10 +21702,10 @@
       <c r="D392" s="3">
         <v>1373</v>
       </c>
-      <c r="E392" s="5">
+      <c r="E392" s="8">
         <v>30</v>
       </c>
-      <c r="F392" s="6"/>
+      <c r="F392" s="9"/>
       <c r="G392" s="3">
         <v>3273.4</v>
       </c>
@@ -21751,10 +21751,10 @@
       <c r="D393" s="3">
         <v>1392</v>
       </c>
-      <c r="E393" s="5">
+      <c r="E393" s="8">
         <v>32</v>
       </c>
-      <c r="F393" s="6"/>
+      <c r="F393" s="9"/>
       <c r="G393" s="3">
         <v>3498.2</v>
       </c>
@@ -21800,10 +21800,10 @@
       <c r="D394" s="3">
         <v>1228</v>
       </c>
-      <c r="E394" s="5">
+      <c r="E394" s="8">
         <v>27</v>
       </c>
-      <c r="F394" s="6"/>
+      <c r="F394" s="9"/>
       <c r="G394" s="3">
         <v>3095.4</v>
       </c>
@@ -21849,10 +21849,10 @@
       <c r="D395" s="3">
         <v>1310</v>
       </c>
-      <c r="E395" s="5">
+      <c r="E395" s="8">
         <v>30</v>
       </c>
-      <c r="F395" s="6"/>
+      <c r="F395" s="9"/>
       <c r="G395" s="3">
         <v>3429.5</v>
       </c>
@@ -21898,10 +21898,10 @@
       <c r="D396" s="3">
         <v>1103</v>
       </c>
-      <c r="E396" s="5">
+      <c r="E396" s="8">
         <v>27</v>
       </c>
-      <c r="F396" s="6"/>
+      <c r="F396" s="9"/>
       <c r="G396" s="3">
         <v>3100.9</v>
       </c>
@@ -21947,10 +21947,10 @@
       <c r="D397" s="3">
         <v>1142</v>
       </c>
-      <c r="E397" s="5">
+      <c r="E397" s="8">
         <v>27</v>
       </c>
-      <c r="F397" s="6"/>
+      <c r="F397" s="9"/>
       <c r="G397" s="3">
         <v>3175.1</v>
       </c>
@@ -21996,10 +21996,10 @@
       <c r="D398" s="3">
         <v>1257</v>
       </c>
-      <c r="E398" s="5">
+      <c r="E398" s="8">
         <v>31</v>
       </c>
-      <c r="F398" s="6"/>
+      <c r="F398" s="9"/>
       <c r="G398" s="3">
         <v>3320.5</v>
       </c>
@@ -22045,10 +22045,10 @@
       <c r="D399" s="3">
         <v>1248</v>
       </c>
-      <c r="E399" s="5">
+      <c r="E399" s="8">
         <v>31</v>
       </c>
-      <c r="F399" s="6"/>
+      <c r="F399" s="9"/>
       <c r="G399" s="3">
         <v>3048.9</v>
       </c>
@@ -22094,10 +22094,10 @@
       <c r="D400" s="3">
         <v>1329</v>
       </c>
-      <c r="E400" s="5">
+      <c r="E400" s="8">
         <v>32</v>
       </c>
-      <c r="F400" s="6"/>
+      <c r="F400" s="9"/>
       <c r="G400" s="3">
         <v>3258.8</v>
       </c>
@@ -22143,10 +22143,10 @@
       <c r="D401" s="3">
         <v>1213</v>
       </c>
-      <c r="E401" s="5">
+      <c r="E401" s="8">
         <v>29</v>
       </c>
-      <c r="F401" s="6"/>
+      <c r="F401" s="9"/>
       <c r="G401" s="3">
         <v>2971.2</v>
       </c>
@@ -22192,10 +22192,10 @@
       <c r="D402" s="3">
         <v>1363</v>
       </c>
-      <c r="E402" s="5">
+      <c r="E402" s="8">
         <v>32</v>
       </c>
-      <c r="F402" s="6"/>
+      <c r="F402" s="9"/>
       <c r="G402" s="3">
         <v>3354.6</v>
       </c>
@@ -22241,10 +22241,10 @@
       <c r="D403" s="3">
         <v>1288</v>
       </c>
-      <c r="E403" s="5">
+      <c r="E403" s="8">
         <v>31</v>
       </c>
-      <c r="F403" s="6"/>
+      <c r="F403" s="9"/>
       <c r="G403" s="3">
         <v>3170.8</v>
       </c>
@@ -22290,10 +22290,10 @@
       <c r="D404" s="3">
         <v>1446</v>
       </c>
-      <c r="E404" s="5">
+      <c r="E404" s="8">
         <v>31</v>
       </c>
-      <c r="F404" s="6"/>
+      <c r="F404" s="9"/>
       <c r="G404" s="3">
         <v>3410.8</v>
       </c>
@@ -22339,10 +22339,10 @@
       <c r="D405" s="3">
         <v>1421</v>
       </c>
-      <c r="E405" s="5">
+      <c r="E405" s="8">
         <v>30</v>
       </c>
-      <c r="F405" s="6"/>
+      <c r="F405" s="9"/>
       <c r="G405" s="3">
         <v>3523.9</v>
       </c>
@@ -22388,10 +22388,10 @@
       <c r="D406" s="3">
         <v>1349</v>
       </c>
-      <c r="E406" s="5">
+      <c r="E406" s="8">
         <v>27</v>
       </c>
-      <c r="F406" s="6"/>
+      <c r="F406" s="9"/>
       <c r="G406" s="3">
         <v>3317.3</v>
       </c>
@@ -22437,10 +22437,10 @@
       <c r="D407" s="3">
         <v>1333</v>
       </c>
-      <c r="E407" s="5">
+      <c r="E407" s="8">
         <v>29</v>
       </c>
-      <c r="F407" s="6"/>
+      <c r="F407" s="9"/>
       <c r="G407" s="3">
         <v>3483.5</v>
       </c>
@@ -22486,10 +22486,10 @@
       <c r="D408" s="3">
         <v>1108</v>
       </c>
-      <c r="E408" s="5">
+      <c r="E408" s="8">
         <v>25</v>
       </c>
-      <c r="F408" s="6"/>
+      <c r="F408" s="9"/>
       <c r="G408" s="3">
         <v>3047.9</v>
       </c>
@@ -22535,10 +22535,10 @@
       <c r="D409" s="3">
         <v>1266</v>
       </c>
-      <c r="E409" s="5">
+      <c r="E409" s="8">
         <v>26</v>
       </c>
-      <c r="F409" s="6"/>
+      <c r="F409" s="9"/>
       <c r="G409" s="3">
         <v>3342</v>
       </c>
@@ -22584,10 +22584,10 @@
       <c r="D410" s="3">
         <v>1341</v>
       </c>
-      <c r="E410" s="5">
+      <c r="E410" s="8">
         <v>28</v>
       </c>
-      <c r="F410" s="6"/>
+      <c r="F410" s="9"/>
       <c r="G410" s="3">
         <v>3396.9</v>
       </c>
@@ -22633,10 +22633,10 @@
       <c r="D411" s="3">
         <v>1322</v>
       </c>
-      <c r="E411" s="5">
+      <c r="E411" s="8">
         <v>26</v>
       </c>
-      <c r="F411" s="6"/>
+      <c r="F411" s="9"/>
       <c r="G411" s="3">
         <v>3131</v>
       </c>
@@ -22682,10 +22682,10 @@
       <c r="D412" s="3">
         <v>1373</v>
       </c>
-      <c r="E412" s="5">
+      <c r="E412" s="8">
         <v>34</v>
       </c>
-      <c r="F412" s="6"/>
+      <c r="F412" s="9"/>
       <c r="G412" s="3">
         <v>3324.9</v>
       </c>
@@ -22731,10 +22731,10 @@
       <c r="D413" s="3">
         <v>1205</v>
       </c>
-      <c r="E413" s="5">
+      <c r="E413" s="8">
         <v>27</v>
       </c>
-      <c r="F413" s="6"/>
+      <c r="F413" s="9"/>
       <c r="G413" s="3">
         <v>3004.3</v>
       </c>
@@ -22780,10 +22780,10 @@
       <c r="D414" s="3">
         <v>1307</v>
       </c>
-      <c r="E414" s="5">
+      <c r="E414" s="8">
         <v>27</v>
       </c>
-      <c r="F414" s="6"/>
+      <c r="F414" s="9"/>
       <c r="G414" s="3">
         <v>3265.3</v>
       </c>
@@ -22829,10 +22829,10 @@
       <c r="D415" s="3">
         <v>1425</v>
       </c>
-      <c r="E415" s="5">
+      <c r="E415" s="8">
         <v>29</v>
       </c>
-      <c r="F415" s="6"/>
+      <c r="F415" s="9"/>
       <c r="G415" s="3">
         <v>3358</v>
       </c>
@@ -22878,10 +22878,10 @@
       <c r="D416" s="3">
         <v>1463</v>
       </c>
-      <c r="E416" s="5">
+      <c r="E416" s="8">
         <v>27</v>
       </c>
-      <c r="F416" s="6"/>
+      <c r="F416" s="9"/>
       <c r="G416" s="3">
         <v>3398.5</v>
       </c>
@@ -22927,10 +22927,10 @@
       <c r="D417" s="3">
         <v>1443</v>
       </c>
-      <c r="E417" s="5">
+      <c r="E417" s="8">
         <v>28</v>
       </c>
-      <c r="F417" s="6"/>
+      <c r="F417" s="9"/>
       <c r="G417" s="3">
         <v>3511.1</v>
       </c>
@@ -22976,10 +22976,10 @@
       <c r="D418" s="3">
         <v>1360</v>
       </c>
-      <c r="E418" s="5">
+      <c r="E418" s="8">
         <v>28</v>
       </c>
-      <c r="F418" s="6"/>
+      <c r="F418" s="9"/>
       <c r="G418" s="3">
         <v>3462.2</v>
       </c>
@@ -23025,10 +23025,10 @@
       <c r="D419" s="3">
         <v>1282</v>
       </c>
-      <c r="E419" s="5">
+      <c r="E419" s="8">
         <v>28</v>
       </c>
-      <c r="F419" s="6"/>
+      <c r="F419" s="9"/>
       <c r="G419" s="3">
         <v>3506.8</v>
       </c>
@@ -23074,10 +23074,10 @@
       <c r="D420" s="3">
         <v>1133</v>
       </c>
-      <c r="E420" s="5">
+      <c r="E420" s="8">
         <v>24</v>
       </c>
-      <c r="F420" s="6"/>
+      <c r="F420" s="9"/>
       <c r="G420" s="3">
         <v>3171.1</v>
       </c>
@@ -23123,10 +23123,10 @@
       <c r="D421" s="3">
         <v>1233</v>
       </c>
-      <c r="E421" s="5">
+      <c r="E421" s="8">
         <v>27</v>
       </c>
-      <c r="F421" s="6"/>
+      <c r="F421" s="9"/>
       <c r="G421" s="3">
         <v>3318</v>
       </c>
@@ -23172,10 +23172,10 @@
       <c r="D422" s="3">
         <v>1231</v>
       </c>
-      <c r="E422" s="5">
+      <c r="E422" s="8">
         <v>27</v>
       </c>
-      <c r="F422" s="6"/>
+      <c r="F422" s="9"/>
       <c r="G422" s="3">
         <v>3206.3</v>
       </c>
@@ -23221,10 +23221,10 @@
       <c r="D423" s="3">
         <v>1263</v>
       </c>
-      <c r="E423" s="5">
+      <c r="E423" s="8">
         <v>26</v>
       </c>
-      <c r="F423" s="6"/>
+      <c r="F423" s="9"/>
       <c r="G423" s="3">
         <v>3157.9</v>
       </c>
@@ -23270,10 +23270,10 @@
       <c r="D424" s="3">
         <v>1362</v>
       </c>
-      <c r="E424" s="5">
+      <c r="E424" s="8">
         <v>35</v>
       </c>
-      <c r="F424" s="6"/>
+      <c r="F424" s="9"/>
       <c r="G424" s="3">
         <v>3355.8</v>
       </c>
@@ -23319,10 +23319,10 @@
       <c r="D425" s="3">
         <v>1184</v>
       </c>
-      <c r="E425" s="5">
+      <c r="E425" s="8">
         <v>26</v>
       </c>
-      <c r="F425" s="6"/>
+      <c r="F425" s="9"/>
       <c r="G425" s="3">
         <v>3071.5</v>
       </c>
@@ -23368,10 +23368,10 @@
       <c r="D426" s="3">
         <v>1244</v>
       </c>
-      <c r="E426" s="5">
+      <c r="E426" s="8">
         <v>24</v>
       </c>
-      <c r="F426" s="6"/>
+      <c r="F426" s="9"/>
       <c r="G426" s="3">
         <v>3245.4</v>
       </c>
@@ -23417,10 +23417,10 @@
       <c r="D427" s="3">
         <v>1390</v>
       </c>
-      <c r="E427" s="5">
+      <c r="E427" s="8">
         <v>28</v>
       </c>
-      <c r="F427" s="6"/>
+      <c r="F427" s="9"/>
       <c r="G427" s="3">
         <v>3378.4</v>
       </c>
@@ -23466,10 +23466,10 @@
       <c r="D428" s="3">
         <v>1312</v>
       </c>
-      <c r="E428" s="5">
+      <c r="E428" s="8">
         <v>25</v>
       </c>
-      <c r="F428" s="6"/>
+      <c r="F428" s="9"/>
       <c r="G428" s="3">
         <v>3197</v>
       </c>
@@ -23515,10 +23515,10 @@
       <c r="D429" s="3">
         <v>1359</v>
       </c>
-      <c r="E429" s="5">
+      <c r="E429" s="8">
         <v>28</v>
       </c>
-      <c r="F429" s="6"/>
+      <c r="F429" s="9"/>
       <c r="G429" s="3">
         <v>3521.2</v>
       </c>
@@ -23564,10 +23564,10 @@
       <c r="D430" s="3">
         <v>1227</v>
       </c>
-      <c r="E430" s="5">
+      <c r="E430" s="8">
         <v>28</v>
       </c>
-      <c r="F430" s="6"/>
+      <c r="F430" s="9"/>
       <c r="G430" s="3">
         <v>3331</v>
       </c>
@@ -23613,10 +23613,10 @@
       <c r="D431" s="3">
         <v>1075</v>
       </c>
-      <c r="E431" s="5">
+      <c r="E431" s="8">
         <v>24</v>
       </c>
-      <c r="F431" s="6"/>
+      <c r="F431" s="9"/>
       <c r="G431" s="3">
         <v>3135.2</v>
       </c>
@@ -23662,10 +23662,10 @@
       <c r="D432" s="3">
         <v>1082</v>
       </c>
-      <c r="E432" s="5">
+      <c r="E432" s="8">
         <v>25</v>
       </c>
-      <c r="F432" s="6"/>
+      <c r="F432" s="9"/>
       <c r="G432" s="3">
         <v>3158.3</v>
       </c>
@@ -23711,10 +23711,10 @@
       <c r="D433" s="3">
         <v>1086</v>
       </c>
-      <c r="E433" s="5">
+      <c r="E433" s="8">
         <v>24</v>
       </c>
-      <c r="F433" s="6"/>
+      <c r="F433" s="9"/>
       <c r="G433" s="3">
         <v>3102.8</v>
       </c>
@@ -23760,10 +23760,10 @@
       <c r="D434" s="3">
         <v>1071</v>
       </c>
-      <c r="E434" s="5">
+      <c r="E434" s="8">
         <v>22</v>
       </c>
-      <c r="F434" s="6"/>
+      <c r="F434" s="9"/>
       <c r="G434" s="3">
         <v>2975.3</v>
       </c>
@@ -23809,10 +23809,10 @@
       <c r="D435" s="3">
         <v>1170</v>
       </c>
-      <c r="E435" s="5">
+      <c r="E435" s="8">
         <v>29</v>
       </c>
-      <c r="F435" s="6"/>
+      <c r="F435" s="9"/>
       <c r="G435" s="3">
         <v>3160.1</v>
       </c>
@@ -23858,10 +23858,10 @@
       <c r="D436" s="3">
         <v>1226</v>
       </c>
-      <c r="E436" s="5">
+      <c r="E436" s="8">
         <v>27</v>
       </c>
-      <c r="F436" s="6"/>
+      <c r="F436" s="9"/>
       <c r="G436" s="3">
         <v>3197.5</v>
       </c>
@@ -23907,10 +23907,10 @@
       <c r="D437" s="3">
         <v>1070</v>
       </c>
-      <c r="E437" s="5">
+      <c r="E437" s="8">
         <v>24</v>
       </c>
-      <c r="F437" s="6"/>
+      <c r="F437" s="9"/>
       <c r="G437" s="3">
         <v>2874.9</v>
       </c>
@@ -23956,10 +23956,10 @@
       <c r="D438" s="3">
         <v>1244</v>
       </c>
-      <c r="E438" s="5">
+      <c r="E438" s="8">
         <v>25</v>
       </c>
-      <c r="F438" s="6"/>
+      <c r="F438" s="9"/>
       <c r="G438" s="3">
         <v>3410.8</v>
       </c>
@@ -24005,10 +24005,10 @@
       <c r="D439" s="3">
         <v>1221</v>
       </c>
-      <c r="E439" s="5">
+      <c r="E439" s="8">
         <v>28</v>
       </c>
-      <c r="F439" s="6"/>
+      <c r="F439" s="9"/>
       <c r="G439" s="3">
         <v>3260.9</v>
       </c>
@@ -24054,10 +24054,10 @@
       <c r="D440" s="3">
         <v>1117</v>
       </c>
-      <c r="E440" s="5">
+      <c r="E440" s="8">
         <v>24</v>
       </c>
-      <c r="F440" s="6"/>
+      <c r="F440" s="9"/>
       <c r="G440" s="3">
         <v>2985.9</v>
       </c>
@@ -24103,10 +24103,10 @@
       <c r="D441" s="3">
         <v>1285</v>
       </c>
-      <c r="E441" s="5">
+      <c r="E441" s="8">
         <v>30</v>
       </c>
-      <c r="F441" s="6"/>
+      <c r="F441" s="9"/>
       <c r="G441" s="3">
         <v>3505.8</v>
       </c>
@@ -24152,10 +24152,10 @@
       <c r="D442" s="3">
         <v>1137</v>
       </c>
-      <c r="E442" s="5">
+      <c r="E442" s="8">
         <v>30</v>
       </c>
-      <c r="F442" s="6"/>
+      <c r="F442" s="9"/>
       <c r="G442" s="3">
         <v>3258.9</v>
       </c>
@@ -24201,10 +24201,10 @@
       <c r="D443" s="3">
         <v>1037</v>
       </c>
-      <c r="E443" s="5">
+      <c r="E443" s="8">
         <v>25</v>
       </c>
-      <c r="F443" s="6"/>
+      <c r="F443" s="9"/>
       <c r="G443" s="3">
         <v>3179.6</v>
       </c>
@@ -24250,10 +24250,10 @@
       <c r="D444" s="3">
         <v>1063</v>
       </c>
-      <c r="E444" s="5">
+      <c r="E444" s="8">
         <v>26</v>
       </c>
-      <c r="F444" s="6"/>
+      <c r="F444" s="9"/>
       <c r="G444" s="3">
         <v>3281.3</v>
       </c>
@@ -24299,10 +24299,10 @@
       <c r="D445" s="3">
         <v>1065</v>
       </c>
-      <c r="E445" s="5">
+      <c r="E445" s="8">
         <v>24</v>
       </c>
-      <c r="F445" s="6"/>
+      <c r="F445" s="9"/>
       <c r="G445" s="3">
         <v>3156.3</v>
       </c>
@@ -24348,10 +24348,10 @@
       <c r="D446" s="3">
         <v>1211</v>
       </c>
-      <c r="E446" s="5">
+      <c r="E446" s="8">
         <v>25</v>
       </c>
-      <c r="F446" s="6"/>
+      <c r="F446" s="9"/>
       <c r="G446" s="3">
         <v>3387.7</v>
       </c>
@@ -24397,10 +24397,10 @@
       <c r="D447" s="3">
         <v>1292</v>
       </c>
-      <c r="E447" s="5">
+      <c r="E447" s="8">
         <v>29</v>
       </c>
-      <c r="F447" s="6"/>
+      <c r="F447" s="9"/>
       <c r="G447" s="3">
         <v>3477</v>
       </c>
@@ -24446,10 +24446,10 @@
       <c r="D448" s="3">
         <v>1198</v>
       </c>
-      <c r="E448" s="5">
+      <c r="E448" s="8">
         <v>32</v>
       </c>
-      <c r="F448" s="6"/>
+      <c r="F448" s="9"/>
       <c r="G448" s="3">
         <v>3133.4</v>
       </c>
@@ -24495,10 +24495,10 @@
       <c r="D449" s="3">
         <v>1106</v>
       </c>
-      <c r="E449" s="5">
+      <c r="E449" s="8">
         <v>27</v>
       </c>
-      <c r="F449" s="6"/>
+      <c r="F449" s="9"/>
       <c r="G449" s="3">
         <v>2941.6</v>
       </c>
@@ -24544,10 +24544,10 @@
       <c r="D450" s="3">
         <v>1266</v>
       </c>
-      <c r="E450" s="5">
+      <c r="E450" s="8">
         <v>31</v>
       </c>
-      <c r="F450" s="6"/>
+      <c r="F450" s="9"/>
       <c r="G450" s="3">
         <v>3481.9</v>
       </c>
@@ -24593,10 +24593,10 @@
       <c r="D451" s="3">
         <v>1215</v>
       </c>
-      <c r="E451" s="5">
+      <c r="E451" s="8">
         <v>30</v>
       </c>
-      <c r="F451" s="6"/>
+      <c r="F451" s="9"/>
       <c r="G451" s="3">
         <v>3145.4</v>
       </c>
@@ -24642,10 +24642,10 @@
       <c r="D452" s="3">
         <v>1241</v>
       </c>
-      <c r="E452" s="5">
+      <c r="E452" s="8">
         <v>28</v>
       </c>
-      <c r="F452" s="6"/>
+      <c r="F452" s="9"/>
       <c r="G452" s="3">
         <v>3123</v>
       </c>
@@ -24691,10 +24691,10 @@
       <c r="D453" s="3">
         <v>1358</v>
       </c>
-      <c r="E453" s="5">
+      <c r="E453" s="8">
         <v>33</v>
       </c>
-      <c r="F453" s="6"/>
+      <c r="F453" s="9"/>
       <c r="G453" s="3">
         <v>3544</v>
       </c>
@@ -24740,10 +24740,10 @@
       <c r="D454" s="3">
         <v>1196</v>
       </c>
-      <c r="E454" s="5">
+      <c r="E454" s="8">
         <v>28</v>
       </c>
-      <c r="F454" s="6"/>
+      <c r="F454" s="9"/>
       <c r="G454" s="3">
         <v>3251.6</v>
       </c>
@@ -24789,10 +24789,10 @@
       <c r="D455" s="3">
         <v>1210</v>
       </c>
-      <c r="E455" s="5">
+      <c r="E455" s="8">
         <v>29</v>
       </c>
-      <c r="F455" s="6"/>
+      <c r="F455" s="9"/>
       <c r="G455" s="3">
         <v>3402</v>
       </c>
@@ -24838,10 +24838,10 @@
       <c r="D456" s="3">
         <v>1147</v>
       </c>
-      <c r="E456" s="5">
+      <c r="E456" s="8">
         <v>28</v>
       </c>
-      <c r="F456" s="6"/>
+      <c r="F456" s="9"/>
       <c r="G456" s="3">
         <v>3276.7</v>
       </c>
@@ -24887,10 +24887,10 @@
       <c r="D457" s="3">
         <v>1125</v>
       </c>
-      <c r="E457" s="5">
+      <c r="E457" s="8">
         <v>24</v>
       </c>
-      <c r="F457" s="6"/>
+      <c r="F457" s="9"/>
       <c r="G457" s="3">
         <v>3084.6</v>
       </c>
@@ -24936,10 +24936,10 @@
       <c r="D458" s="3">
         <v>1329</v>
       </c>
-      <c r="E458" s="5">
+      <c r="E458" s="8">
         <v>29</v>
       </c>
-      <c r="F458" s="6"/>
+      <c r="F458" s="9"/>
       <c r="G458" s="3">
         <v>3487.9</v>
       </c>
@@ -24985,10 +24985,10 @@
       <c r="D459" s="3">
         <v>1289</v>
       </c>
-      <c r="E459" s="5">
+      <c r="E459" s="8">
         <v>30</v>
       </c>
-      <c r="F459" s="6"/>
+      <c r="F459" s="9"/>
       <c r="G459" s="3">
         <v>3295.1</v>
       </c>
@@ -25034,10 +25034,10 @@
       <c r="D460" s="3">
         <v>1232</v>
       </c>
-      <c r="E460" s="5">
+      <c r="E460" s="8">
         <v>33</v>
       </c>
-      <c r="F460" s="6"/>
+      <c r="F460" s="9"/>
       <c r="G460" s="3">
         <v>3162.1</v>
       </c>
@@ -25083,10 +25083,10 @@
       <c r="D461" s="3">
         <v>1105</v>
       </c>
-      <c r="E461" s="5">
+      <c r="E461" s="8">
         <v>28</v>
       </c>
-      <c r="F461" s="6"/>
+      <c r="F461" s="9"/>
       <c r="G461" s="3">
         <v>2938.3</v>
       </c>
@@ -25132,10 +25132,10 @@
       <c r="D462" s="3">
         <v>1281</v>
       </c>
-      <c r="E462" s="5">
+      <c r="E462" s="8">
         <v>32</v>
       </c>
-      <c r="F462" s="6"/>
+      <c r="F462" s="9"/>
       <c r="G462" s="3">
         <v>3420.5</v>
       </c>
@@ -25181,10 +25181,10 @@
       <c r="D463" s="3">
         <v>1220</v>
       </c>
-      <c r="E463" s="5">
+      <c r="E463" s="8">
         <v>30</v>
       </c>
-      <c r="F463" s="6"/>
+      <c r="F463" s="9"/>
       <c r="G463" s="3">
         <v>3119</v>
       </c>
@@ -25230,10 +25230,10 @@
       <c r="D464" s="3">
         <v>1326</v>
       </c>
-      <c r="E464" s="5">
+      <c r="E464" s="8">
         <v>30</v>
       </c>
-      <c r="F464" s="6"/>
+      <c r="F464" s="9"/>
       <c r="G464" s="3">
         <v>3323.9</v>
       </c>
@@ -25279,10 +25279,10 @@
       <c r="D465" s="3">
         <v>1411</v>
       </c>
-      <c r="E465" s="5">
+      <c r="E465" s="8">
         <v>33</v>
       </c>
-      <c r="F465" s="6"/>
+      <c r="F465" s="9"/>
       <c r="G465" s="3">
         <v>3671.7</v>
       </c>
@@ -25328,10 +25328,10 @@
       <c r="D466" s="3">
         <v>1139</v>
       </c>
-      <c r="E466" s="5">
+      <c r="E466" s="8">
         <v>29</v>
       </c>
-      <c r="F466" s="6"/>
+      <c r="F466" s="9"/>
       <c r="G466" s="3">
         <v>3110.8</v>
       </c>
@@ -25377,10 +25377,10 @@
       <c r="D467" s="3">
         <v>1175</v>
       </c>
-      <c r="E467" s="5">
+      <c r="E467" s="8">
         <v>31</v>
       </c>
-      <c r="F467" s="6"/>
+      <c r="F467" s="9"/>
       <c r="G467" s="3">
         <v>3362</v>
       </c>
@@ -25426,10 +25426,10 @@
       <c r="D468" s="3">
         <v>1041</v>
       </c>
-      <c r="E468" s="5">
+      <c r="E468" s="8">
         <v>28</v>
       </c>
-      <c r="F468" s="6"/>
+      <c r="F468" s="9"/>
       <c r="G468" s="3">
         <v>3044.7</v>
       </c>
@@ -25475,10 +25475,10 @@
       <c r="D469" s="3">
         <v>1156</v>
       </c>
-      <c r="E469" s="5">
+      <c r="E469" s="8">
         <v>27</v>
       </c>
-      <c r="F469" s="6"/>
+      <c r="F469" s="9"/>
       <c r="G469" s="3">
         <v>3204.9</v>
       </c>
@@ -25524,10 +25524,10 @@
       <c r="D470" s="3">
         <v>1281</v>
       </c>
-      <c r="E470" s="5">
+      <c r="E470" s="8">
         <v>31</v>
       </c>
-      <c r="F470" s="6"/>
+      <c r="F470" s="9"/>
       <c r="G470" s="3">
         <v>3410.6</v>
       </c>
@@ -25573,10 +25573,10 @@
       <c r="D471" s="3">
         <v>1233</v>
       </c>
-      <c r="E471" s="5">
+      <c r="E471" s="8">
         <v>34</v>
       </c>
-      <c r="F471" s="6"/>
+      <c r="F471" s="9"/>
       <c r="G471" s="3">
         <v>3079.4</v>
       </c>
@@ -25622,10 +25622,10 @@
       <c r="D472" s="3">
         <v>1338</v>
       </c>
-      <c r="E472" s="5">
+      <c r="E472" s="8">
         <v>35</v>
       </c>
-      <c r="F472" s="6"/>
+      <c r="F472" s="9"/>
       <c r="G472" s="3">
         <v>3348.9</v>
       </c>
@@ -25671,10 +25671,10 @@
       <c r="D473" s="3">
         <v>1165</v>
       </c>
-      <c r="E473" s="5">
+      <c r="E473" s="8">
         <v>32</v>
       </c>
-      <c r="F473" s="6"/>
+      <c r="F473" s="9"/>
       <c r="G473" s="3">
         <v>3092.2</v>
       </c>
@@ -25720,10 +25720,10 @@
       <c r="D474" s="3">
         <v>1235</v>
       </c>
-      <c r="E474" s="5">
+      <c r="E474" s="8">
         <v>31</v>
       </c>
-      <c r="F474" s="6"/>
+      <c r="F474" s="9"/>
       <c r="G474" s="3">
         <v>3219.1</v>
       </c>
@@ -25769,10 +25769,10 @@
       <c r="D475" s="3">
         <v>1350</v>
       </c>
-      <c r="E475" s="5">
+      <c r="E475" s="8">
         <v>30</v>
       </c>
-      <c r="F475" s="6"/>
+      <c r="F475" s="9"/>
       <c r="G475" s="3">
         <v>3383.2</v>
       </c>
@@ -25818,10 +25818,10 @@
       <c r="D476" s="3">
         <v>1468</v>
       </c>
-      <c r="E476" s="5">
+      <c r="E476" s="8">
         <v>29</v>
       </c>
-      <c r="F476" s="6"/>
+      <c r="F476" s="9"/>
       <c r="G476" s="3">
         <v>3471.8</v>
       </c>
@@ -25867,10 +25867,10 @@
       <c r="D477" s="3">
         <v>1388</v>
       </c>
-      <c r="E477" s="5">
+      <c r="E477" s="8">
         <v>32</v>
       </c>
-      <c r="F477" s="6"/>
+      <c r="F477" s="9"/>
       <c r="G477" s="3">
         <v>3523.1</v>
       </c>
@@ -25916,10 +25916,10 @@
       <c r="D478" s="3">
         <v>1273</v>
       </c>
-      <c r="E478" s="5">
+      <c r="E478" s="8">
         <v>33</v>
       </c>
-      <c r="F478" s="6"/>
+      <c r="F478" s="9"/>
       <c r="G478" s="3">
         <v>3434.7</v>
       </c>
@@ -25965,10 +25965,10 @@
       <c r="D479" s="3">
         <v>1250</v>
       </c>
-      <c r="E479" s="5">
+      <c r="E479" s="8">
         <v>33</v>
       </c>
-      <c r="F479" s="6"/>
+      <c r="F479" s="9"/>
       <c r="G479" s="3">
         <v>3439.7</v>
       </c>
@@ -26014,10 +26014,10 @@
       <c r="D480" s="3">
         <v>1134</v>
       </c>
-      <c r="E480" s="5">
+      <c r="E480" s="8">
         <v>28</v>
       </c>
-      <c r="F480" s="6"/>
+      <c r="F480" s="9"/>
       <c r="G480" s="3">
         <v>3002.3</v>
       </c>
@@ -26063,10 +26063,10 @@
       <c r="D481" s="3">
         <v>1266</v>
       </c>
-      <c r="E481" s="5">
+      <c r="E481" s="8">
         <v>29</v>
       </c>
-      <c r="F481" s="6"/>
+      <c r="F481" s="9"/>
       <c r="G481" s="3">
         <v>3298.7</v>
       </c>
@@ -26112,10 +26112,10 @@
       <c r="D482" s="3">
         <v>1243</v>
       </c>
-      <c r="E482" s="5">
+      <c r="E482" s="8">
         <v>30</v>
       </c>
-      <c r="F482" s="6"/>
+      <c r="F482" s="9"/>
       <c r="G482" s="3">
         <v>3163.3</v>
       </c>
@@ -26161,10 +26161,10 @@
       <c r="D483" s="3">
         <v>1262</v>
       </c>
-      <c r="E483" s="5">
+      <c r="E483" s="8">
         <v>30</v>
       </c>
-      <c r="F483" s="6"/>
+      <c r="F483" s="9"/>
       <c r="G483" s="3">
         <v>3051.3</v>
       </c>
@@ -26210,10 +26210,10 @@
       <c r="D484" s="3">
         <v>1303</v>
       </c>
-      <c r="E484" s="5">
+      <c r="E484" s="8">
         <v>36</v>
       </c>
-      <c r="F484" s="6"/>
+      <c r="F484" s="9"/>
       <c r="G484" s="3">
         <v>3268.7</v>
       </c>
@@ -26259,10 +26259,10 @@
       <c r="D485" s="3">
         <v>1021</v>
       </c>
-      <c r="E485" s="5">
+      <c r="E485" s="8">
         <v>27</v>
       </c>
-      <c r="F485" s="6"/>
+      <c r="F485" s="9"/>
       <c r="G485" s="3">
         <v>2786.7</v>
       </c>
@@ -26308,10 +26308,10 @@
       <c r="D486" s="3">
         <v>1159</v>
       </c>
-      <c r="E486" s="5">
+      <c r="E486" s="8">
         <v>30</v>
       </c>
-      <c r="F486" s="6"/>
+      <c r="F486" s="9"/>
       <c r="G486" s="3">
         <v>3150.7</v>
       </c>
@@ -26349,8 +26349,8 @@
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
       <c r="D487" s="3"/>
-      <c r="E487" s="5"/>
-      <c r="F487" s="6"/>
+      <c r="E487" s="8"/>
+      <c r="F487" s="9"/>
       <c r="G487" s="3"/>
       <c r="H487" s="3"/>
       <c r="I487" s="3"/>
@@ -26368,8 +26368,8 @@
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
       <c r="D488" s="3"/>
-      <c r="E488" s="5"/>
-      <c r="F488" s="6"/>
+      <c r="E488" s="8"/>
+      <c r="F488" s="9"/>
       <c r="G488" s="3"/>
       <c r="H488" s="3"/>
       <c r="I488" s="3"/>
@@ -26387,8 +26387,8 @@
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
       <c r="D489" s="3"/>
-      <c r="E489" s="5"/>
-      <c r="F489" s="6"/>
+      <c r="E489" s="8"/>
+      <c r="F489" s="9"/>
       <c r="G489" s="3"/>
       <c r="H489" s="3"/>
       <c r="I489" s="3"/>
@@ -26406,8 +26406,8 @@
       <c r="B490" s="4"/>
       <c r="C490" s="4"/>
       <c r="D490" s="4"/>
-      <c r="E490" s="7"/>
-      <c r="F490" s="6"/>
+      <c r="E490" s="12"/>
+      <c r="F490" s="9"/>
       <c r="G490" s="4"/>
       <c r="H490" s="4"/>
       <c r="I490" s="4"/>
@@ -26425,8 +26425,8 @@
       <c r="B491" s="4"/>
       <c r="C491" s="4"/>
       <c r="D491" s="4"/>
-      <c r="E491" s="7"/>
-      <c r="F491" s="6"/>
+      <c r="E491" s="12"/>
+      <c r="F491" s="9"/>
       <c r="G491" s="4"/>
       <c r="H491" s="4"/>
       <c r="I491" s="4"/>
@@ -26444,8 +26444,8 @@
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
       <c r="D492" s="3"/>
-      <c r="E492" s="5"/>
-      <c r="F492" s="6"/>
+      <c r="E492" s="8"/>
+      <c r="F492" s="9"/>
       <c r="G492" s="3"/>
       <c r="H492" s="3"/>
       <c r="I492" s="3"/>
@@ -26463,8 +26463,8 @@
       <c r="B493" s="4"/>
       <c r="C493" s="4"/>
       <c r="D493" s="4"/>
-      <c r="E493" s="7"/>
-      <c r="F493" s="6"/>
+      <c r="E493" s="12"/>
+      <c r="F493" s="9"/>
       <c r="G493" s="4"/>
       <c r="H493" s="4"/>
       <c r="I493" s="4"/>
@@ -26482,8 +26482,8 @@
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
       <c r="D494" s="4"/>
-      <c r="E494" s="7"/>
-      <c r="F494" s="6"/>
+      <c r="E494" s="12"/>
+      <c r="F494" s="9"/>
       <c r="G494" s="4"/>
       <c r="H494" s="4"/>
       <c r="I494" s="4"/>
@@ -26501,8 +26501,8 @@
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
       <c r="D495" s="3"/>
-      <c r="E495" s="5"/>
-      <c r="F495" s="6"/>
+      <c r="E495" s="8"/>
+      <c r="F495" s="9"/>
       <c r="G495" s="3"/>
       <c r="H495" s="3"/>
       <c r="I495" s="3"/>
@@ -26520,8 +26520,8 @@
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
       <c r="D496" s="4"/>
-      <c r="E496" s="7"/>
-      <c r="F496" s="6"/>
+      <c r="E496" s="12"/>
+      <c r="F496" s="9"/>
       <c r="G496" s="4"/>
       <c r="H496" s="4"/>
       <c r="I496" s="4"/>
@@ -26539,8 +26539,8 @@
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
       <c r="D497" s="4"/>
-      <c r="E497" s="7"/>
-      <c r="F497" s="6"/>
+      <c r="E497" s="12"/>
+      <c r="F497" s="9"/>
       <c r="G497" s="4"/>
       <c r="H497" s="4"/>
       <c r="I497" s="4"/>
@@ -26558,8 +26558,8 @@
       <c r="B498" s="3"/>
       <c r="C498" s="3"/>
       <c r="D498" s="3"/>
-      <c r="E498" s="5"/>
-      <c r="F498" s="6"/>
+      <c r="E498" s="8"/>
+      <c r="F498" s="9"/>
       <c r="G498" s="3"/>
       <c r="H498" s="3"/>
       <c r="I498" s="3"/>
@@ -26577,8 +26577,8 @@
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
       <c r="D499" s="4"/>
-      <c r="E499" s="7"/>
-      <c r="F499" s="6"/>
+      <c r="E499" s="12"/>
+      <c r="F499" s="9"/>
       <c r="G499" s="4"/>
       <c r="H499" s="4"/>
       <c r="I499" s="4"/>
@@ -26596,8 +26596,8 @@
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
       <c r="D500" s="4"/>
-      <c r="E500" s="7"/>
-      <c r="F500" s="6"/>
+      <c r="E500" s="12"/>
+      <c r="F500" s="9"/>
       <c r="G500" s="4"/>
       <c r="H500" s="4"/>
       <c r="I500" s="4"/>
@@ -26615,8 +26615,8 @@
       <c r="B501" s="3"/>
       <c r="C501" s="3"/>
       <c r="D501" s="3"/>
-      <c r="E501" s="5"/>
-      <c r="F501" s="6"/>
+      <c r="E501" s="8"/>
+      <c r="F501" s="9"/>
       <c r="G501" s="3"/>
       <c r="H501" s="3"/>
       <c r="I501" s="3"/>
@@ -26634,8 +26634,8 @@
       <c r="B502" s="3"/>
       <c r="C502" s="3"/>
       <c r="D502" s="3"/>
-      <c r="E502" s="5"/>
-      <c r="F502" s="6"/>
+      <c r="E502" s="8"/>
+      <c r="F502" s="9"/>
       <c r="G502" s="3"/>
       <c r="H502" s="3"/>
       <c r="I502" s="3"/>
@@ -26653,8 +26653,8 @@
       <c r="B503" s="3"/>
       <c r="C503" s="3"/>
       <c r="D503" s="3"/>
-      <c r="E503" s="5"/>
-      <c r="F503" s="6"/>
+      <c r="E503" s="8"/>
+      <c r="F503" s="9"/>
       <c r="G503" s="3"/>
       <c r="H503" s="3"/>
       <c r="I503" s="3"/>
@@ -26672,8 +26672,8 @@
       <c r="B504" s="3"/>
       <c r="C504" s="3"/>
       <c r="D504" s="3"/>
-      <c r="E504" s="5"/>
-      <c r="F504" s="6"/>
+      <c r="E504" s="8"/>
+      <c r="F504" s="9"/>
       <c r="G504" s="3"/>
       <c r="H504" s="3"/>
       <c r="I504" s="3"/>
@@ -26691,8 +26691,8 @@
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
       <c r="D505" s="3"/>
-      <c r="E505" s="5"/>
-      <c r="F505" s="6"/>
+      <c r="E505" s="8"/>
+      <c r="F505" s="9"/>
       <c r="G505" s="3"/>
       <c r="H505" s="3"/>
       <c r="I505" s="3"/>
@@ -26710,8 +26710,8 @@
       <c r="B506" s="3"/>
       <c r="C506" s="3"/>
       <c r="D506" s="3"/>
-      <c r="E506" s="5"/>
-      <c r="F506" s="6"/>
+      <c r="E506" s="8"/>
+      <c r="F506" s="9"/>
       <c r="G506" s="3"/>
       <c r="H506" s="3"/>
       <c r="I506" s="3"/>
@@ -26729,8 +26729,8 @@
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
       <c r="D507" s="3"/>
-      <c r="E507" s="5"/>
-      <c r="F507" s="6"/>
+      <c r="E507" s="8"/>
+      <c r="F507" s="9"/>
       <c r="G507" s="3"/>
       <c r="H507" s="3"/>
       <c r="I507" s="3"/>
@@ -26748,8 +26748,8 @@
       <c r="B508" s="3"/>
       <c r="C508" s="3"/>
       <c r="D508" s="3"/>
-      <c r="E508" s="5"/>
-      <c r="F508" s="6"/>
+      <c r="E508" s="8"/>
+      <c r="F508" s="9"/>
       <c r="G508" s="3"/>
       <c r="H508" s="3"/>
       <c r="I508" s="3"/>
@@ -26767,8 +26767,8 @@
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
       <c r="D509" s="3"/>
-      <c r="E509" s="5"/>
-      <c r="F509" s="6"/>
+      <c r="E509" s="8"/>
+      <c r="F509" s="9"/>
       <c r="G509" s="3"/>
       <c r="H509" s="3"/>
       <c r="I509" s="3"/>
@@ -26786,8 +26786,8 @@
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
       <c r="D510" s="3"/>
-      <c r="E510" s="5"/>
-      <c r="F510" s="6"/>
+      <c r="E510" s="8"/>
+      <c r="F510" s="9"/>
       <c r="G510" s="3"/>
       <c r="H510" s="3"/>
       <c r="I510" s="3"/>
@@ -26805,8 +26805,8 @@
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
       <c r="D511" s="3"/>
-      <c r="E511" s="5"/>
-      <c r="F511" s="6"/>
+      <c r="E511" s="8"/>
+      <c r="F511" s="9"/>
       <c r="G511" s="3"/>
       <c r="H511" s="3"/>
       <c r="I511" s="3"/>
@@ -26824,8 +26824,8 @@
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
       <c r="D512" s="3"/>
-      <c r="E512" s="5"/>
-      <c r="F512" s="6"/>
+      <c r="E512" s="8"/>
+      <c r="F512" s="9"/>
       <c r="G512" s="3"/>
       <c r="H512" s="3"/>
       <c r="I512" s="3"/>
@@ -26843,8 +26843,8 @@
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
       <c r="D513" s="3"/>
-      <c r="E513" s="5"/>
-      <c r="F513" s="6"/>
+      <c r="E513" s="8"/>
+      <c r="F513" s="9"/>
       <c r="G513" s="3"/>
       <c r="H513" s="3"/>
       <c r="I513" s="3"/>
@@ -26862,8 +26862,8 @@
       <c r="B514" s="3"/>
       <c r="C514" s="3"/>
       <c r="D514" s="3"/>
-      <c r="E514" s="5"/>
-      <c r="F514" s="6"/>
+      <c r="E514" s="8"/>
+      <c r="F514" s="9"/>
       <c r="G514" s="3"/>
       <c r="H514" s="3"/>
       <c r="I514" s="3"/>
@@ -26881,8 +26881,8 @@
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
       <c r="D515" s="3"/>
-      <c r="E515" s="5"/>
-      <c r="F515" s="6"/>
+      <c r="E515" s="8"/>
+      <c r="F515" s="9"/>
       <c r="G515" s="3"/>
       <c r="H515" s="3"/>
       <c r="I515" s="3"/>
@@ -26900,8 +26900,8 @@
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
       <c r="D516" s="3"/>
-      <c r="E516" s="5"/>
-      <c r="F516" s="6"/>
+      <c r="E516" s="8"/>
+      <c r="F516" s="9"/>
       <c r="G516" s="3"/>
       <c r="H516" s="3"/>
       <c r="I516" s="3"/>
@@ -26919,8 +26919,8 @@
       <c r="B517" s="3"/>
       <c r="C517" s="3"/>
       <c r="D517" s="3"/>
-      <c r="E517" s="5"/>
-      <c r="F517" s="6"/>
+      <c r="E517" s="8"/>
+      <c r="F517" s="9"/>
       <c r="G517" s="3"/>
       <c r="H517" s="3"/>
       <c r="I517" s="3"/>
@@ -26938,8 +26938,8 @@
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
       <c r="D518" s="3"/>
-      <c r="E518" s="5"/>
-      <c r="F518" s="6"/>
+      <c r="E518" s="8"/>
+      <c r="F518" s="9"/>
       <c r="G518" s="3"/>
       <c r="H518" s="3"/>
       <c r="I518" s="3"/>
@@ -26957,8 +26957,8 @@
       <c r="B519" s="3"/>
       <c r="C519" s="3"/>
       <c r="D519" s="3"/>
-      <c r="E519" s="5"/>
-      <c r="F519" s="6"/>
+      <c r="E519" s="8"/>
+      <c r="F519" s="9"/>
       <c r="G519" s="3"/>
       <c r="H519" s="3"/>
       <c r="I519" s="3"/>
@@ -26976,8 +26976,8 @@
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
       <c r="D520" s="3"/>
-      <c r="E520" s="5"/>
-      <c r="F520" s="6"/>
+      <c r="E520" s="8"/>
+      <c r="F520" s="9"/>
       <c r="G520" s="3"/>
       <c r="H520" s="3"/>
       <c r="I520" s="3"/>
@@ -26995,8 +26995,8 @@
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
       <c r="D521" s="3"/>
-      <c r="E521" s="5"/>
-      <c r="F521" s="6"/>
+      <c r="E521" s="8"/>
+      <c r="F521" s="9"/>
       <c r="G521" s="3"/>
       <c r="H521" s="3"/>
       <c r="I521" s="3"/>
@@ -27014,8 +27014,8 @@
       <c r="B522" s="3"/>
       <c r="C522" s="3"/>
       <c r="D522" s="3"/>
-      <c r="E522" s="5"/>
-      <c r="F522" s="6"/>
+      <c r="E522" s="8"/>
+      <c r="F522" s="9"/>
       <c r="G522" s="3"/>
       <c r="H522" s="3"/>
       <c r="I522" s="3"/>
@@ -27033,8 +27033,8 @@
       <c r="B523" s="3"/>
       <c r="C523" s="3"/>
       <c r="D523" s="3"/>
-      <c r="E523" s="5"/>
-      <c r="F523" s="6"/>
+      <c r="E523" s="8"/>
+      <c r="F523" s="9"/>
       <c r="G523" s="3"/>
       <c r="H523" s="3"/>
       <c r="I523" s="3"/>
@@ -27052,8 +27052,8 @@
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
       <c r="D524" s="3"/>
-      <c r="E524" s="5"/>
-      <c r="F524" s="6"/>
+      <c r="E524" s="8"/>
+      <c r="F524" s="9"/>
       <c r="G524" s="3"/>
       <c r="H524" s="3"/>
       <c r="I524" s="3"/>
@@ -27071,8 +27071,8 @@
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
       <c r="D525" s="3"/>
-      <c r="E525" s="5"/>
-      <c r="F525" s="6"/>
+      <c r="E525" s="8"/>
+      <c r="F525" s="9"/>
       <c r="G525" s="3"/>
       <c r="H525" s="3"/>
       <c r="I525" s="3"/>
@@ -27090,8 +27090,8 @@
       <c r="B526" s="3"/>
       <c r="C526" s="3"/>
       <c r="D526" s="3"/>
-      <c r="E526" s="5"/>
-      <c r="F526" s="6"/>
+      <c r="E526" s="8"/>
+      <c r="F526" s="9"/>
       <c r="G526" s="3"/>
       <c r="H526" s="3"/>
       <c r="I526" s="3"/>
@@ -27109,8 +27109,8 @@
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
       <c r="D527" s="3"/>
-      <c r="E527" s="5"/>
-      <c r="F527" s="6"/>
+      <c r="E527" s="8"/>
+      <c r="F527" s="9"/>
       <c r="G527" s="3"/>
       <c r="H527" s="3"/>
       <c r="I527" s="3"/>
@@ -27128,8 +27128,8 @@
       <c r="B528" s="3"/>
       <c r="C528" s="3"/>
       <c r="D528" s="3"/>
-      <c r="E528" s="5"/>
-      <c r="F528" s="6"/>
+      <c r="E528" s="8"/>
+      <c r="F528" s="9"/>
       <c r="G528" s="3"/>
       <c r="H528" s="3"/>
       <c r="I528" s="3"/>
@@ -27147,8 +27147,8 @@
       <c r="B529" s="3"/>
       <c r="C529" s="3"/>
       <c r="D529" s="3"/>
-      <c r="E529" s="5"/>
-      <c r="F529" s="6"/>
+      <c r="E529" s="8"/>
+      <c r="F529" s="9"/>
       <c r="G529" s="3"/>
       <c r="H529" s="3"/>
       <c r="I529" s="3"/>
@@ -27166,8 +27166,8 @@
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
       <c r="D530" s="3"/>
-      <c r="E530" s="5"/>
-      <c r="F530" s="6"/>
+      <c r="E530" s="8"/>
+      <c r="F530" s="9"/>
       <c r="G530" s="3"/>
       <c r="H530" s="3"/>
       <c r="I530" s="3"/>
@@ -27185,8 +27185,8 @@
       <c r="B531" s="3"/>
       <c r="C531" s="3"/>
       <c r="D531" s="3"/>
-      <c r="E531" s="5"/>
-      <c r="F531" s="6"/>
+      <c r="E531" s="8"/>
+      <c r="F531" s="9"/>
       <c r="G531" s="3"/>
       <c r="H531" s="3"/>
       <c r="I531" s="3"/>
@@ -27204,8 +27204,8 @@
       <c r="B532" s="3"/>
       <c r="C532" s="3"/>
       <c r="D532" s="3"/>
-      <c r="E532" s="5"/>
-      <c r="F532" s="6"/>
+      <c r="E532" s="8"/>
+      <c r="F532" s="9"/>
       <c r="G532" s="3"/>
       <c r="H532" s="3"/>
       <c r="I532" s="3"/>
@@ -27223,8 +27223,8 @@
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
       <c r="D533" s="3"/>
-      <c r="E533" s="5"/>
-      <c r="F533" s="6"/>
+      <c r="E533" s="8"/>
+      <c r="F533" s="9"/>
       <c r="G533" s="3"/>
       <c r="H533" s="3"/>
       <c r="I533" s="3"/>
@@ -27242,8 +27242,8 @@
       <c r="B534" s="3"/>
       <c r="C534" s="3"/>
       <c r="D534" s="3"/>
-      <c r="E534" s="5"/>
-      <c r="F534" s="6"/>
+      <c r="E534" s="8"/>
+      <c r="F534" s="9"/>
       <c r="G534" s="3"/>
       <c r="H534" s="3"/>
       <c r="I534" s="3"/>
@@ -27261,8 +27261,8 @@
       <c r="B535" s="3"/>
       <c r="C535" s="3"/>
       <c r="D535" s="3"/>
-      <c r="E535" s="5"/>
-      <c r="F535" s="6"/>
+      <c r="E535" s="8"/>
+      <c r="F535" s="9"/>
       <c r="G535" s="3"/>
       <c r="H535" s="3"/>
       <c r="I535" s="3"/>
@@ -27280,8 +27280,8 @@
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
       <c r="D536" s="3"/>
-      <c r="E536" s="5"/>
-      <c r="F536" s="6"/>
+      <c r="E536" s="8"/>
+      <c r="F536" s="9"/>
       <c r="G536" s="3"/>
       <c r="H536" s="3"/>
       <c r="I536" s="3"/>
@@ -27299,8 +27299,8 @@
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
       <c r="D537" s="3"/>
-      <c r="E537" s="5"/>
-      <c r="F537" s="6"/>
+      <c r="E537" s="8"/>
+      <c r="F537" s="9"/>
       <c r="G537" s="3"/>
       <c r="H537" s="3"/>
       <c r="I537" s="3"/>
@@ -27318,8 +27318,8 @@
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
       <c r="D538" s="3"/>
-      <c r="E538" s="5"/>
-      <c r="F538" s="6"/>
+      <c r="E538" s="8"/>
+      <c r="F538" s="9"/>
       <c r="G538" s="3"/>
       <c r="H538" s="3"/>
       <c r="I538" s="3"/>
@@ -27337,8 +27337,8 @@
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
       <c r="D539" s="3"/>
-      <c r="E539" s="5"/>
-      <c r="F539" s="6"/>
+      <c r="E539" s="8"/>
+      <c r="F539" s="9"/>
       <c r="G539" s="3"/>
       <c r="H539" s="3"/>
       <c r="I539" s="3"/>
@@ -27356,8 +27356,8 @@
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
       <c r="D540" s="3"/>
-      <c r="E540" s="5"/>
-      <c r="F540" s="6"/>
+      <c r="E540" s="8"/>
+      <c r="F540" s="9"/>
       <c r="G540" s="3"/>
       <c r="H540" s="3"/>
       <c r="I540" s="3"/>
@@ -27375,8 +27375,8 @@
       <c r="B541" s="3"/>
       <c r="C541" s="3"/>
       <c r="D541" s="3"/>
-      <c r="E541" s="5"/>
-      <c r="F541" s="6"/>
+      <c r="E541" s="8"/>
+      <c r="F541" s="9"/>
       <c r="G541" s="3"/>
       <c r="H541" s="3"/>
       <c r="I541" s="3"/>
@@ -27394,8 +27394,8 @@
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
       <c r="D542" s="3"/>
-      <c r="E542" s="5"/>
-      <c r="F542" s="6"/>
+      <c r="E542" s="8"/>
+      <c r="F542" s="9"/>
       <c r="G542" s="3"/>
       <c r="H542" s="3"/>
       <c r="I542" s="3"/>
@@ -27413,8 +27413,8 @@
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
       <c r="D543" s="3"/>
-      <c r="E543" s="5"/>
-      <c r="F543" s="6"/>
+      <c r="E543" s="8"/>
+      <c r="F543" s="9"/>
       <c r="G543" s="3"/>
       <c r="H543" s="3"/>
       <c r="I543" s="3"/>
@@ -27432,8 +27432,8 @@
       <c r="B544" s="3"/>
       <c r="C544" s="3"/>
       <c r="D544" s="3"/>
-      <c r="E544" s="5"/>
-      <c r="F544" s="6"/>
+      <c r="E544" s="8"/>
+      <c r="F544" s="9"/>
       <c r="G544" s="3"/>
       <c r="H544" s="3"/>
       <c r="I544" s="3"/>
@@ -27451,8 +27451,8 @@
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
       <c r="D545" s="3"/>
-      <c r="E545" s="5"/>
-      <c r="F545" s="6"/>
+      <c r="E545" s="8"/>
+      <c r="F545" s="9"/>
       <c r="G545" s="3"/>
       <c r="H545" s="3"/>
       <c r="I545" s="3"/>
@@ -27470,8 +27470,8 @@
       <c r="B546" s="3"/>
       <c r="C546" s="3"/>
       <c r="D546" s="3"/>
-      <c r="E546" s="5"/>
-      <c r="F546" s="6"/>
+      <c r="E546" s="8"/>
+      <c r="F546" s="9"/>
       <c r="G546" s="3"/>
       <c r="H546" s="3"/>
       <c r="I546" s="3"/>
@@ -27489,8 +27489,8 @@
       <c r="B547" s="3"/>
       <c r="C547" s="3"/>
       <c r="D547" s="3"/>
-      <c r="E547" s="5"/>
-      <c r="F547" s="6"/>
+      <c r="E547" s="8"/>
+      <c r="F547" s="9"/>
       <c r="G547" s="3"/>
       <c r="H547" s="3"/>
       <c r="I547" s="3"/>
@@ -27508,8 +27508,8 @@
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
       <c r="D548" s="3"/>
-      <c r="E548" s="5"/>
-      <c r="F548" s="6"/>
+      <c r="E548" s="8"/>
+      <c r="F548" s="9"/>
       <c r="G548" s="3"/>
       <c r="H548" s="3"/>
       <c r="I548" s="3"/>
@@ -27527,8 +27527,8 @@
       <c r="B549" s="3"/>
       <c r="C549" s="3"/>
       <c r="D549" s="3"/>
-      <c r="E549" s="5"/>
-      <c r="F549" s="6"/>
+      <c r="E549" s="8"/>
+      <c r="F549" s="9"/>
       <c r="G549" s="3"/>
       <c r="H549" s="3"/>
       <c r="I549" s="3"/>
@@ -27546,8 +27546,8 @@
       <c r="B550" s="3"/>
       <c r="C550" s="3"/>
       <c r="D550" s="3"/>
-      <c r="E550" s="5"/>
-      <c r="F550" s="6"/>
+      <c r="E550" s="8"/>
+      <c r="F550" s="9"/>
       <c r="G550" s="3"/>
       <c r="H550" s="3"/>
       <c r="I550" s="3"/>
@@ -27565,8 +27565,8 @@
       <c r="B551" s="3"/>
       <c r="C551" s="3"/>
       <c r="D551" s="3"/>
-      <c r="E551" s="5"/>
-      <c r="F551" s="6"/>
+      <c r="E551" s="8"/>
+      <c r="F551" s="9"/>
       <c r="G551" s="3"/>
       <c r="H551" s="3"/>
       <c r="I551" s="3"/>
@@ -27584,8 +27584,8 @@
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
       <c r="D552" s="3"/>
-      <c r="E552" s="5"/>
-      <c r="F552" s="6"/>
+      <c r="E552" s="8"/>
+      <c r="F552" s="9"/>
       <c r="G552" s="3"/>
       <c r="H552" s="3"/>
       <c r="I552" s="3"/>
@@ -27603,8 +27603,8 @@
       <c r="B553" s="3"/>
       <c r="C553" s="3"/>
       <c r="D553" s="3"/>
-      <c r="E553" s="5"/>
-      <c r="F553" s="6"/>
+      <c r="E553" s="8"/>
+      <c r="F553" s="9"/>
       <c r="G553" s="3"/>
       <c r="H553" s="3"/>
       <c r="I553" s="3"/>
@@ -27622,8 +27622,8 @@
       <c r="B554" s="3"/>
       <c r="C554" s="3"/>
       <c r="D554" s="3"/>
-      <c r="E554" s="5"/>
-      <c r="F554" s="6"/>
+      <c r="E554" s="8"/>
+      <c r="F554" s="9"/>
       <c r="G554" s="3"/>
       <c r="H554" s="3"/>
       <c r="I554" s="3"/>
@@ -27641,8 +27641,8 @@
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
       <c r="D555" s="3"/>
-      <c r="E555" s="5"/>
-      <c r="F555" s="6"/>
+      <c r="E555" s="8"/>
+      <c r="F555" s="9"/>
       <c r="G555" s="3"/>
       <c r="H555" s="3"/>
       <c r="I555" s="3"/>
@@ -27660,8 +27660,8 @@
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
       <c r="D556" s="3"/>
-      <c r="E556" s="5"/>
-      <c r="F556" s="6"/>
+      <c r="E556" s="8"/>
+      <c r="F556" s="9"/>
       <c r="G556" s="3"/>
       <c r="H556" s="3"/>
       <c r="I556" s="3"/>
@@ -27679,8 +27679,8 @@
       <c r="B557" s="3"/>
       <c r="C557" s="3"/>
       <c r="D557" s="3"/>
-      <c r="E557" s="5"/>
-      <c r="F557" s="6"/>
+      <c r="E557" s="8"/>
+      <c r="F557" s="9"/>
       <c r="G557" s="3"/>
       <c r="H557" s="3"/>
       <c r="I557" s="3"/>
@@ -27698,8 +27698,8 @@
       <c r="B558" s="3"/>
       <c r="C558" s="3"/>
       <c r="D558" s="3"/>
-      <c r="E558" s="5"/>
-      <c r="F558" s="6"/>
+      <c r="E558" s="8"/>
+      <c r="F558" s="9"/>
       <c r="G558" s="3"/>
       <c r="H558" s="3"/>
       <c r="I558" s="3"/>
@@ -27717,8 +27717,8 @@
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
       <c r="D559" s="3"/>
-      <c r="E559" s="5"/>
-      <c r="F559" s="6"/>
+      <c r="E559" s="8"/>
+      <c r="F559" s="9"/>
       <c r="G559" s="3"/>
       <c r="H559" s="3"/>
       <c r="I559" s="3"/>
@@ -27736,8 +27736,8 @@
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
       <c r="D560" s="3"/>
-      <c r="E560" s="5"/>
-      <c r="F560" s="6"/>
+      <c r="E560" s="8"/>
+      <c r="F560" s="9"/>
       <c r="G560" s="3"/>
       <c r="H560" s="3"/>
       <c r="I560" s="3"/>
@@ -27752,16 +27752,544 @@
     </row>
   </sheetData>
   <mergeCells count="560">
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E557:F557"/>
+    <mergeCell ref="E558:F558"/>
+    <mergeCell ref="E559:F559"/>
+    <mergeCell ref="E560:F560"/>
+    <mergeCell ref="E551:F551"/>
+    <mergeCell ref="E552:F552"/>
+    <mergeCell ref="E553:F553"/>
+    <mergeCell ref="E554:F554"/>
+    <mergeCell ref="E555:F555"/>
+    <mergeCell ref="E556:F556"/>
+    <mergeCell ref="E545:F545"/>
+    <mergeCell ref="E546:F546"/>
+    <mergeCell ref="E547:F547"/>
+    <mergeCell ref="E548:F548"/>
+    <mergeCell ref="E549:F549"/>
+    <mergeCell ref="E550:F550"/>
+    <mergeCell ref="E539:F539"/>
+    <mergeCell ref="E540:F540"/>
+    <mergeCell ref="E541:F541"/>
+    <mergeCell ref="E542:F542"/>
+    <mergeCell ref="E543:F543"/>
+    <mergeCell ref="E544:F544"/>
+    <mergeCell ref="E533:F533"/>
+    <mergeCell ref="E534:F534"/>
+    <mergeCell ref="E535:F535"/>
+    <mergeCell ref="E536:F536"/>
+    <mergeCell ref="E537:F537"/>
+    <mergeCell ref="E538:F538"/>
+    <mergeCell ref="E527:F527"/>
+    <mergeCell ref="E528:F528"/>
+    <mergeCell ref="E529:F529"/>
+    <mergeCell ref="E530:F530"/>
+    <mergeCell ref="E531:F531"/>
+    <mergeCell ref="E532:F532"/>
+    <mergeCell ref="E521:F521"/>
+    <mergeCell ref="E522:F522"/>
+    <mergeCell ref="E523:F523"/>
+    <mergeCell ref="E524:F524"/>
+    <mergeCell ref="E525:F525"/>
+    <mergeCell ref="E526:F526"/>
+    <mergeCell ref="E515:F515"/>
+    <mergeCell ref="E516:F516"/>
+    <mergeCell ref="E517:F517"/>
+    <mergeCell ref="E518:F518"/>
+    <mergeCell ref="E519:F519"/>
+    <mergeCell ref="E520:F520"/>
+    <mergeCell ref="E509:F509"/>
+    <mergeCell ref="E510:F510"/>
+    <mergeCell ref="E511:F511"/>
+    <mergeCell ref="E512:F512"/>
+    <mergeCell ref="E513:F513"/>
+    <mergeCell ref="E514:F514"/>
+    <mergeCell ref="E503:F503"/>
+    <mergeCell ref="E504:F504"/>
+    <mergeCell ref="E505:F505"/>
+    <mergeCell ref="E506:F506"/>
+    <mergeCell ref="E507:F507"/>
+    <mergeCell ref="E508:F508"/>
+    <mergeCell ref="E497:F497"/>
+    <mergeCell ref="E498:F498"/>
+    <mergeCell ref="E499:F499"/>
+    <mergeCell ref="E500:F500"/>
+    <mergeCell ref="E501:F501"/>
+    <mergeCell ref="E502:F502"/>
+    <mergeCell ref="E491:F491"/>
+    <mergeCell ref="E492:F492"/>
+    <mergeCell ref="E493:F493"/>
+    <mergeCell ref="E494:F494"/>
+    <mergeCell ref="E495:F495"/>
+    <mergeCell ref="E496:F496"/>
+    <mergeCell ref="E485:F485"/>
+    <mergeCell ref="E486:F486"/>
+    <mergeCell ref="E487:F487"/>
+    <mergeCell ref="E488:F488"/>
+    <mergeCell ref="E489:F489"/>
+    <mergeCell ref="E490:F490"/>
+    <mergeCell ref="E479:F479"/>
+    <mergeCell ref="E480:F480"/>
+    <mergeCell ref="E481:F481"/>
+    <mergeCell ref="E482:F482"/>
+    <mergeCell ref="E483:F483"/>
+    <mergeCell ref="E484:F484"/>
+    <mergeCell ref="E473:F473"/>
+    <mergeCell ref="E474:F474"/>
+    <mergeCell ref="E475:F475"/>
+    <mergeCell ref="E476:F476"/>
+    <mergeCell ref="E477:F477"/>
+    <mergeCell ref="E478:F478"/>
+    <mergeCell ref="E467:F467"/>
+    <mergeCell ref="E468:F468"/>
+    <mergeCell ref="E469:F469"/>
+    <mergeCell ref="E470:F470"/>
+    <mergeCell ref="E471:F471"/>
+    <mergeCell ref="E472:F472"/>
+    <mergeCell ref="E461:F461"/>
+    <mergeCell ref="E462:F462"/>
+    <mergeCell ref="E463:F463"/>
+    <mergeCell ref="E464:F464"/>
+    <mergeCell ref="E465:F465"/>
+    <mergeCell ref="E466:F466"/>
+    <mergeCell ref="E455:F455"/>
+    <mergeCell ref="E456:F456"/>
+    <mergeCell ref="E457:F457"/>
+    <mergeCell ref="E458:F458"/>
+    <mergeCell ref="E459:F459"/>
+    <mergeCell ref="E460:F460"/>
+    <mergeCell ref="E449:F449"/>
+    <mergeCell ref="E450:F450"/>
+    <mergeCell ref="E451:F451"/>
+    <mergeCell ref="E452:F452"/>
+    <mergeCell ref="E453:F453"/>
+    <mergeCell ref="E454:F454"/>
+    <mergeCell ref="E443:F443"/>
+    <mergeCell ref="E444:F444"/>
+    <mergeCell ref="E445:F445"/>
+    <mergeCell ref="E446:F446"/>
+    <mergeCell ref="E447:F447"/>
+    <mergeCell ref="E448:F448"/>
+    <mergeCell ref="E437:F437"/>
+    <mergeCell ref="E438:F438"/>
+    <mergeCell ref="E439:F439"/>
+    <mergeCell ref="E440:F440"/>
+    <mergeCell ref="E441:F441"/>
+    <mergeCell ref="E442:F442"/>
+    <mergeCell ref="E431:F431"/>
+    <mergeCell ref="E432:F432"/>
+    <mergeCell ref="E433:F433"/>
+    <mergeCell ref="E434:F434"/>
+    <mergeCell ref="E435:F435"/>
+    <mergeCell ref="E436:F436"/>
+    <mergeCell ref="E425:F425"/>
+    <mergeCell ref="E426:F426"/>
+    <mergeCell ref="E427:F427"/>
+    <mergeCell ref="E428:F428"/>
+    <mergeCell ref="E429:F429"/>
+    <mergeCell ref="E430:F430"/>
+    <mergeCell ref="E419:F419"/>
+    <mergeCell ref="E420:F420"/>
+    <mergeCell ref="E421:F421"/>
+    <mergeCell ref="E422:F422"/>
+    <mergeCell ref="E423:F423"/>
+    <mergeCell ref="E424:F424"/>
+    <mergeCell ref="E413:F413"/>
+    <mergeCell ref="E414:F414"/>
+    <mergeCell ref="E415:F415"/>
+    <mergeCell ref="E416:F416"/>
+    <mergeCell ref="E417:F417"/>
+    <mergeCell ref="E418:F418"/>
+    <mergeCell ref="E407:F407"/>
+    <mergeCell ref="E408:F408"/>
+    <mergeCell ref="E409:F409"/>
+    <mergeCell ref="E410:F410"/>
+    <mergeCell ref="E411:F411"/>
+    <mergeCell ref="E412:F412"/>
+    <mergeCell ref="E401:F401"/>
+    <mergeCell ref="E402:F402"/>
+    <mergeCell ref="E403:F403"/>
+    <mergeCell ref="E404:F404"/>
+    <mergeCell ref="E405:F405"/>
+    <mergeCell ref="E406:F406"/>
+    <mergeCell ref="E395:F395"/>
+    <mergeCell ref="E396:F396"/>
+    <mergeCell ref="E397:F397"/>
+    <mergeCell ref="E398:F398"/>
+    <mergeCell ref="E399:F399"/>
+    <mergeCell ref="E400:F400"/>
+    <mergeCell ref="E389:F389"/>
+    <mergeCell ref="E390:F390"/>
+    <mergeCell ref="E391:F391"/>
+    <mergeCell ref="E392:F392"/>
+    <mergeCell ref="E393:F393"/>
+    <mergeCell ref="E394:F394"/>
+    <mergeCell ref="E383:F383"/>
+    <mergeCell ref="E384:F384"/>
+    <mergeCell ref="E385:F385"/>
+    <mergeCell ref="E386:F386"/>
+    <mergeCell ref="E387:F387"/>
+    <mergeCell ref="E388:F388"/>
+    <mergeCell ref="E377:F377"/>
+    <mergeCell ref="E378:F378"/>
+    <mergeCell ref="E379:F379"/>
+    <mergeCell ref="E380:F380"/>
+    <mergeCell ref="E381:F381"/>
+    <mergeCell ref="E382:F382"/>
+    <mergeCell ref="E371:F371"/>
+    <mergeCell ref="E372:F372"/>
+    <mergeCell ref="E373:F373"/>
+    <mergeCell ref="E374:F374"/>
+    <mergeCell ref="E375:F375"/>
+    <mergeCell ref="E376:F376"/>
+    <mergeCell ref="E365:F365"/>
+    <mergeCell ref="E366:F366"/>
+    <mergeCell ref="E367:F367"/>
+    <mergeCell ref="E368:F368"/>
+    <mergeCell ref="E369:F369"/>
+    <mergeCell ref="E370:F370"/>
+    <mergeCell ref="E359:F359"/>
+    <mergeCell ref="E360:F360"/>
+    <mergeCell ref="E361:F361"/>
+    <mergeCell ref="E362:F362"/>
+    <mergeCell ref="E363:F363"/>
+    <mergeCell ref="E364:F364"/>
+    <mergeCell ref="E353:F353"/>
+    <mergeCell ref="E354:F354"/>
+    <mergeCell ref="E355:F355"/>
+    <mergeCell ref="E356:F356"/>
+    <mergeCell ref="E357:F357"/>
+    <mergeCell ref="E358:F358"/>
+    <mergeCell ref="E347:F347"/>
+    <mergeCell ref="E348:F348"/>
+    <mergeCell ref="E349:F349"/>
+    <mergeCell ref="E350:F350"/>
+    <mergeCell ref="E351:F351"/>
+    <mergeCell ref="E352:F352"/>
+    <mergeCell ref="E341:F341"/>
+    <mergeCell ref="E342:F342"/>
+    <mergeCell ref="E343:F343"/>
+    <mergeCell ref="E344:F344"/>
+    <mergeCell ref="E345:F345"/>
+    <mergeCell ref="E346:F346"/>
+    <mergeCell ref="E335:F335"/>
+    <mergeCell ref="E336:F336"/>
+    <mergeCell ref="E337:F337"/>
+    <mergeCell ref="E338:F338"/>
+    <mergeCell ref="E339:F339"/>
+    <mergeCell ref="E340:F340"/>
+    <mergeCell ref="E329:F329"/>
+    <mergeCell ref="E330:F330"/>
+    <mergeCell ref="E331:F331"/>
+    <mergeCell ref="E332:F332"/>
+    <mergeCell ref="E333:F333"/>
+    <mergeCell ref="E334:F334"/>
+    <mergeCell ref="E323:F323"/>
+    <mergeCell ref="E324:F324"/>
+    <mergeCell ref="E325:F325"/>
+    <mergeCell ref="E326:F326"/>
+    <mergeCell ref="E327:F327"/>
+    <mergeCell ref="E328:F328"/>
+    <mergeCell ref="E317:F317"/>
+    <mergeCell ref="E318:F318"/>
+    <mergeCell ref="E319:F319"/>
+    <mergeCell ref="E320:F320"/>
+    <mergeCell ref="E321:F321"/>
+    <mergeCell ref="E322:F322"/>
+    <mergeCell ref="E311:F311"/>
+    <mergeCell ref="E312:F312"/>
+    <mergeCell ref="E313:F313"/>
+    <mergeCell ref="E314:F314"/>
+    <mergeCell ref="E315:F315"/>
+    <mergeCell ref="E316:F316"/>
+    <mergeCell ref="E305:F305"/>
+    <mergeCell ref="E306:F306"/>
+    <mergeCell ref="E307:F307"/>
+    <mergeCell ref="E308:F308"/>
+    <mergeCell ref="E309:F309"/>
+    <mergeCell ref="E310:F310"/>
+    <mergeCell ref="E299:F299"/>
+    <mergeCell ref="E300:F300"/>
+    <mergeCell ref="E301:F301"/>
+    <mergeCell ref="E302:F302"/>
+    <mergeCell ref="E303:F303"/>
+    <mergeCell ref="E304:F304"/>
+    <mergeCell ref="E293:F293"/>
+    <mergeCell ref="E294:F294"/>
+    <mergeCell ref="E295:F295"/>
+    <mergeCell ref="E296:F296"/>
+    <mergeCell ref="E297:F297"/>
+    <mergeCell ref="E298:F298"/>
+    <mergeCell ref="E287:F287"/>
+    <mergeCell ref="E288:F288"/>
+    <mergeCell ref="E289:F289"/>
+    <mergeCell ref="E290:F290"/>
+    <mergeCell ref="E291:F291"/>
+    <mergeCell ref="E292:F292"/>
+    <mergeCell ref="E281:F281"/>
+    <mergeCell ref="E282:F282"/>
+    <mergeCell ref="E283:F283"/>
+    <mergeCell ref="E284:F284"/>
+    <mergeCell ref="E285:F285"/>
+    <mergeCell ref="E286:F286"/>
+    <mergeCell ref="E275:F275"/>
+    <mergeCell ref="E276:F276"/>
+    <mergeCell ref="E277:F277"/>
+    <mergeCell ref="E278:F278"/>
+    <mergeCell ref="E279:F279"/>
+    <mergeCell ref="E280:F280"/>
+    <mergeCell ref="E269:F269"/>
+    <mergeCell ref="E270:F270"/>
+    <mergeCell ref="E271:F271"/>
+    <mergeCell ref="E272:F272"/>
+    <mergeCell ref="E273:F273"/>
+    <mergeCell ref="E274:F274"/>
+    <mergeCell ref="E263:F263"/>
+    <mergeCell ref="E264:F264"/>
+    <mergeCell ref="E265:F265"/>
+    <mergeCell ref="E266:F266"/>
+    <mergeCell ref="E267:F267"/>
+    <mergeCell ref="E268:F268"/>
+    <mergeCell ref="E257:F257"/>
+    <mergeCell ref="E258:F258"/>
+    <mergeCell ref="E259:F259"/>
+    <mergeCell ref="E260:F260"/>
+    <mergeCell ref="E261:F261"/>
+    <mergeCell ref="E262:F262"/>
+    <mergeCell ref="E251:F251"/>
+    <mergeCell ref="E252:F252"/>
+    <mergeCell ref="E253:F253"/>
+    <mergeCell ref="E254:F254"/>
+    <mergeCell ref="E255:F255"/>
+    <mergeCell ref="E256:F256"/>
+    <mergeCell ref="E245:F245"/>
+    <mergeCell ref="E246:F246"/>
+    <mergeCell ref="E247:F247"/>
+    <mergeCell ref="E248:F248"/>
+    <mergeCell ref="E249:F249"/>
+    <mergeCell ref="E250:F250"/>
+    <mergeCell ref="E239:F239"/>
+    <mergeCell ref="E240:F240"/>
+    <mergeCell ref="E241:F241"/>
+    <mergeCell ref="E242:F242"/>
+    <mergeCell ref="E243:F243"/>
+    <mergeCell ref="E244:F244"/>
+    <mergeCell ref="E233:F233"/>
+    <mergeCell ref="E234:F234"/>
+    <mergeCell ref="E235:F235"/>
+    <mergeCell ref="E236:F236"/>
+    <mergeCell ref="E237:F237"/>
+    <mergeCell ref="E238:F238"/>
+    <mergeCell ref="E227:F227"/>
+    <mergeCell ref="E228:F228"/>
+    <mergeCell ref="E229:F229"/>
+    <mergeCell ref="E230:F230"/>
+    <mergeCell ref="E231:F231"/>
+    <mergeCell ref="E232:F232"/>
+    <mergeCell ref="E221:F221"/>
+    <mergeCell ref="E222:F222"/>
+    <mergeCell ref="E223:F223"/>
+    <mergeCell ref="E224:F224"/>
+    <mergeCell ref="E225:F225"/>
+    <mergeCell ref="E226:F226"/>
+    <mergeCell ref="E215:F215"/>
+    <mergeCell ref="E216:F216"/>
+    <mergeCell ref="E217:F217"/>
+    <mergeCell ref="E218:F218"/>
+    <mergeCell ref="E219:F219"/>
+    <mergeCell ref="E220:F220"/>
+    <mergeCell ref="E209:F209"/>
+    <mergeCell ref="E210:F210"/>
+    <mergeCell ref="E211:F211"/>
+    <mergeCell ref="E212:F212"/>
+    <mergeCell ref="E213:F213"/>
+    <mergeCell ref="E214:F214"/>
+    <mergeCell ref="E203:F203"/>
+    <mergeCell ref="E204:F204"/>
+    <mergeCell ref="E205:F205"/>
+    <mergeCell ref="E206:F206"/>
+    <mergeCell ref="E207:F207"/>
+    <mergeCell ref="E208:F208"/>
+    <mergeCell ref="E197:F197"/>
+    <mergeCell ref="E198:F198"/>
+    <mergeCell ref="E199:F199"/>
+    <mergeCell ref="E200:F200"/>
+    <mergeCell ref="E201:F201"/>
+    <mergeCell ref="E202:F202"/>
+    <mergeCell ref="E191:F191"/>
+    <mergeCell ref="E192:F192"/>
+    <mergeCell ref="E193:F193"/>
+    <mergeCell ref="E194:F194"/>
+    <mergeCell ref="E195:F195"/>
+    <mergeCell ref="E196:F196"/>
+    <mergeCell ref="E185:F185"/>
+    <mergeCell ref="E186:F186"/>
+    <mergeCell ref="E187:F187"/>
+    <mergeCell ref="E188:F188"/>
+    <mergeCell ref="E189:F189"/>
+    <mergeCell ref="E190:F190"/>
+    <mergeCell ref="E179:F179"/>
+    <mergeCell ref="E180:F180"/>
+    <mergeCell ref="E181:F181"/>
+    <mergeCell ref="E182:F182"/>
+    <mergeCell ref="E183:F183"/>
+    <mergeCell ref="E184:F184"/>
+    <mergeCell ref="E173:F173"/>
+    <mergeCell ref="E174:F174"/>
+    <mergeCell ref="E175:F175"/>
+    <mergeCell ref="E176:F176"/>
+    <mergeCell ref="E177:F177"/>
+    <mergeCell ref="E178:F178"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="E168:F168"/>
+    <mergeCell ref="E169:F169"/>
+    <mergeCell ref="E170:F170"/>
+    <mergeCell ref="E171:F171"/>
+    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="E161:F161"/>
+    <mergeCell ref="E162:F162"/>
+    <mergeCell ref="E163:F163"/>
+    <mergeCell ref="E164:F164"/>
+    <mergeCell ref="E165:F165"/>
+    <mergeCell ref="E166:F166"/>
+    <mergeCell ref="E155:F155"/>
+    <mergeCell ref="E156:F156"/>
+    <mergeCell ref="E157:F157"/>
+    <mergeCell ref="E158:F158"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="E149:F149"/>
+    <mergeCell ref="E150:F150"/>
+    <mergeCell ref="E151:F151"/>
+    <mergeCell ref="E152:F152"/>
+    <mergeCell ref="E153:F153"/>
+    <mergeCell ref="E154:F154"/>
+    <mergeCell ref="E143:F143"/>
+    <mergeCell ref="E144:F144"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="E146:F146"/>
+    <mergeCell ref="E147:F147"/>
+    <mergeCell ref="E148:F148"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="E141:F141"/>
+    <mergeCell ref="E142:F142"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
@@ -27774,544 +28302,16 @@
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="E137:F137"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="E141:F141"/>
-    <mergeCell ref="E142:F142"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="E149:F149"/>
-    <mergeCell ref="E150:F150"/>
-    <mergeCell ref="E151:F151"/>
-    <mergeCell ref="E152:F152"/>
-    <mergeCell ref="E153:F153"/>
-    <mergeCell ref="E154:F154"/>
-    <mergeCell ref="E143:F143"/>
-    <mergeCell ref="E144:F144"/>
-    <mergeCell ref="E145:F145"/>
-    <mergeCell ref="E146:F146"/>
-    <mergeCell ref="E147:F147"/>
-    <mergeCell ref="E148:F148"/>
-    <mergeCell ref="E161:F161"/>
-    <mergeCell ref="E162:F162"/>
-    <mergeCell ref="E163:F163"/>
-    <mergeCell ref="E164:F164"/>
-    <mergeCell ref="E165:F165"/>
-    <mergeCell ref="E166:F166"/>
-    <mergeCell ref="E155:F155"/>
-    <mergeCell ref="E156:F156"/>
-    <mergeCell ref="E157:F157"/>
-    <mergeCell ref="E158:F158"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="E173:F173"/>
-    <mergeCell ref="E174:F174"/>
-    <mergeCell ref="E175:F175"/>
-    <mergeCell ref="E176:F176"/>
-    <mergeCell ref="E177:F177"/>
-    <mergeCell ref="E178:F178"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="E168:F168"/>
-    <mergeCell ref="E169:F169"/>
-    <mergeCell ref="E170:F170"/>
-    <mergeCell ref="E171:F171"/>
-    <mergeCell ref="E172:F172"/>
-    <mergeCell ref="E185:F185"/>
-    <mergeCell ref="E186:F186"/>
-    <mergeCell ref="E187:F187"/>
-    <mergeCell ref="E188:F188"/>
-    <mergeCell ref="E189:F189"/>
-    <mergeCell ref="E190:F190"/>
-    <mergeCell ref="E179:F179"/>
-    <mergeCell ref="E180:F180"/>
-    <mergeCell ref="E181:F181"/>
-    <mergeCell ref="E182:F182"/>
-    <mergeCell ref="E183:F183"/>
-    <mergeCell ref="E184:F184"/>
-    <mergeCell ref="E197:F197"/>
-    <mergeCell ref="E198:F198"/>
-    <mergeCell ref="E199:F199"/>
-    <mergeCell ref="E200:F200"/>
-    <mergeCell ref="E201:F201"/>
-    <mergeCell ref="E202:F202"/>
-    <mergeCell ref="E191:F191"/>
-    <mergeCell ref="E192:F192"/>
-    <mergeCell ref="E193:F193"/>
-    <mergeCell ref="E194:F194"/>
-    <mergeCell ref="E195:F195"/>
-    <mergeCell ref="E196:F196"/>
-    <mergeCell ref="E209:F209"/>
-    <mergeCell ref="E210:F210"/>
-    <mergeCell ref="E211:F211"/>
-    <mergeCell ref="E212:F212"/>
-    <mergeCell ref="E213:F213"/>
-    <mergeCell ref="E214:F214"/>
-    <mergeCell ref="E203:F203"/>
-    <mergeCell ref="E204:F204"/>
-    <mergeCell ref="E205:F205"/>
-    <mergeCell ref="E206:F206"/>
-    <mergeCell ref="E207:F207"/>
-    <mergeCell ref="E208:F208"/>
-    <mergeCell ref="E221:F221"/>
-    <mergeCell ref="E222:F222"/>
-    <mergeCell ref="E223:F223"/>
-    <mergeCell ref="E224:F224"/>
-    <mergeCell ref="E225:F225"/>
-    <mergeCell ref="E226:F226"/>
-    <mergeCell ref="E215:F215"/>
-    <mergeCell ref="E216:F216"/>
-    <mergeCell ref="E217:F217"/>
-    <mergeCell ref="E218:F218"/>
-    <mergeCell ref="E219:F219"/>
-    <mergeCell ref="E220:F220"/>
-    <mergeCell ref="E233:F233"/>
-    <mergeCell ref="E234:F234"/>
-    <mergeCell ref="E235:F235"/>
-    <mergeCell ref="E236:F236"/>
-    <mergeCell ref="E237:F237"/>
-    <mergeCell ref="E238:F238"/>
-    <mergeCell ref="E227:F227"/>
-    <mergeCell ref="E228:F228"/>
-    <mergeCell ref="E229:F229"/>
-    <mergeCell ref="E230:F230"/>
-    <mergeCell ref="E231:F231"/>
-    <mergeCell ref="E232:F232"/>
-    <mergeCell ref="E245:F245"/>
-    <mergeCell ref="E246:F246"/>
-    <mergeCell ref="E247:F247"/>
-    <mergeCell ref="E248:F248"/>
-    <mergeCell ref="E249:F249"/>
-    <mergeCell ref="E250:F250"/>
-    <mergeCell ref="E239:F239"/>
-    <mergeCell ref="E240:F240"/>
-    <mergeCell ref="E241:F241"/>
-    <mergeCell ref="E242:F242"/>
-    <mergeCell ref="E243:F243"/>
-    <mergeCell ref="E244:F244"/>
-    <mergeCell ref="E257:F257"/>
-    <mergeCell ref="E258:F258"/>
-    <mergeCell ref="E259:F259"/>
-    <mergeCell ref="E260:F260"/>
-    <mergeCell ref="E261:F261"/>
-    <mergeCell ref="E262:F262"/>
-    <mergeCell ref="E251:F251"/>
-    <mergeCell ref="E252:F252"/>
-    <mergeCell ref="E253:F253"/>
-    <mergeCell ref="E254:F254"/>
-    <mergeCell ref="E255:F255"/>
-    <mergeCell ref="E256:F256"/>
-    <mergeCell ref="E269:F269"/>
-    <mergeCell ref="E270:F270"/>
-    <mergeCell ref="E271:F271"/>
-    <mergeCell ref="E272:F272"/>
-    <mergeCell ref="E273:F273"/>
-    <mergeCell ref="E274:F274"/>
-    <mergeCell ref="E263:F263"/>
-    <mergeCell ref="E264:F264"/>
-    <mergeCell ref="E265:F265"/>
-    <mergeCell ref="E266:F266"/>
-    <mergeCell ref="E267:F267"/>
-    <mergeCell ref="E268:F268"/>
-    <mergeCell ref="E281:F281"/>
-    <mergeCell ref="E282:F282"/>
-    <mergeCell ref="E283:F283"/>
-    <mergeCell ref="E284:F284"/>
-    <mergeCell ref="E285:F285"/>
-    <mergeCell ref="E286:F286"/>
-    <mergeCell ref="E275:F275"/>
-    <mergeCell ref="E276:F276"/>
-    <mergeCell ref="E277:F277"/>
-    <mergeCell ref="E278:F278"/>
-    <mergeCell ref="E279:F279"/>
-    <mergeCell ref="E280:F280"/>
-    <mergeCell ref="E293:F293"/>
-    <mergeCell ref="E294:F294"/>
-    <mergeCell ref="E295:F295"/>
-    <mergeCell ref="E296:F296"/>
-    <mergeCell ref="E297:F297"/>
-    <mergeCell ref="E298:F298"/>
-    <mergeCell ref="E287:F287"/>
-    <mergeCell ref="E288:F288"/>
-    <mergeCell ref="E289:F289"/>
-    <mergeCell ref="E290:F290"/>
-    <mergeCell ref="E291:F291"/>
-    <mergeCell ref="E292:F292"/>
-    <mergeCell ref="E305:F305"/>
-    <mergeCell ref="E306:F306"/>
-    <mergeCell ref="E307:F307"/>
-    <mergeCell ref="E308:F308"/>
-    <mergeCell ref="E309:F309"/>
-    <mergeCell ref="E310:F310"/>
-    <mergeCell ref="E299:F299"/>
-    <mergeCell ref="E300:F300"/>
-    <mergeCell ref="E301:F301"/>
-    <mergeCell ref="E302:F302"/>
-    <mergeCell ref="E303:F303"/>
-    <mergeCell ref="E304:F304"/>
-    <mergeCell ref="E317:F317"/>
-    <mergeCell ref="E318:F318"/>
-    <mergeCell ref="E319:F319"/>
-    <mergeCell ref="E320:F320"/>
-    <mergeCell ref="E321:F321"/>
-    <mergeCell ref="E322:F322"/>
-    <mergeCell ref="E311:F311"/>
-    <mergeCell ref="E312:F312"/>
-    <mergeCell ref="E313:F313"/>
-    <mergeCell ref="E314:F314"/>
-    <mergeCell ref="E315:F315"/>
-    <mergeCell ref="E316:F316"/>
-    <mergeCell ref="E329:F329"/>
-    <mergeCell ref="E330:F330"/>
-    <mergeCell ref="E331:F331"/>
-    <mergeCell ref="E332:F332"/>
-    <mergeCell ref="E333:F333"/>
-    <mergeCell ref="E334:F334"/>
-    <mergeCell ref="E323:F323"/>
-    <mergeCell ref="E324:F324"/>
-    <mergeCell ref="E325:F325"/>
-    <mergeCell ref="E326:F326"/>
-    <mergeCell ref="E327:F327"/>
-    <mergeCell ref="E328:F328"/>
-    <mergeCell ref="E341:F341"/>
-    <mergeCell ref="E342:F342"/>
-    <mergeCell ref="E343:F343"/>
-    <mergeCell ref="E344:F344"/>
-    <mergeCell ref="E345:F345"/>
-    <mergeCell ref="E346:F346"/>
-    <mergeCell ref="E335:F335"/>
-    <mergeCell ref="E336:F336"/>
-    <mergeCell ref="E337:F337"/>
-    <mergeCell ref="E338:F338"/>
-    <mergeCell ref="E339:F339"/>
-    <mergeCell ref="E340:F340"/>
-    <mergeCell ref="E353:F353"/>
-    <mergeCell ref="E354:F354"/>
-    <mergeCell ref="E355:F355"/>
-    <mergeCell ref="E356:F356"/>
-    <mergeCell ref="E357:F357"/>
-    <mergeCell ref="E358:F358"/>
-    <mergeCell ref="E347:F347"/>
-    <mergeCell ref="E348:F348"/>
-    <mergeCell ref="E349:F349"/>
-    <mergeCell ref="E350:F350"/>
-    <mergeCell ref="E351:F351"/>
-    <mergeCell ref="E352:F352"/>
-    <mergeCell ref="E365:F365"/>
-    <mergeCell ref="E366:F366"/>
-    <mergeCell ref="E367:F367"/>
-    <mergeCell ref="E368:F368"/>
-    <mergeCell ref="E369:F369"/>
-    <mergeCell ref="E370:F370"/>
-    <mergeCell ref="E359:F359"/>
-    <mergeCell ref="E360:F360"/>
-    <mergeCell ref="E361:F361"/>
-    <mergeCell ref="E362:F362"/>
-    <mergeCell ref="E363:F363"/>
-    <mergeCell ref="E364:F364"/>
-    <mergeCell ref="E377:F377"/>
-    <mergeCell ref="E378:F378"/>
-    <mergeCell ref="E379:F379"/>
-    <mergeCell ref="E380:F380"/>
-    <mergeCell ref="E381:F381"/>
-    <mergeCell ref="E382:F382"/>
-    <mergeCell ref="E371:F371"/>
-    <mergeCell ref="E372:F372"/>
-    <mergeCell ref="E373:F373"/>
-    <mergeCell ref="E374:F374"/>
-    <mergeCell ref="E375:F375"/>
-    <mergeCell ref="E376:F376"/>
-    <mergeCell ref="E389:F389"/>
-    <mergeCell ref="E390:F390"/>
-    <mergeCell ref="E391:F391"/>
-    <mergeCell ref="E392:F392"/>
-    <mergeCell ref="E393:F393"/>
-    <mergeCell ref="E394:F394"/>
-    <mergeCell ref="E383:F383"/>
-    <mergeCell ref="E384:F384"/>
-    <mergeCell ref="E385:F385"/>
-    <mergeCell ref="E386:F386"/>
-    <mergeCell ref="E387:F387"/>
-    <mergeCell ref="E388:F388"/>
-    <mergeCell ref="E401:F401"/>
-    <mergeCell ref="E402:F402"/>
-    <mergeCell ref="E403:F403"/>
-    <mergeCell ref="E404:F404"/>
-    <mergeCell ref="E405:F405"/>
-    <mergeCell ref="E406:F406"/>
-    <mergeCell ref="E395:F395"/>
-    <mergeCell ref="E396:F396"/>
-    <mergeCell ref="E397:F397"/>
-    <mergeCell ref="E398:F398"/>
-    <mergeCell ref="E399:F399"/>
-    <mergeCell ref="E400:F400"/>
-    <mergeCell ref="E413:F413"/>
-    <mergeCell ref="E414:F414"/>
-    <mergeCell ref="E415:F415"/>
-    <mergeCell ref="E416:F416"/>
-    <mergeCell ref="E417:F417"/>
-    <mergeCell ref="E418:F418"/>
-    <mergeCell ref="E407:F407"/>
-    <mergeCell ref="E408:F408"/>
-    <mergeCell ref="E409:F409"/>
-    <mergeCell ref="E410:F410"/>
-    <mergeCell ref="E411:F411"/>
-    <mergeCell ref="E412:F412"/>
-    <mergeCell ref="E425:F425"/>
-    <mergeCell ref="E426:F426"/>
-    <mergeCell ref="E427:F427"/>
-    <mergeCell ref="E428:F428"/>
-    <mergeCell ref="E429:F429"/>
-    <mergeCell ref="E430:F430"/>
-    <mergeCell ref="E419:F419"/>
-    <mergeCell ref="E420:F420"/>
-    <mergeCell ref="E421:F421"/>
-    <mergeCell ref="E422:F422"/>
-    <mergeCell ref="E423:F423"/>
-    <mergeCell ref="E424:F424"/>
-    <mergeCell ref="E437:F437"/>
-    <mergeCell ref="E438:F438"/>
-    <mergeCell ref="E439:F439"/>
-    <mergeCell ref="E440:F440"/>
-    <mergeCell ref="E441:F441"/>
-    <mergeCell ref="E442:F442"/>
-    <mergeCell ref="E431:F431"/>
-    <mergeCell ref="E432:F432"/>
-    <mergeCell ref="E433:F433"/>
-    <mergeCell ref="E434:F434"/>
-    <mergeCell ref="E435:F435"/>
-    <mergeCell ref="E436:F436"/>
-    <mergeCell ref="E449:F449"/>
-    <mergeCell ref="E450:F450"/>
-    <mergeCell ref="E451:F451"/>
-    <mergeCell ref="E452:F452"/>
-    <mergeCell ref="E453:F453"/>
-    <mergeCell ref="E454:F454"/>
-    <mergeCell ref="E443:F443"/>
-    <mergeCell ref="E444:F444"/>
-    <mergeCell ref="E445:F445"/>
-    <mergeCell ref="E446:F446"/>
-    <mergeCell ref="E447:F447"/>
-    <mergeCell ref="E448:F448"/>
-    <mergeCell ref="E461:F461"/>
-    <mergeCell ref="E462:F462"/>
-    <mergeCell ref="E463:F463"/>
-    <mergeCell ref="E464:F464"/>
-    <mergeCell ref="E465:F465"/>
-    <mergeCell ref="E466:F466"/>
-    <mergeCell ref="E455:F455"/>
-    <mergeCell ref="E456:F456"/>
-    <mergeCell ref="E457:F457"/>
-    <mergeCell ref="E458:F458"/>
-    <mergeCell ref="E459:F459"/>
-    <mergeCell ref="E460:F460"/>
-    <mergeCell ref="E473:F473"/>
-    <mergeCell ref="E474:F474"/>
-    <mergeCell ref="E475:F475"/>
-    <mergeCell ref="E476:F476"/>
-    <mergeCell ref="E477:F477"/>
-    <mergeCell ref="E478:F478"/>
-    <mergeCell ref="E467:F467"/>
-    <mergeCell ref="E468:F468"/>
-    <mergeCell ref="E469:F469"/>
-    <mergeCell ref="E470:F470"/>
-    <mergeCell ref="E471:F471"/>
-    <mergeCell ref="E472:F472"/>
-    <mergeCell ref="E485:F485"/>
-    <mergeCell ref="E486:F486"/>
-    <mergeCell ref="E487:F487"/>
-    <mergeCell ref="E488:F488"/>
-    <mergeCell ref="E489:F489"/>
-    <mergeCell ref="E490:F490"/>
-    <mergeCell ref="E479:F479"/>
-    <mergeCell ref="E480:F480"/>
-    <mergeCell ref="E481:F481"/>
-    <mergeCell ref="E482:F482"/>
-    <mergeCell ref="E483:F483"/>
-    <mergeCell ref="E484:F484"/>
-    <mergeCell ref="E497:F497"/>
-    <mergeCell ref="E498:F498"/>
-    <mergeCell ref="E499:F499"/>
-    <mergeCell ref="E500:F500"/>
-    <mergeCell ref="E501:F501"/>
-    <mergeCell ref="E502:F502"/>
-    <mergeCell ref="E491:F491"/>
-    <mergeCell ref="E492:F492"/>
-    <mergeCell ref="E493:F493"/>
-    <mergeCell ref="E494:F494"/>
-    <mergeCell ref="E495:F495"/>
-    <mergeCell ref="E496:F496"/>
-    <mergeCell ref="E509:F509"/>
-    <mergeCell ref="E510:F510"/>
-    <mergeCell ref="E511:F511"/>
-    <mergeCell ref="E512:F512"/>
-    <mergeCell ref="E513:F513"/>
-    <mergeCell ref="E514:F514"/>
-    <mergeCell ref="E503:F503"/>
-    <mergeCell ref="E504:F504"/>
-    <mergeCell ref="E505:F505"/>
-    <mergeCell ref="E506:F506"/>
-    <mergeCell ref="E507:F507"/>
-    <mergeCell ref="E508:F508"/>
-    <mergeCell ref="E521:F521"/>
-    <mergeCell ref="E522:F522"/>
-    <mergeCell ref="E523:F523"/>
-    <mergeCell ref="E524:F524"/>
-    <mergeCell ref="E525:F525"/>
-    <mergeCell ref="E526:F526"/>
-    <mergeCell ref="E515:F515"/>
-    <mergeCell ref="E516:F516"/>
-    <mergeCell ref="E517:F517"/>
-    <mergeCell ref="E518:F518"/>
-    <mergeCell ref="E519:F519"/>
-    <mergeCell ref="E520:F520"/>
-    <mergeCell ref="E533:F533"/>
-    <mergeCell ref="E534:F534"/>
-    <mergeCell ref="E535:F535"/>
-    <mergeCell ref="E536:F536"/>
-    <mergeCell ref="E537:F537"/>
-    <mergeCell ref="E538:F538"/>
-    <mergeCell ref="E527:F527"/>
-    <mergeCell ref="E528:F528"/>
-    <mergeCell ref="E529:F529"/>
-    <mergeCell ref="E530:F530"/>
-    <mergeCell ref="E531:F531"/>
-    <mergeCell ref="E532:F532"/>
-    <mergeCell ref="E545:F545"/>
-    <mergeCell ref="E546:F546"/>
-    <mergeCell ref="E547:F547"/>
-    <mergeCell ref="E548:F548"/>
-    <mergeCell ref="E549:F549"/>
-    <mergeCell ref="E550:F550"/>
-    <mergeCell ref="E539:F539"/>
-    <mergeCell ref="E540:F540"/>
-    <mergeCell ref="E541:F541"/>
-    <mergeCell ref="E542:F542"/>
-    <mergeCell ref="E543:F543"/>
-    <mergeCell ref="E544:F544"/>
-    <mergeCell ref="E557:F557"/>
-    <mergeCell ref="E558:F558"/>
-    <mergeCell ref="E559:F559"/>
-    <mergeCell ref="E560:F560"/>
-    <mergeCell ref="E551:F551"/>
-    <mergeCell ref="E552:F552"/>
-    <mergeCell ref="E553:F553"/>
-    <mergeCell ref="E554:F554"/>
-    <mergeCell ref="E555:F555"/>
-    <mergeCell ref="E556:F556"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
